--- a/documentation/3_2_Modele_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_Modele_PlanningJeudiVendredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F84961DE-42BF-401A-8E18-499CFE44D1CF}"/>
+  <xr:revisionPtr revIDLastSave="301" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CC763B2-5D80-40ED-8DC7-4363DB781857}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,19 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$B:$D,Planning!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$B$1:$CF$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$B$1:$CF$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -67,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Tâches</t>
   </si>
@@ -174,9 +179,6 @@
     <t>Terminé</t>
   </si>
   <si>
-    <t>En cours</t>
-  </si>
-  <si>
     <t>Documentation</t>
   </si>
   <si>
@@ -184,6 +186,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Web summary</t>
+  </si>
+  <si>
+    <t>Sprint review</t>
   </si>
 </sst>
 </file>
@@ -277,7 +282,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +349,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="36">
     <border>
@@ -787,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -953,9 +964,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1027,10 +1035,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1073,10 +1077,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1095,10 +1095,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1117,10 +1113,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1207,18 +1199,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1266,6 +1246,102 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1300,11 +1376,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFFF9999"/>
       <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
@@ -1324,14 +1400,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
+      <xdr:colOff>19842</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>124239</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1347,8 +1423,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4285386" y="704022"/>
-          <a:ext cx="3781875" cy="5441415"/>
+          <a:off x="4287042" y="695325"/>
+          <a:ext cx="4980783" cy="5978128"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1757,13 +1833,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CG37"/>
+  <dimension ref="A1:CG41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1997,10 +2073,10 @@
       <c r="CF3" s="27"/>
     </row>
     <row r="4" spans="1:85" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="119"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
@@ -2132,8 +2208,8 @@
       </c>
     </row>
     <row r="5" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
-      <c r="B5" s="121"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="18" t="s">
         <v>3</v>
       </c>
@@ -2382,33 +2458,33 @@
       </c>
       <c r="CG5" s="28"/>
     </row>
-    <row r="6" spans="1:85" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="112" t="s">
+    <row r="6" spans="1:85" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="49"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="48"/>
       <c r="U6" s="29" t="s">
         <v>9</v>
       </c>
@@ -2419,89 +2495,89 @@
       <c r="Z6" s="30"/>
       <c r="AA6" s="30"/>
       <c r="AB6" s="31"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="50"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="50"/>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="45"/>
-      <c r="AN6" s="45"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="45"/>
-      <c r="AQ6" s="45"/>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="50"/>
-      <c r="AT6" s="45"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="45"/>
-      <c r="AW6" s="45"/>
-      <c r="AX6" s="45"/>
-      <c r="AY6" s="45"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="50"/>
-      <c r="BB6" s="45"/>
-      <c r="BC6" s="45"/>
-      <c r="BD6" s="45"/>
-      <c r="BE6" s="45"/>
-      <c r="BF6" s="45"/>
-      <c r="BG6" s="45"/>
-      <c r="BH6" s="49"/>
-      <c r="BI6" s="50"/>
-      <c r="BJ6" s="45"/>
-      <c r="BK6" s="45"/>
-      <c r="BL6" s="45"/>
-      <c r="BM6" s="45"/>
-      <c r="BN6" s="45"/>
-      <c r="BO6" s="45"/>
-      <c r="BP6" s="49"/>
-      <c r="BQ6" s="50"/>
-      <c r="BR6" s="45"/>
-      <c r="BS6" s="45"/>
-      <c r="BT6" s="45"/>
-      <c r="BU6" s="45"/>
-      <c r="BV6" s="45"/>
-      <c r="BW6" s="45"/>
-      <c r="BX6" s="49"/>
-      <c r="BY6" s="50"/>
-      <c r="BZ6" s="45"/>
-      <c r="CA6" s="45"/>
-      <c r="CB6" s="45"/>
-      <c r="CC6" s="45"/>
-      <c r="CD6" s="45"/>
-      <c r="CE6" s="45"/>
-      <c r="CF6" s="49"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="44"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="44"/>
+      <c r="AV6" s="44"/>
+      <c r="AW6" s="44"/>
+      <c r="AX6" s="44"/>
+      <c r="AY6" s="44"/>
+      <c r="AZ6" s="48"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="44"/>
+      <c r="BC6" s="44"/>
+      <c r="BD6" s="44"/>
+      <c r="BE6" s="44"/>
+      <c r="BF6" s="44"/>
+      <c r="BG6" s="44"/>
+      <c r="BH6" s="48"/>
+      <c r="BI6" s="49"/>
+      <c r="BJ6" s="44"/>
+      <c r="BK6" s="44"/>
+      <c r="BL6" s="44"/>
+      <c r="BM6" s="44"/>
+      <c r="BN6" s="44"/>
+      <c r="BO6" s="44"/>
+      <c r="BP6" s="48"/>
+      <c r="BQ6" s="49"/>
+      <c r="BR6" s="44"/>
+      <c r="BS6" s="44"/>
+      <c r="BT6" s="44"/>
+      <c r="BU6" s="44"/>
+      <c r="BV6" s="44"/>
+      <c r="BW6" s="44"/>
+      <c r="BX6" s="48"/>
+      <c r="BY6" s="49"/>
+      <c r="BZ6" s="44"/>
+      <c r="CA6" s="44"/>
+      <c r="CB6" s="44"/>
+      <c r="CC6" s="44"/>
+      <c r="CD6" s="44"/>
+      <c r="CE6" s="44"/>
+      <c r="CF6" s="48"/>
       <c r="CG6" s="28"/>
     </row>
-    <row r="7" spans="1:85" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="112"/>
-      <c r="B7" s="102" t="s">
+    <row r="7" spans="1:85" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="107"/>
+      <c r="B7" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="56"/>
       <c r="U7" s="32"/>
       <c r="V7" s="37"/>
       <c r="W7" s="37"/>
@@ -2510,89 +2586,89 @@
       <c r="Z7" s="37"/>
       <c r="AA7" s="37"/>
       <c r="AB7" s="33"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="56"/>
-      <c r="AM7" s="56"/>
-      <c r="AN7" s="56"/>
-      <c r="AO7" s="56"/>
-      <c r="AP7" s="56"/>
-      <c r="AQ7" s="56"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="55"/>
-      <c r="AT7" s="56"/>
-      <c r="AU7" s="56"/>
-      <c r="AV7" s="56"/>
-      <c r="AW7" s="56"/>
-      <c r="AX7" s="56"/>
-      <c r="AY7" s="56"/>
-      <c r="AZ7" s="57"/>
-      <c r="BA7" s="55"/>
-      <c r="BB7" s="56"/>
-      <c r="BC7" s="56"/>
-      <c r="BD7" s="56"/>
-      <c r="BE7" s="56"/>
-      <c r="BF7" s="56"/>
-      <c r="BG7" s="56"/>
-      <c r="BH7" s="57"/>
-      <c r="BI7" s="55"/>
-      <c r="BJ7" s="56"/>
-      <c r="BK7" s="56"/>
-      <c r="BL7" s="56"/>
-      <c r="BM7" s="56"/>
-      <c r="BN7" s="56"/>
-      <c r="BO7" s="56"/>
-      <c r="BP7" s="57"/>
-      <c r="BQ7" s="55"/>
-      <c r="BR7" s="56"/>
-      <c r="BS7" s="56"/>
-      <c r="BT7" s="56"/>
-      <c r="BU7" s="56"/>
-      <c r="BV7" s="56"/>
-      <c r="BW7" s="56"/>
-      <c r="BX7" s="57"/>
-      <c r="BY7" s="55"/>
-      <c r="BZ7" s="56"/>
-      <c r="CA7" s="56"/>
-      <c r="CB7" s="56"/>
-      <c r="CC7" s="56"/>
-      <c r="CD7" s="56"/>
-      <c r="CE7" s="56"/>
-      <c r="CF7" s="57"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="55"/>
+      <c r="AM7" s="55"/>
+      <c r="AN7" s="55"/>
+      <c r="AO7" s="55"/>
+      <c r="AP7" s="55"/>
+      <c r="AQ7" s="55"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="54"/>
+      <c r="AT7" s="55"/>
+      <c r="AU7" s="55"/>
+      <c r="AV7" s="55"/>
+      <c r="AW7" s="55"/>
+      <c r="AX7" s="55"/>
+      <c r="AY7" s="55"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="54"/>
+      <c r="BB7" s="55"/>
+      <c r="BC7" s="55"/>
+      <c r="BD7" s="55"/>
+      <c r="BE7" s="55"/>
+      <c r="BF7" s="55"/>
+      <c r="BG7" s="55"/>
+      <c r="BH7" s="56"/>
+      <c r="BI7" s="54"/>
+      <c r="BJ7" s="55"/>
+      <c r="BK7" s="55"/>
+      <c r="BL7" s="55"/>
+      <c r="BM7" s="55"/>
+      <c r="BN7" s="55"/>
+      <c r="BO7" s="55"/>
+      <c r="BP7" s="56"/>
+      <c r="BQ7" s="54"/>
+      <c r="BR7" s="55"/>
+      <c r="BS7" s="55"/>
+      <c r="BT7" s="55"/>
+      <c r="BU7" s="55"/>
+      <c r="BV7" s="55"/>
+      <c r="BW7" s="55"/>
+      <c r="BX7" s="56"/>
+      <c r="BY7" s="54"/>
+      <c r="BZ7" s="55"/>
+      <c r="CA7" s="55"/>
+      <c r="CB7" s="55"/>
+      <c r="CC7" s="55"/>
+      <c r="CD7" s="55"/>
+      <c r="CE7" s="55"/>
+      <c r="CF7" s="56"/>
       <c r="CG7" s="28"/>
     </row>
-    <row r="8" spans="1:85" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="112"/>
-      <c r="B8" s="102" t="s">
+    <row r="8" spans="1:85" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="107"/>
+      <c r="B8" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="56"/>
       <c r="U8" s="32"/>
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
@@ -2601,91 +2677,91 @@
       <c r="Z8" s="37"/>
       <c r="AA8" s="37"/>
       <c r="AB8" s="33"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="56"/>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="56"/>
-      <c r="AP8" s="56"/>
-      <c r="AQ8" s="56"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="55"/>
-      <c r="AT8" s="56"/>
-      <c r="AU8" s="56"/>
-      <c r="AV8" s="56"/>
-      <c r="AW8" s="56"/>
-      <c r="AX8" s="56"/>
-      <c r="AY8" s="56"/>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="55"/>
-      <c r="BB8" s="56"/>
-      <c r="BC8" s="56"/>
-      <c r="BD8" s="56"/>
-      <c r="BE8" s="56"/>
-      <c r="BF8" s="56"/>
-      <c r="BG8" s="56"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="55"/>
-      <c r="BJ8" s="56"/>
-      <c r="BK8" s="56"/>
-      <c r="BL8" s="56"/>
-      <c r="BM8" s="56"/>
-      <c r="BN8" s="56"/>
-      <c r="BO8" s="56"/>
-      <c r="BP8" s="57"/>
-      <c r="BQ8" s="55"/>
-      <c r="BR8" s="56"/>
-      <c r="BS8" s="56"/>
-      <c r="BT8" s="56"/>
-      <c r="BU8" s="56"/>
-      <c r="BV8" s="56"/>
-      <c r="BW8" s="56"/>
-      <c r="BX8" s="57"/>
-      <c r="BY8" s="55"/>
-      <c r="BZ8" s="56"/>
-      <c r="CA8" s="56"/>
-      <c r="CB8" s="56"/>
-      <c r="CC8" s="56"/>
-      <c r="CD8" s="56"/>
-      <c r="CE8" s="56"/>
-      <c r="CF8" s="57"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="55"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="54"/>
+      <c r="AT8" s="55"/>
+      <c r="AU8" s="55"/>
+      <c r="AV8" s="55"/>
+      <c r="AW8" s="55"/>
+      <c r="AX8" s="55"/>
+      <c r="AY8" s="55"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="54"/>
+      <c r="BB8" s="55"/>
+      <c r="BC8" s="55"/>
+      <c r="BD8" s="55"/>
+      <c r="BE8" s="55"/>
+      <c r="BF8" s="55"/>
+      <c r="BG8" s="55"/>
+      <c r="BH8" s="56"/>
+      <c r="BI8" s="54"/>
+      <c r="BJ8" s="55"/>
+      <c r="BK8" s="55"/>
+      <c r="BL8" s="55"/>
+      <c r="BM8" s="55"/>
+      <c r="BN8" s="55"/>
+      <c r="BO8" s="55"/>
+      <c r="BP8" s="56"/>
+      <c r="BQ8" s="54"/>
+      <c r="BR8" s="55"/>
+      <c r="BS8" s="55"/>
+      <c r="BT8" s="55"/>
+      <c r="BU8" s="55"/>
+      <c r="BV8" s="55"/>
+      <c r="BW8" s="55"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="54"/>
+      <c r="BZ8" s="55"/>
+      <c r="CA8" s="55"/>
+      <c r="CB8" s="55"/>
+      <c r="CC8" s="55"/>
+      <c r="CD8" s="55"/>
+      <c r="CE8" s="55"/>
+      <c r="CF8" s="56"/>
       <c r="CG8" s="28"/>
     </row>
-    <row r="9" spans="1:85" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="113" t="s">
+    <row r="9" spans="1:85" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="74"/>
+      <c r="C9" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="72"/>
       <c r="U9" s="32"/>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
@@ -2694,89 +2770,89 @@
       <c r="Z9" s="37"/>
       <c r="AA9" s="37"/>
       <c r="AB9" s="33"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="61"/>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="61"/>
-      <c r="AO9" s="61"/>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="60"/>
-      <c r="AT9" s="61"/>
-      <c r="AU9" s="61"/>
-      <c r="AV9" s="61"/>
-      <c r="AW9" s="61"/>
-      <c r="AX9" s="61"/>
-      <c r="AY9" s="61"/>
-      <c r="AZ9" s="62"/>
-      <c r="BA9" s="60"/>
-      <c r="BB9" s="61"/>
-      <c r="BC9" s="61"/>
-      <c r="BD9" s="61"/>
-      <c r="BE9" s="61"/>
-      <c r="BF9" s="61"/>
-      <c r="BG9" s="61"/>
-      <c r="BH9" s="62"/>
-      <c r="BI9" s="60"/>
-      <c r="BJ9" s="61"/>
-      <c r="BK9" s="61"/>
-      <c r="BL9" s="61"/>
-      <c r="BM9" s="61"/>
-      <c r="BN9" s="61"/>
-      <c r="BO9" s="61"/>
-      <c r="BP9" s="62"/>
-      <c r="BQ9" s="60"/>
-      <c r="BR9" s="61"/>
-      <c r="BS9" s="61"/>
-      <c r="BT9" s="61"/>
-      <c r="BU9" s="61"/>
-      <c r="BV9" s="61"/>
-      <c r="BW9" s="61"/>
-      <c r="BX9" s="62"/>
-      <c r="BY9" s="60"/>
-      <c r="BZ9" s="61"/>
-      <c r="CA9" s="61"/>
-      <c r="CB9" s="61"/>
-      <c r="CC9" s="61"/>
-      <c r="CD9" s="61"/>
-      <c r="CE9" s="61"/>
-      <c r="CF9" s="62"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="61"/>
+      <c r="AK9" s="59"/>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="61"/>
+      <c r="AS9" s="59"/>
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="60"/>
+      <c r="AV9" s="60"/>
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="60"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="61"/>
+      <c r="BA9" s="59"/>
+      <c r="BB9" s="60"/>
+      <c r="BC9" s="60"/>
+      <c r="BD9" s="60"/>
+      <c r="BE9" s="60"/>
+      <c r="BF9" s="60"/>
+      <c r="BG9" s="60"/>
+      <c r="BH9" s="61"/>
+      <c r="BI9" s="59"/>
+      <c r="BJ9" s="60"/>
+      <c r="BK9" s="60"/>
+      <c r="BL9" s="60"/>
+      <c r="BM9" s="60"/>
+      <c r="BN9" s="60"/>
+      <c r="BO9" s="60"/>
+      <c r="BP9" s="61"/>
+      <c r="BQ9" s="59"/>
+      <c r="BR9" s="60"/>
+      <c r="BS9" s="60"/>
+      <c r="BT9" s="60"/>
+      <c r="BU9" s="60"/>
+      <c r="BV9" s="60"/>
+      <c r="BW9" s="60"/>
+      <c r="BX9" s="61"/>
+      <c r="BY9" s="59"/>
+      <c r="BZ9" s="60"/>
+      <c r="CA9" s="60"/>
+      <c r="CB9" s="60"/>
+      <c r="CC9" s="60"/>
+      <c r="CD9" s="60"/>
+      <c r="CE9" s="60"/>
+      <c r="CF9" s="61"/>
       <c r="CG9" s="28"/>
     </row>
-    <row r="10" spans="1:85" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="113"/>
-      <c r="B10" s="103" t="s">
+    <row r="10" spans="1:85" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="108"/>
+      <c r="B10" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="62"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="61"/>
       <c r="U10" s="32"/>
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
@@ -2785,89 +2861,89 @@
       <c r="Z10" s="37"/>
       <c r="AA10" s="37"/>
       <c r="AB10" s="33"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="61"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="61"/>
-      <c r="AO10" s="61"/>
-      <c r="AP10" s="61"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="62"/>
-      <c r="AS10" s="60"/>
-      <c r="AT10" s="61"/>
-      <c r="AU10" s="61"/>
-      <c r="AV10" s="61"/>
-      <c r="AW10" s="61"/>
-      <c r="AX10" s="61"/>
-      <c r="AY10" s="61"/>
-      <c r="AZ10" s="62"/>
-      <c r="BA10" s="60"/>
-      <c r="BB10" s="61"/>
-      <c r="BC10" s="61"/>
-      <c r="BD10" s="61"/>
-      <c r="BE10" s="61"/>
-      <c r="BF10" s="61"/>
-      <c r="BG10" s="61"/>
-      <c r="BH10" s="62"/>
-      <c r="BI10" s="60"/>
-      <c r="BJ10" s="61"/>
-      <c r="BK10" s="61"/>
-      <c r="BL10" s="61"/>
-      <c r="BM10" s="61"/>
-      <c r="BN10" s="61"/>
-      <c r="BO10" s="61"/>
-      <c r="BP10" s="62"/>
-      <c r="BQ10" s="60"/>
-      <c r="BR10" s="61"/>
-      <c r="BS10" s="61"/>
-      <c r="BT10" s="61"/>
-      <c r="BU10" s="61"/>
-      <c r="BV10" s="61"/>
-      <c r="BW10" s="61"/>
-      <c r="BX10" s="62"/>
-      <c r="BY10" s="60"/>
-      <c r="BZ10" s="61"/>
-      <c r="CA10" s="61"/>
-      <c r="CB10" s="61"/>
-      <c r="CC10" s="61"/>
-      <c r="CD10" s="61"/>
-      <c r="CE10" s="61"/>
-      <c r="CF10" s="62"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="60"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="60"/>
+      <c r="AP10" s="60"/>
+      <c r="AQ10" s="60"/>
+      <c r="AR10" s="61"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="60"/>
+      <c r="AU10" s="60"/>
+      <c r="AV10" s="60"/>
+      <c r="AW10" s="60"/>
+      <c r="AX10" s="60"/>
+      <c r="AY10" s="60"/>
+      <c r="AZ10" s="61"/>
+      <c r="BA10" s="59"/>
+      <c r="BB10" s="60"/>
+      <c r="BC10" s="60"/>
+      <c r="BD10" s="60"/>
+      <c r="BE10" s="60"/>
+      <c r="BF10" s="60"/>
+      <c r="BG10" s="60"/>
+      <c r="BH10" s="61"/>
+      <c r="BI10" s="59"/>
+      <c r="BJ10" s="60"/>
+      <c r="BK10" s="60"/>
+      <c r="BL10" s="60"/>
+      <c r="BM10" s="60"/>
+      <c r="BN10" s="60"/>
+      <c r="BO10" s="60"/>
+      <c r="BP10" s="61"/>
+      <c r="BQ10" s="59"/>
+      <c r="BR10" s="60"/>
+      <c r="BS10" s="60"/>
+      <c r="BT10" s="60"/>
+      <c r="BU10" s="60"/>
+      <c r="BV10" s="60"/>
+      <c r="BW10" s="60"/>
+      <c r="BX10" s="61"/>
+      <c r="BY10" s="59"/>
+      <c r="BZ10" s="60"/>
+      <c r="CA10" s="60"/>
+      <c r="CB10" s="60"/>
+      <c r="CC10" s="60"/>
+      <c r="CD10" s="60"/>
+      <c r="CE10" s="60"/>
+      <c r="CF10" s="61"/>
       <c r="CG10" s="28"/>
     </row>
-    <row r="11" spans="1:85" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="113"/>
-      <c r="B11" s="103" t="s">
+    <row r="11" spans="1:85" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="108"/>
+      <c r="B11" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="62"/>
+      <c r="C11" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="61"/>
       <c r="U11" s="32"/>
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
@@ -2876,91 +2952,91 @@
       <c r="Z11" s="37"/>
       <c r="AA11" s="37"/>
       <c r="AB11" s="33"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="61"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="61"/>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="60"/>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="61"/>
-      <c r="AN11" s="61"/>
-      <c r="AO11" s="61"/>
-      <c r="AP11" s="61"/>
-      <c r="AQ11" s="61"/>
-      <c r="AR11" s="62"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="61"/>
-      <c r="AU11" s="61"/>
-      <c r="AV11" s="61"/>
-      <c r="AW11" s="61"/>
-      <c r="AX11" s="61"/>
-      <c r="AY11" s="61"/>
-      <c r="AZ11" s="62"/>
-      <c r="BA11" s="60"/>
-      <c r="BB11" s="61"/>
-      <c r="BC11" s="61"/>
-      <c r="BD11" s="61"/>
-      <c r="BE11" s="61"/>
-      <c r="BF11" s="61"/>
-      <c r="BG11" s="61"/>
-      <c r="BH11" s="62"/>
-      <c r="BI11" s="60"/>
-      <c r="BJ11" s="61"/>
-      <c r="BK11" s="61"/>
-      <c r="BL11" s="61"/>
-      <c r="BM11" s="61"/>
-      <c r="BN11" s="61"/>
-      <c r="BO11" s="61"/>
-      <c r="BP11" s="62"/>
-      <c r="BQ11" s="60"/>
-      <c r="BR11" s="61"/>
-      <c r="BS11" s="61"/>
-      <c r="BT11" s="61"/>
-      <c r="BU11" s="61"/>
-      <c r="BV11" s="61"/>
-      <c r="BW11" s="61"/>
-      <c r="BX11" s="62"/>
-      <c r="BY11" s="60"/>
-      <c r="BZ11" s="61"/>
-      <c r="CA11" s="61"/>
-      <c r="CB11" s="61"/>
-      <c r="CC11" s="61"/>
-      <c r="CD11" s="61"/>
-      <c r="CE11" s="61"/>
-      <c r="CF11" s="62"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="61"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="61"/>
+      <c r="AS11" s="59"/>
+      <c r="AT11" s="60"/>
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="60"/>
+      <c r="AW11" s="60"/>
+      <c r="AX11" s="60"/>
+      <c r="AY11" s="60"/>
+      <c r="AZ11" s="61"/>
+      <c r="BA11" s="59"/>
+      <c r="BB11" s="60"/>
+      <c r="BC11" s="60"/>
+      <c r="BD11" s="60"/>
+      <c r="BE11" s="60"/>
+      <c r="BF11" s="60"/>
+      <c r="BG11" s="60"/>
+      <c r="BH11" s="61"/>
+      <c r="BI11" s="59"/>
+      <c r="BJ11" s="60"/>
+      <c r="BK11" s="60"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="60"/>
+      <c r="BN11" s="60"/>
+      <c r="BO11" s="60"/>
+      <c r="BP11" s="61"/>
+      <c r="BQ11" s="59"/>
+      <c r="BR11" s="60"/>
+      <c r="BS11" s="60"/>
+      <c r="BT11" s="60"/>
+      <c r="BU11" s="60"/>
+      <c r="BV11" s="60"/>
+      <c r="BW11" s="60"/>
+      <c r="BX11" s="61"/>
+      <c r="BY11" s="59"/>
+      <c r="BZ11" s="60"/>
+      <c r="CA11" s="60"/>
+      <c r="CB11" s="60"/>
+      <c r="CC11" s="60"/>
+      <c r="CD11" s="60"/>
+      <c r="CE11" s="60"/>
+      <c r="CF11" s="61"/>
       <c r="CG11" s="28"/>
     </row>
-    <row r="12" spans="1:85" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="114" t="s">
+    <row r="12" spans="1:85" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="68"/>
+      <c r="C12" s="130" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="66"/>
       <c r="U12" s="32"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
@@ -2969,89 +3045,87 @@
       <c r="Z12" s="37"/>
       <c r="AA12" s="37"/>
       <c r="AB12" s="33"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="67"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="73"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="74"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="67"/>
-      <c r="AM12" s="67"/>
-      <c r="AN12" s="67"/>
-      <c r="AO12" s="67"/>
-      <c r="AP12" s="67"/>
-      <c r="AQ12" s="67"/>
-      <c r="AR12" s="68"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="67"/>
-      <c r="AU12" s="67"/>
-      <c r="AV12" s="67"/>
-      <c r="AW12" s="67"/>
-      <c r="AX12" s="67"/>
-      <c r="AY12" s="67"/>
-      <c r="AZ12" s="68"/>
-      <c r="BA12" s="66"/>
-      <c r="BB12" s="67"/>
-      <c r="BC12" s="67"/>
-      <c r="BD12" s="67"/>
-      <c r="BE12" s="67"/>
-      <c r="BF12" s="67"/>
-      <c r="BG12" s="67"/>
-      <c r="BH12" s="68"/>
-      <c r="BI12" s="66"/>
-      <c r="BJ12" s="67"/>
-      <c r="BK12" s="67"/>
-      <c r="BL12" s="67"/>
-      <c r="BM12" s="67"/>
-      <c r="BN12" s="67"/>
-      <c r="BO12" s="67"/>
-      <c r="BP12" s="68"/>
-      <c r="BQ12" s="66"/>
-      <c r="BR12" s="67"/>
-      <c r="BS12" s="67"/>
-      <c r="BT12" s="67"/>
-      <c r="BU12" s="67"/>
-      <c r="BV12" s="67"/>
-      <c r="BW12" s="67"/>
-      <c r="BX12" s="68"/>
-      <c r="BY12" s="66"/>
-      <c r="BZ12" s="67"/>
-      <c r="CA12" s="67"/>
-      <c r="CB12" s="67"/>
-      <c r="CC12" s="67"/>
-      <c r="CD12" s="67"/>
-      <c r="CE12" s="67"/>
-      <c r="CF12" s="68"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="65"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="65"/>
+      <c r="AY12" s="65"/>
+      <c r="AZ12" s="66"/>
+      <c r="BA12" s="64"/>
+      <c r="BB12" s="65"/>
+      <c r="BC12" s="65"/>
+      <c r="BD12" s="65"/>
+      <c r="BE12" s="65"/>
+      <c r="BF12" s="65"/>
+      <c r="BG12" s="65"/>
+      <c r="BH12" s="66"/>
+      <c r="BI12" s="64"/>
+      <c r="BJ12" s="65"/>
+      <c r="BK12" s="65"/>
+      <c r="BL12" s="65"/>
+      <c r="BM12" s="65"/>
+      <c r="BN12" s="65"/>
+      <c r="BO12" s="65"/>
+      <c r="BP12" s="66"/>
+      <c r="BQ12" s="64"/>
+      <c r="BR12" s="65"/>
+      <c r="BS12" s="65"/>
+      <c r="BT12" s="65"/>
+      <c r="BU12" s="65"/>
+      <c r="BV12" s="65"/>
+      <c r="BW12" s="65"/>
+      <c r="BX12" s="66"/>
+      <c r="BY12" s="64"/>
+      <c r="BZ12" s="65"/>
+      <c r="CA12" s="65"/>
+      <c r="CB12" s="65"/>
+      <c r="CC12" s="65"/>
+      <c r="CD12" s="65"/>
+      <c r="CE12" s="65"/>
+      <c r="CF12" s="66"/>
       <c r="CG12" s="28"/>
     </row>
-    <row r="13" spans="1:85" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="115" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="80"/>
+    <row r="13" spans="1:85" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="133"/>
+      <c r="B13" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="131"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="66"/>
       <c r="U13" s="32"/>
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
@@ -3060,89 +3134,89 @@
       <c r="Z13" s="37"/>
       <c r="AA13" s="37"/>
       <c r="AB13" s="33"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="79"/>
-      <c r="AH13" s="79"/>
-      <c r="AI13" s="79"/>
-      <c r="AJ13" s="80"/>
-      <c r="AK13" s="78"/>
-      <c r="AL13" s="79"/>
-      <c r="AM13" s="79"/>
-      <c r="AN13" s="79"/>
-      <c r="AO13" s="73"/>
-      <c r="AP13" s="73"/>
-      <c r="AQ13" s="100"/>
-      <c r="AR13" s="74"/>
-      <c r="AS13" s="73"/>
-      <c r="AT13" s="73"/>
-      <c r="AU13" s="100"/>
-      <c r="AV13" s="74"/>
-      <c r="AW13" s="73"/>
-      <c r="AX13" s="73"/>
-      <c r="AY13" s="100"/>
-      <c r="AZ13" s="74"/>
-      <c r="BA13" s="78"/>
-      <c r="BB13" s="79"/>
-      <c r="BC13" s="79"/>
-      <c r="BD13" s="79"/>
-      <c r="BE13" s="79"/>
-      <c r="BF13" s="79"/>
-      <c r="BG13" s="79"/>
-      <c r="BH13" s="80"/>
-      <c r="BI13" s="78"/>
-      <c r="BJ13" s="79"/>
-      <c r="BK13" s="79"/>
-      <c r="BL13" s="79"/>
-      <c r="BM13" s="79"/>
-      <c r="BN13" s="79"/>
-      <c r="BO13" s="79"/>
-      <c r="BP13" s="80"/>
-      <c r="BQ13" s="78"/>
-      <c r="BR13" s="79"/>
-      <c r="BS13" s="79"/>
-      <c r="BT13" s="79"/>
-      <c r="BU13" s="79"/>
-      <c r="BV13" s="79"/>
-      <c r="BW13" s="79"/>
-      <c r="BX13" s="80"/>
-      <c r="BY13" s="78"/>
-      <c r="BZ13" s="79"/>
-      <c r="CA13" s="79"/>
-      <c r="CB13" s="79"/>
-      <c r="CC13" s="79"/>
-      <c r="CD13" s="79"/>
-      <c r="CE13" s="79"/>
-      <c r="CF13" s="80"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="64"/>
+      <c r="AL13" s="65"/>
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="65"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="65"/>
+      <c r="AU13" s="65"/>
+      <c r="AV13" s="65"/>
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="65"/>
+      <c r="AY13" s="65"/>
+      <c r="AZ13" s="66"/>
+      <c r="BA13" s="64"/>
+      <c r="BB13" s="65"/>
+      <c r="BC13" s="65"/>
+      <c r="BD13" s="65"/>
+      <c r="BE13" s="65"/>
+      <c r="BF13" s="65"/>
+      <c r="BG13" s="65"/>
+      <c r="BH13" s="66"/>
+      <c r="BI13" s="64"/>
+      <c r="BJ13" s="65"/>
+      <c r="BK13" s="65"/>
+      <c r="BL13" s="65"/>
+      <c r="BM13" s="65"/>
+      <c r="BN13" s="65"/>
+      <c r="BO13" s="65"/>
+      <c r="BP13" s="66"/>
+      <c r="BQ13" s="64"/>
+      <c r="BR13" s="65"/>
+      <c r="BS13" s="65"/>
+      <c r="BT13" s="65"/>
+      <c r="BU13" s="65"/>
+      <c r="BV13" s="65"/>
+      <c r="BW13" s="65"/>
+      <c r="BX13" s="66"/>
+      <c r="BY13" s="64"/>
+      <c r="BZ13" s="65"/>
+      <c r="CA13" s="65"/>
+      <c r="CB13" s="65"/>
+      <c r="CC13" s="65"/>
+      <c r="CD13" s="65"/>
+      <c r="CE13" s="65"/>
+      <c r="CF13" s="66"/>
       <c r="CG13" s="28"/>
     </row>
-    <row r="14" spans="1:85" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="86"/>
+    <row r="14" spans="1:85" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="141"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="77"/>
       <c r="U14" s="32"/>
       <c r="V14" s="37"/>
       <c r="W14" s="37"/>
@@ -3151,89 +3225,87 @@
       <c r="Z14" s="37"/>
       <c r="AA14" s="37"/>
       <c r="AB14" s="33"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="85"/>
-      <c r="AE14" s="85"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="85"/>
-      <c r="AH14" s="85"/>
-      <c r="AI14" s="85"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="84"/>
-      <c r="AL14" s="85"/>
-      <c r="AM14" s="85"/>
-      <c r="AN14" s="85"/>
-      <c r="AO14" s="85"/>
-      <c r="AP14" s="85"/>
-      <c r="AQ14" s="85"/>
-      <c r="AR14" s="86"/>
-      <c r="AS14" s="84"/>
-      <c r="AT14" s="85"/>
-      <c r="AU14" s="85"/>
-      <c r="AV14" s="85"/>
-      <c r="AW14" s="85"/>
-      <c r="AX14" s="85"/>
-      <c r="AY14" s="85"/>
-      <c r="AZ14" s="86"/>
-      <c r="BA14" s="84"/>
-      <c r="BB14" s="85"/>
-      <c r="BC14" s="85"/>
-      <c r="BD14" s="85"/>
-      <c r="BE14" s="85"/>
-      <c r="BF14" s="100"/>
-      <c r="BG14" s="73"/>
-      <c r="BH14" s="74"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="76"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="76"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="76"/>
+      <c r="AJ14" s="77"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="76"/>
+      <c r="AM14" s="76"/>
+      <c r="AN14" s="76"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="71"/>
+      <c r="AQ14" s="95"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="71"/>
+      <c r="AT14" s="71"/>
+      <c r="AU14" s="95"/>
+      <c r="AV14" s="72"/>
+      <c r="AW14" s="71"/>
+      <c r="AX14" s="71"/>
+      <c r="AY14" s="95"/>
+      <c r="AZ14" s="72"/>
+      <c r="BA14" s="75"/>
+      <c r="BB14" s="76"/>
+      <c r="BC14" s="76"/>
+      <c r="BD14" s="76"/>
+      <c r="BE14" s="76"/>
+      <c r="BF14" s="76"/>
+      <c r="BG14" s="76"/>
+      <c r="BH14" s="77"/>
       <c r="BI14" s="75"/>
-      <c r="BJ14" s="73"/>
-      <c r="BK14" s="73"/>
-      <c r="BL14" s="73"/>
-      <c r="BM14" s="73"/>
-      <c r="BN14" s="73"/>
-      <c r="BO14" s="73"/>
-      <c r="BP14" s="74"/>
-      <c r="BQ14" s="84"/>
-      <c r="BR14" s="85"/>
-      <c r="BS14" s="85"/>
-      <c r="BT14" s="85"/>
-      <c r="BU14" s="85"/>
-      <c r="BV14" s="85"/>
-      <c r="BW14" s="85"/>
-      <c r="BX14" s="86"/>
-      <c r="BY14" s="84"/>
-      <c r="BZ14" s="85"/>
-      <c r="CA14" s="85"/>
-      <c r="CB14" s="85"/>
-      <c r="CC14" s="85"/>
-      <c r="CD14" s="85"/>
-      <c r="CE14" s="85"/>
-      <c r="CF14" s="86"/>
+      <c r="BJ14" s="76"/>
+      <c r="BK14" s="76"/>
+      <c r="BL14" s="76"/>
+      <c r="BM14" s="76"/>
+      <c r="BN14" s="76"/>
+      <c r="BO14" s="76"/>
+      <c r="BP14" s="77"/>
+      <c r="BQ14" s="75"/>
+      <c r="BR14" s="76"/>
+      <c r="BS14" s="76"/>
+      <c r="BT14" s="76"/>
+      <c r="BU14" s="76"/>
+      <c r="BV14" s="76"/>
+      <c r="BW14" s="76"/>
+      <c r="BX14" s="77"/>
+      <c r="BY14" s="75"/>
+      <c r="BZ14" s="76"/>
+      <c r="CA14" s="76"/>
+      <c r="CB14" s="76"/>
+      <c r="CC14" s="76"/>
+      <c r="CD14" s="76"/>
+      <c r="CE14" s="76"/>
+      <c r="CF14" s="77"/>
       <c r="CG14" s="28"/>
     </row>
-    <row r="15" spans="1:85" s="93" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="92"/>
+    <row r="15" spans="1:85" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="136"/>
+      <c r="B15" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="142"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="77"/>
       <c r="U15" s="32"/>
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
@@ -3242,89 +3314,89 @@
       <c r="Z15" s="37"/>
       <c r="AA15" s="37"/>
       <c r="AB15" s="33"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="91"/>
-      <c r="AE15" s="91"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="91"/>
-      <c r="AH15" s="91"/>
-      <c r="AI15" s="91"/>
-      <c r="AJ15" s="92"/>
-      <c r="AK15" s="90"/>
-      <c r="AL15" s="91"/>
-      <c r="AM15" s="91"/>
-      <c r="AN15" s="91"/>
-      <c r="AO15" s="91"/>
-      <c r="AP15" s="91"/>
-      <c r="AQ15" s="91"/>
-      <c r="AR15" s="92"/>
-      <c r="AS15" s="90"/>
-      <c r="AT15" s="91"/>
-      <c r="AU15" s="91"/>
-      <c r="AV15" s="91"/>
-      <c r="AW15" s="91"/>
-      <c r="AX15" s="91"/>
-      <c r="AY15" s="91"/>
-      <c r="AZ15" s="92"/>
-      <c r="BA15" s="90"/>
-      <c r="BB15" s="91"/>
-      <c r="BC15" s="91"/>
-      <c r="BD15" s="91"/>
-      <c r="BE15" s="91"/>
-      <c r="BF15" s="91"/>
-      <c r="BG15" s="91"/>
-      <c r="BH15" s="92"/>
-      <c r="BI15" s="90"/>
-      <c r="BJ15" s="91"/>
-      <c r="BK15" s="91"/>
-      <c r="BL15" s="91"/>
-      <c r="BM15" s="91"/>
-      <c r="BN15" s="91"/>
-      <c r="BO15" s="91"/>
-      <c r="BP15" s="92"/>
-      <c r="BQ15" s="90"/>
-      <c r="BR15" s="91"/>
-      <c r="BS15" s="91"/>
-      <c r="BT15" s="91"/>
-      <c r="BU15" s="91"/>
-      <c r="BV15" s="73"/>
-      <c r="BW15" s="73"/>
-      <c r="BX15" s="74"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="76"/>
+      <c r="AE15" s="76"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="76"/>
+      <c r="AH15" s="76"/>
+      <c r="AI15" s="76"/>
+      <c r="AJ15" s="77"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="76"/>
+      <c r="AM15" s="76"/>
+      <c r="AN15" s="76"/>
+      <c r="AO15" s="76"/>
+      <c r="AP15" s="76"/>
+      <c r="AQ15" s="76"/>
+      <c r="AR15" s="76"/>
+      <c r="AS15" s="76"/>
+      <c r="AT15" s="76"/>
+      <c r="AU15" s="76"/>
+      <c r="AV15" s="76"/>
+      <c r="AW15" s="76"/>
+      <c r="AX15" s="76"/>
+      <c r="AY15" s="76"/>
+      <c r="AZ15" s="72"/>
+      <c r="BA15" s="75"/>
+      <c r="BB15" s="76"/>
+      <c r="BC15" s="76"/>
+      <c r="BD15" s="76"/>
+      <c r="BE15" s="76"/>
+      <c r="BF15" s="134"/>
+      <c r="BG15" s="76"/>
+      <c r="BH15" s="77"/>
+      <c r="BI15" s="75"/>
+      <c r="BJ15" s="76"/>
+      <c r="BK15" s="76"/>
+      <c r="BL15" s="76"/>
+      <c r="BM15" s="76"/>
+      <c r="BN15" s="76"/>
+      <c r="BO15" s="76"/>
+      <c r="BP15" s="77"/>
+      <c r="BQ15" s="75"/>
+      <c r="BR15" s="76"/>
+      <c r="BS15" s="76"/>
+      <c r="BT15" s="76"/>
+      <c r="BU15" s="76"/>
+      <c r="BV15" s="76"/>
+      <c r="BW15" s="76"/>
+      <c r="BX15" s="77"/>
       <c r="BY15" s="75"/>
-      <c r="BZ15" s="73"/>
-      <c r="CA15" s="73"/>
-      <c r="CB15" s="73"/>
-      <c r="CC15" s="73"/>
-      <c r="CD15" s="73"/>
-      <c r="CE15" s="91"/>
-      <c r="CF15" s="92"/>
+      <c r="BZ15" s="76"/>
+      <c r="CA15" s="76"/>
+      <c r="CB15" s="76"/>
+      <c r="CC15" s="76"/>
+      <c r="CD15" s="76"/>
+      <c r="CE15" s="76"/>
+      <c r="CF15" s="77"/>
       <c r="CG15" s="28"/>
     </row>
-    <row r="16" spans="1:85" s="99" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="122" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="98"/>
+    <row r="16" spans="1:85" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="143"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="82"/>
       <c r="U16" s="32"/>
       <c r="V16" s="37"/>
       <c r="W16" s="37"/>
@@ -3333,87 +3405,87 @@
       <c r="Z16" s="37"/>
       <c r="AA16" s="37"/>
       <c r="AB16" s="33"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="97"/>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="97"/>
-      <c r="AJ16" s="98"/>
-      <c r="AK16" s="96"/>
-      <c r="AL16" s="97"/>
-      <c r="AM16" s="97"/>
-      <c r="AN16" s="97"/>
-      <c r="AO16" s="97"/>
-      <c r="AP16" s="97"/>
-      <c r="AQ16" s="97"/>
-      <c r="AR16" s="98"/>
-      <c r="AS16" s="96"/>
-      <c r="AT16" s="97"/>
-      <c r="AU16" s="97"/>
-      <c r="AV16" s="97"/>
-      <c r="AW16" s="97"/>
-      <c r="AX16" s="97"/>
-      <c r="AY16" s="97"/>
-      <c r="AZ16" s="98"/>
-      <c r="BA16" s="96"/>
-      <c r="BB16" s="97"/>
-      <c r="BC16" s="97"/>
-      <c r="BD16" s="97"/>
-      <c r="BE16" s="97"/>
-      <c r="BF16" s="97"/>
-      <c r="BG16" s="97"/>
-      <c r="BH16" s="98"/>
-      <c r="BI16" s="96"/>
-      <c r="BJ16" s="97"/>
-      <c r="BK16" s="97"/>
-      <c r="BL16" s="97"/>
-      <c r="BM16" s="97"/>
-      <c r="BN16" s="97"/>
-      <c r="BO16" s="97"/>
-      <c r="BP16" s="98"/>
-      <c r="BQ16" s="96"/>
-      <c r="BR16" s="97"/>
-      <c r="BS16" s="97"/>
-      <c r="BT16" s="97"/>
-      <c r="BU16" s="97"/>
-      <c r="BV16" s="97"/>
-      <c r="BW16" s="97"/>
-      <c r="BX16" s="98"/>
-      <c r="BY16" s="96"/>
-      <c r="BZ16" s="97"/>
-      <c r="CA16" s="97"/>
-      <c r="CB16" s="97"/>
-      <c r="CC16" s="97"/>
-      <c r="CD16" s="97"/>
-      <c r="CE16" s="73"/>
-      <c r="CF16" s="74"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="81"/>
+      <c r="AH16" s="81"/>
+      <c r="AI16" s="81"/>
+      <c r="AJ16" s="82"/>
+      <c r="AK16" s="80"/>
+      <c r="AL16" s="81"/>
+      <c r="AM16" s="81"/>
+      <c r="AN16" s="81"/>
+      <c r="AO16" s="81"/>
+      <c r="AP16" s="81"/>
+      <c r="AQ16" s="81"/>
+      <c r="AR16" s="82"/>
+      <c r="AS16" s="80"/>
+      <c r="AT16" s="81"/>
+      <c r="AU16" s="81"/>
+      <c r="AV16" s="81"/>
+      <c r="AW16" s="81"/>
+      <c r="AX16" s="81"/>
+      <c r="AY16" s="81"/>
+      <c r="AZ16" s="82"/>
+      <c r="BA16" s="80"/>
+      <c r="BB16" s="81"/>
+      <c r="BC16" s="81"/>
+      <c r="BD16" s="81"/>
+      <c r="BE16" s="81"/>
+      <c r="BF16" s="95"/>
+      <c r="BG16" s="71"/>
+      <c r="BH16" s="72"/>
+      <c r="BI16" s="73"/>
+      <c r="BJ16" s="71"/>
+      <c r="BK16" s="71"/>
+      <c r="BL16" s="71"/>
+      <c r="BM16" s="71"/>
+      <c r="BN16" s="71"/>
+      <c r="BO16" s="71"/>
+      <c r="BP16" s="72"/>
+      <c r="BQ16" s="80"/>
+      <c r="BR16" s="81"/>
+      <c r="BS16" s="81"/>
+      <c r="BT16" s="81"/>
+      <c r="BU16" s="81"/>
+      <c r="BV16" s="81"/>
+      <c r="BW16" s="81"/>
+      <c r="BX16" s="82"/>
+      <c r="BY16" s="80"/>
+      <c r="BZ16" s="81"/>
+      <c r="CA16" s="81"/>
+      <c r="CB16" s="81"/>
+      <c r="CC16" s="81"/>
+      <c r="CD16" s="81"/>
+      <c r="CE16" s="81"/>
+      <c r="CF16" s="82"/>
       <c r="CG16" s="28"/>
     </row>
-    <row r="17" spans="1:85" s="130" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="123"/>
-      <c r="B17" s="124" t="s">
+    <row r="17" spans="1:85" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="138"/>
+      <c r="B17" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="129"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="82"/>
       <c r="U17" s="32"/>
       <c r="V17" s="37"/>
       <c r="W17" s="37"/>
@@ -3422,87 +3494,89 @@
       <c r="Z17" s="37"/>
       <c r="AA17" s="37"/>
       <c r="AB17" s="33"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="128"/>
-      <c r="AF17" s="128"/>
-      <c r="AG17" s="128"/>
-      <c r="AH17" s="128"/>
-      <c r="AI17" s="128"/>
-      <c r="AJ17" s="129"/>
-      <c r="AK17" s="127"/>
-      <c r="AL17" s="128"/>
-      <c r="AM17" s="128"/>
-      <c r="AN17" s="128"/>
-      <c r="AO17" s="128"/>
-      <c r="AP17" s="128"/>
-      <c r="AQ17" s="128"/>
-      <c r="AR17" s="129"/>
-      <c r="AS17" s="127"/>
-      <c r="AT17" s="128"/>
-      <c r="AU17" s="128"/>
-      <c r="AV17" s="128"/>
-      <c r="AW17" s="128"/>
-      <c r="AX17" s="128"/>
-      <c r="AY17" s="128"/>
-      <c r="AZ17" s="129"/>
-      <c r="BA17" s="127"/>
-      <c r="BB17" s="128"/>
-      <c r="BC17" s="128"/>
-      <c r="BD17" s="128"/>
-      <c r="BE17" s="128"/>
-      <c r="BF17" s="128"/>
-      <c r="BG17" s="128"/>
-      <c r="BH17" s="129"/>
-      <c r="BI17" s="127"/>
-      <c r="BJ17" s="128"/>
-      <c r="BK17" s="128"/>
-      <c r="BL17" s="128"/>
-      <c r="BM17" s="128"/>
-      <c r="BN17" s="128"/>
-      <c r="BO17" s="128"/>
-      <c r="BP17" s="129"/>
-      <c r="BQ17" s="127"/>
-      <c r="BR17" s="128"/>
-      <c r="BS17" s="128"/>
-      <c r="BT17" s="128"/>
-      <c r="BU17" s="128"/>
-      <c r="BV17" s="128"/>
-      <c r="BW17" s="128"/>
-      <c r="BX17" s="129"/>
-      <c r="BY17" s="127"/>
-      <c r="BZ17" s="128"/>
-      <c r="CA17" s="128"/>
-      <c r="CB17" s="128"/>
-      <c r="CC17" s="128"/>
-      <c r="CD17" s="128"/>
-      <c r="CE17" s="128"/>
-      <c r="CF17" s="129"/>
+      <c r="AC17" s="80"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="81"/>
+      <c r="AH17" s="81"/>
+      <c r="AI17" s="81"/>
+      <c r="AJ17" s="82"/>
+      <c r="AK17" s="80"/>
+      <c r="AL17" s="81"/>
+      <c r="AM17" s="81"/>
+      <c r="AN17" s="81"/>
+      <c r="AO17" s="81"/>
+      <c r="AP17" s="81"/>
+      <c r="AQ17" s="81"/>
+      <c r="AR17" s="82"/>
+      <c r="AS17" s="80"/>
+      <c r="AT17" s="81"/>
+      <c r="AU17" s="81"/>
+      <c r="AV17" s="81"/>
+      <c r="AW17" s="81"/>
+      <c r="AX17" s="81"/>
+      <c r="AY17" s="81"/>
+      <c r="AZ17" s="82"/>
+      <c r="BA17" s="80"/>
+      <c r="BB17" s="81"/>
+      <c r="BC17" s="81"/>
+      <c r="BD17" s="81"/>
+      <c r="BE17" s="81"/>
+      <c r="BF17" s="81"/>
+      <c r="BG17" s="81"/>
+      <c r="BH17" s="81"/>
+      <c r="BI17" s="81"/>
+      <c r="BJ17" s="81"/>
+      <c r="BK17" s="81"/>
+      <c r="BL17" s="81"/>
+      <c r="BM17" s="81"/>
+      <c r="BN17" s="81"/>
+      <c r="BO17" s="81"/>
+      <c r="BP17" s="72"/>
+      <c r="BQ17" s="80"/>
+      <c r="BR17" s="81"/>
+      <c r="BS17" s="81"/>
+      <c r="BT17" s="81"/>
+      <c r="BU17" s="81"/>
+      <c r="BV17" s="81"/>
+      <c r="BW17" s="81"/>
+      <c r="BX17" s="82"/>
+      <c r="BY17" s="80"/>
+      <c r="BZ17" s="81"/>
+      <c r="CA17" s="81"/>
+      <c r="CB17" s="81"/>
+      <c r="CC17" s="81"/>
+      <c r="CD17" s="81"/>
+      <c r="CE17" s="81"/>
+      <c r="CF17" s="82"/>
       <c r="CG17" s="28"/>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
+    <row r="18" spans="1:85" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="145"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="87"/>
       <c r="U18" s="32"/>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
@@ -3511,85 +3585,87 @@
       <c r="Z18" s="37"/>
       <c r="AA18" s="37"/>
       <c r="AB18" s="33"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="8"/>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="8"/>
-      <c r="AT18" s="9"/>
-      <c r="AU18" s="9"/>
-      <c r="AV18" s="9"/>
-      <c r="AW18" s="9"/>
-      <c r="AX18" s="9"/>
-      <c r="AY18" s="9"/>
-      <c r="AZ18" s="10"/>
-      <c r="BA18" s="8"/>
-      <c r="BB18" s="9"/>
-      <c r="BC18" s="9"/>
-      <c r="BD18" s="9"/>
-      <c r="BE18" s="9"/>
-      <c r="BF18" s="9"/>
-      <c r="BG18" s="9"/>
-      <c r="BH18" s="10"/>
-      <c r="BI18" s="8"/>
-      <c r="BJ18" s="9"/>
-      <c r="BK18" s="9"/>
-      <c r="BL18" s="9"/>
-      <c r="BM18" s="9"/>
-      <c r="BN18" s="9"/>
-      <c r="BO18" s="9"/>
-      <c r="BP18" s="10"/>
-      <c r="BQ18" s="8"/>
-      <c r="BR18" s="9"/>
-      <c r="BS18" s="9"/>
-      <c r="BT18" s="9"/>
-      <c r="BU18" s="9"/>
-      <c r="BV18" s="9"/>
-      <c r="BW18" s="9"/>
-      <c r="BX18" s="10"/>
-      <c r="BY18" s="8"/>
-      <c r="BZ18" s="9"/>
-      <c r="CA18" s="9"/>
-      <c r="CB18" s="9"/>
-      <c r="CC18" s="9"/>
-      <c r="CD18" s="9"/>
-      <c r="CE18" s="9"/>
-      <c r="CF18" s="10"/>
+      <c r="AC18" s="85"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="86"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="86"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="85"/>
+      <c r="AL18" s="86"/>
+      <c r="AM18" s="86"/>
+      <c r="AN18" s="86"/>
+      <c r="AO18" s="86"/>
+      <c r="AP18" s="86"/>
+      <c r="AQ18" s="86"/>
+      <c r="AR18" s="87"/>
+      <c r="AS18" s="85"/>
+      <c r="AT18" s="86"/>
+      <c r="AU18" s="86"/>
+      <c r="AV18" s="86"/>
+      <c r="AW18" s="86"/>
+      <c r="AX18" s="86"/>
+      <c r="AY18" s="86"/>
+      <c r="AZ18" s="87"/>
+      <c r="BA18" s="85"/>
+      <c r="BB18" s="86"/>
+      <c r="BC18" s="86"/>
+      <c r="BD18" s="86"/>
+      <c r="BE18" s="86"/>
+      <c r="BF18" s="86"/>
+      <c r="BG18" s="86"/>
+      <c r="BH18" s="87"/>
+      <c r="BI18" s="85"/>
+      <c r="BJ18" s="86"/>
+      <c r="BK18" s="86"/>
+      <c r="BL18" s="86"/>
+      <c r="BM18" s="86"/>
+      <c r="BN18" s="86"/>
+      <c r="BO18" s="86"/>
+      <c r="BP18" s="87"/>
+      <c r="BQ18" s="85"/>
+      <c r="BR18" s="86"/>
+      <c r="BS18" s="86"/>
+      <c r="BT18" s="86"/>
+      <c r="BU18" s="86"/>
+      <c r="BV18" s="71"/>
+      <c r="BW18" s="71"/>
+      <c r="BX18" s="72"/>
+      <c r="BY18" s="73"/>
+      <c r="BZ18" s="71"/>
+      <c r="CA18" s="71"/>
+      <c r="CB18" s="71"/>
+      <c r="CC18" s="71"/>
+      <c r="CD18" s="71"/>
+      <c r="CE18" s="86"/>
+      <c r="CF18" s="87"/>
       <c r="CG18" s="28"/>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="10"/>
+    <row r="19" spans="1:85" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="140"/>
+      <c r="B19" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="146"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="87"/>
       <c r="U19" s="32"/>
       <c r="V19" s="37"/>
       <c r="W19" s="37"/>
@@ -3598,85 +3674,89 @@
       <c r="Z19" s="37"/>
       <c r="AA19" s="37"/>
       <c r="AB19" s="33"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="9"/>
-      <c r="AP19" s="9"/>
-      <c r="AQ19" s="9"/>
-      <c r="AR19" s="10"/>
-      <c r="AS19" s="8"/>
-      <c r="AT19" s="9"/>
-      <c r="AU19" s="9"/>
-      <c r="AV19" s="9"/>
-      <c r="AW19" s="9"/>
-      <c r="AX19" s="9"/>
-      <c r="AY19" s="9"/>
-      <c r="AZ19" s="10"/>
-      <c r="BA19" s="8"/>
-      <c r="BB19" s="9"/>
-      <c r="BC19" s="9"/>
-      <c r="BD19" s="9"/>
-      <c r="BE19" s="9"/>
-      <c r="BF19" s="9"/>
-      <c r="BG19" s="9"/>
-      <c r="BH19" s="10"/>
-      <c r="BI19" s="8"/>
-      <c r="BJ19" s="9"/>
-      <c r="BK19" s="9"/>
-      <c r="BL19" s="9"/>
-      <c r="BM19" s="9"/>
-      <c r="BN19" s="9"/>
-      <c r="BO19" s="9"/>
-      <c r="BP19" s="10"/>
-      <c r="BQ19" s="8"/>
-      <c r="BR19" s="9"/>
-      <c r="BS19" s="9"/>
-      <c r="BT19" s="9"/>
-      <c r="BU19" s="9"/>
-      <c r="BV19" s="9"/>
-      <c r="BW19" s="9"/>
-      <c r="BX19" s="10"/>
-      <c r="BY19" s="8"/>
-      <c r="BZ19" s="9"/>
-      <c r="CA19" s="9"/>
-      <c r="CB19" s="9"/>
-      <c r="CC19" s="9"/>
-      <c r="CD19" s="9"/>
-      <c r="CE19" s="9"/>
-      <c r="CF19" s="10"/>
+      <c r="AC19" s="85"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="86"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="85"/>
+      <c r="AL19" s="86"/>
+      <c r="AM19" s="86"/>
+      <c r="AN19" s="86"/>
+      <c r="AO19" s="86"/>
+      <c r="AP19" s="86"/>
+      <c r="AQ19" s="86"/>
+      <c r="AR19" s="87"/>
+      <c r="AS19" s="85"/>
+      <c r="AT19" s="86"/>
+      <c r="AU19" s="86"/>
+      <c r="AV19" s="86"/>
+      <c r="AW19" s="86"/>
+      <c r="AX19" s="86"/>
+      <c r="AY19" s="86"/>
+      <c r="AZ19" s="87"/>
+      <c r="BA19" s="85"/>
+      <c r="BB19" s="86"/>
+      <c r="BC19" s="86"/>
+      <c r="BD19" s="86"/>
+      <c r="BE19" s="86"/>
+      <c r="BF19" s="86"/>
+      <c r="BG19" s="86"/>
+      <c r="BH19" s="87"/>
+      <c r="BI19" s="85"/>
+      <c r="BJ19" s="86"/>
+      <c r="BK19" s="86"/>
+      <c r="BL19" s="86"/>
+      <c r="BM19" s="86"/>
+      <c r="BN19" s="86"/>
+      <c r="BO19" s="86"/>
+      <c r="BP19" s="87"/>
+      <c r="BQ19" s="85"/>
+      <c r="BR19" s="86"/>
+      <c r="BS19" s="86"/>
+      <c r="BT19" s="86"/>
+      <c r="BU19" s="86"/>
+      <c r="BV19" s="86"/>
+      <c r="BW19" s="86"/>
+      <c r="BX19" s="86"/>
+      <c r="BY19" s="86"/>
+      <c r="BZ19" s="86"/>
+      <c r="CA19" s="86"/>
+      <c r="CB19" s="86"/>
+      <c r="CC19" s="86"/>
+      <c r="CD19" s="71"/>
+      <c r="CE19" s="86"/>
+      <c r="CF19" s="87"/>
       <c r="CG19" s="28"/>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
+    <row r="20" spans="1:85" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="103" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="93"/>
       <c r="U20" s="32"/>
       <c r="V20" s="37"/>
       <c r="W20" s="37"/>
@@ -3685,85 +3765,87 @@
       <c r="Z20" s="37"/>
       <c r="AA20" s="37"/>
       <c r="AB20" s="33"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
-      <c r="AQ20" s="9"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="8"/>
-      <c r="AT20" s="9"/>
-      <c r="AU20" s="9"/>
-      <c r="AV20" s="9"/>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="10"/>
-      <c r="BA20" s="8"/>
-      <c r="BB20" s="9"/>
-      <c r="BC20" s="9"/>
-      <c r="BD20" s="9"/>
-      <c r="BE20" s="9"/>
-      <c r="BF20" s="9"/>
-      <c r="BG20" s="9"/>
-      <c r="BH20" s="10"/>
-      <c r="BI20" s="8"/>
-      <c r="BJ20" s="9"/>
-      <c r="BK20" s="9"/>
-      <c r="BL20" s="9"/>
-      <c r="BM20" s="9"/>
-      <c r="BN20" s="9"/>
-      <c r="BO20" s="9"/>
-      <c r="BP20" s="10"/>
-      <c r="BQ20" s="8"/>
-      <c r="BR20" s="9"/>
-      <c r="BS20" s="9"/>
-      <c r="BT20" s="9"/>
-      <c r="BU20" s="9"/>
-      <c r="BV20" s="9"/>
-      <c r="BW20" s="9"/>
-      <c r="BX20" s="10"/>
-      <c r="BY20" s="8"/>
-      <c r="BZ20" s="9"/>
-      <c r="CA20" s="9"/>
-      <c r="CB20" s="9"/>
-      <c r="CC20" s="9"/>
-      <c r="CD20" s="9"/>
-      <c r="CE20" s="9"/>
-      <c r="CF20" s="10"/>
+      <c r="AC20" s="91"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="92"/>
+      <c r="AF20" s="92"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="93"/>
+      <c r="AK20" s="91"/>
+      <c r="AL20" s="92"/>
+      <c r="AM20" s="92"/>
+      <c r="AN20" s="92"/>
+      <c r="AO20" s="92"/>
+      <c r="AP20" s="92"/>
+      <c r="AQ20" s="92"/>
+      <c r="AR20" s="93"/>
+      <c r="AS20" s="91"/>
+      <c r="AT20" s="92"/>
+      <c r="AU20" s="92"/>
+      <c r="AV20" s="92"/>
+      <c r="AW20" s="92"/>
+      <c r="AX20" s="92"/>
+      <c r="AY20" s="92"/>
+      <c r="AZ20" s="93"/>
+      <c r="BA20" s="91"/>
+      <c r="BB20" s="92"/>
+      <c r="BC20" s="92"/>
+      <c r="BD20" s="92"/>
+      <c r="BE20" s="92"/>
+      <c r="BF20" s="92"/>
+      <c r="BG20" s="92"/>
+      <c r="BH20" s="93"/>
+      <c r="BI20" s="91"/>
+      <c r="BJ20" s="92"/>
+      <c r="BK20" s="92"/>
+      <c r="BL20" s="92"/>
+      <c r="BM20" s="92"/>
+      <c r="BN20" s="92"/>
+      <c r="BO20" s="92"/>
+      <c r="BP20" s="93"/>
+      <c r="BQ20" s="91"/>
+      <c r="BR20" s="92"/>
+      <c r="BS20" s="92"/>
+      <c r="BT20" s="92"/>
+      <c r="BU20" s="92"/>
+      <c r="BV20" s="92"/>
+      <c r="BW20" s="92"/>
+      <c r="BX20" s="93"/>
+      <c r="BY20" s="91"/>
+      <c r="BZ20" s="92"/>
+      <c r="CA20" s="92"/>
+      <c r="CB20" s="92"/>
+      <c r="CC20" s="92"/>
+      <c r="CD20" s="92"/>
+      <c r="CE20" s="71"/>
+      <c r="CF20" s="72"/>
       <c r="CG20" s="28"/>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
+    <row r="21" spans="1:85" s="121" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="114"/>
+      <c r="B21" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="120"/>
       <c r="U21" s="32"/>
       <c r="V21" s="37"/>
       <c r="W21" s="37"/>
@@ -3772,85 +3854,87 @@
       <c r="Z21" s="37"/>
       <c r="AA21" s="37"/>
       <c r="AB21" s="33"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="10"/>
-      <c r="AS21" s="8"/>
-      <c r="AT21" s="9"/>
-      <c r="AU21" s="9"/>
-      <c r="AV21" s="9"/>
-      <c r="AW21" s="9"/>
-      <c r="AX21" s="9"/>
-      <c r="AY21" s="9"/>
-      <c r="AZ21" s="10"/>
-      <c r="BA21" s="8"/>
-      <c r="BB21" s="9"/>
-      <c r="BC21" s="9"/>
-      <c r="BD21" s="9"/>
-      <c r="BE21" s="9"/>
-      <c r="BF21" s="9"/>
-      <c r="BG21" s="9"/>
-      <c r="BH21" s="10"/>
-      <c r="BI21" s="8"/>
-      <c r="BJ21" s="9"/>
-      <c r="BK21" s="9"/>
-      <c r="BL21" s="9"/>
-      <c r="BM21" s="9"/>
-      <c r="BN21" s="9"/>
-      <c r="BO21" s="9"/>
-      <c r="BP21" s="10"/>
-      <c r="BQ21" s="8"/>
-      <c r="BR21" s="9"/>
-      <c r="BS21" s="9"/>
-      <c r="BT21" s="9"/>
-      <c r="BU21" s="9"/>
-      <c r="BV21" s="9"/>
-      <c r="BW21" s="9"/>
-      <c r="BX21" s="10"/>
-      <c r="BY21" s="8"/>
-      <c r="BZ21" s="9"/>
-      <c r="CA21" s="9"/>
-      <c r="CB21" s="9"/>
-      <c r="CC21" s="9"/>
-      <c r="CD21" s="9"/>
-      <c r="CE21" s="9"/>
-      <c r="CF21" s="10"/>
+      <c r="AC21" s="118"/>
+      <c r="AD21" s="119"/>
+      <c r="AE21" s="119"/>
+      <c r="AF21" s="119"/>
+      <c r="AG21" s="119"/>
+      <c r="AH21" s="119"/>
+      <c r="AI21" s="119"/>
+      <c r="AJ21" s="120"/>
+      <c r="AK21" s="118"/>
+      <c r="AL21" s="119"/>
+      <c r="AM21" s="119"/>
+      <c r="AN21" s="119"/>
+      <c r="AO21" s="119"/>
+      <c r="AP21" s="119"/>
+      <c r="AQ21" s="119"/>
+      <c r="AR21" s="120"/>
+      <c r="AS21" s="118"/>
+      <c r="AT21" s="119"/>
+      <c r="AU21" s="119"/>
+      <c r="AV21" s="119"/>
+      <c r="AW21" s="119"/>
+      <c r="AX21" s="119"/>
+      <c r="AY21" s="119"/>
+      <c r="AZ21" s="120"/>
+      <c r="BA21" s="118"/>
+      <c r="BB21" s="119"/>
+      <c r="BC21" s="119"/>
+      <c r="BD21" s="119"/>
+      <c r="BE21" s="119"/>
+      <c r="BF21" s="119"/>
+      <c r="BG21" s="119"/>
+      <c r="BH21" s="120"/>
+      <c r="BI21" s="118"/>
+      <c r="BJ21" s="119"/>
+      <c r="BK21" s="119"/>
+      <c r="BL21" s="119"/>
+      <c r="BM21" s="119"/>
+      <c r="BN21" s="119"/>
+      <c r="BO21" s="119"/>
+      <c r="BP21" s="120"/>
+      <c r="BQ21" s="118"/>
+      <c r="BR21" s="119"/>
+      <c r="BS21" s="119"/>
+      <c r="BT21" s="119"/>
+      <c r="BU21" s="119"/>
+      <c r="BV21" s="119"/>
+      <c r="BW21" s="119"/>
+      <c r="BX21" s="120"/>
+      <c r="BY21" s="118"/>
+      <c r="BZ21" s="119"/>
+      <c r="CA21" s="119"/>
+      <c r="CB21" s="119"/>
+      <c r="CC21" s="119"/>
+      <c r="CD21" s="119"/>
+      <c r="CE21" s="119"/>
+      <c r="CF21" s="120"/>
       <c r="CG21" s="28"/>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
+    <row r="22" spans="1:85" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="123"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="127"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="127"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="128"/>
       <c r="U22" s="32"/>
       <c r="V22" s="37"/>
       <c r="W22" s="37"/>
@@ -3859,67 +3943,67 @@
       <c r="Z22" s="37"/>
       <c r="AA22" s="37"/>
       <c r="AB22" s="33"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="8"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="10"/>
-      <c r="BA22" s="8"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
-      <c r="BF22" s="9"/>
-      <c r="BG22" s="9"/>
-      <c r="BH22" s="10"/>
-      <c r="BI22" s="8"/>
-      <c r="BJ22" s="9"/>
-      <c r="BK22" s="9"/>
-      <c r="BL22" s="9"/>
-      <c r="BM22" s="9"/>
-      <c r="BN22" s="9"/>
-      <c r="BO22" s="9"/>
-      <c r="BP22" s="10"/>
-      <c r="BQ22" s="8"/>
-      <c r="BR22" s="9"/>
-      <c r="BS22" s="9"/>
-      <c r="BT22" s="9"/>
-      <c r="BU22" s="9"/>
-      <c r="BV22" s="9"/>
-      <c r="BW22" s="9"/>
-      <c r="BX22" s="10"/>
-      <c r="BY22" s="8"/>
-      <c r="BZ22" s="9"/>
-      <c r="CA22" s="9"/>
-      <c r="CB22" s="9"/>
-      <c r="CC22" s="9"/>
-      <c r="CD22" s="9"/>
-      <c r="CE22" s="9"/>
-      <c r="CF22" s="10"/>
+      <c r="AC22" s="126"/>
+      <c r="AD22" s="127"/>
+      <c r="AE22" s="127"/>
+      <c r="AF22" s="127"/>
+      <c r="AG22" s="127"/>
+      <c r="AH22" s="127"/>
+      <c r="AI22" s="72"/>
+      <c r="AJ22" s="72"/>
+      <c r="AK22" s="126"/>
+      <c r="AL22" s="127"/>
+      <c r="AM22" s="127"/>
+      <c r="AN22" s="127"/>
+      <c r="AO22" s="127"/>
+      <c r="AP22" s="127"/>
+      <c r="AQ22" s="127"/>
+      <c r="AR22" s="72"/>
+      <c r="AS22" s="126"/>
+      <c r="AT22" s="127"/>
+      <c r="AU22" s="127"/>
+      <c r="AV22" s="127"/>
+      <c r="AW22" s="127"/>
+      <c r="AX22" s="127"/>
+      <c r="AY22" s="127"/>
+      <c r="AZ22" s="72"/>
+      <c r="BA22" s="126"/>
+      <c r="BB22" s="127"/>
+      <c r="BC22" s="127"/>
+      <c r="BD22" s="127"/>
+      <c r="BE22" s="127"/>
+      <c r="BF22" s="127"/>
+      <c r="BG22" s="127"/>
+      <c r="BH22" s="72"/>
+      <c r="BI22" s="126"/>
+      <c r="BJ22" s="127"/>
+      <c r="BK22" s="127"/>
+      <c r="BL22" s="127"/>
+      <c r="BM22" s="127"/>
+      <c r="BN22" s="127"/>
+      <c r="BO22" s="72"/>
+      <c r="BP22" s="72"/>
+      <c r="BQ22" s="126"/>
+      <c r="BR22" s="127"/>
+      <c r="BS22" s="127"/>
+      <c r="BT22" s="127"/>
+      <c r="BU22" s="127"/>
+      <c r="BV22" s="127"/>
+      <c r="BW22" s="127"/>
+      <c r="BX22" s="72"/>
+      <c r="BY22" s="126"/>
+      <c r="BZ22" s="127"/>
+      <c r="CA22" s="127"/>
+      <c r="CB22" s="127"/>
+      <c r="CC22" s="71"/>
+      <c r="CD22" s="71"/>
+      <c r="CE22" s="127"/>
+      <c r="CF22" s="128"/>
       <c r="CG22" s="28"/>
     </row>
     <row r="23" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A23" s="43"/>
-      <c r="B23" s="109"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="15"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
@@ -4006,7 +4090,7 @@
     </row>
     <row r="24" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A24" s="43"/>
-      <c r="B24" s="109"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="15"/>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
@@ -4093,7 +4177,7 @@
     </row>
     <row r="25" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A25" s="43"/>
-      <c r="B25" s="109"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="15"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
@@ -4180,7 +4264,7 @@
     </row>
     <row r="26" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A26" s="43"/>
-      <c r="B26" s="109"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="15"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
@@ -4267,7 +4351,7 @@
     </row>
     <row r="27" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A27" s="43"/>
-      <c r="B27" s="109"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="15"/>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
@@ -4354,7 +4438,7 @@
     </row>
     <row r="28" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A28" s="43"/>
-      <c r="B28" s="109"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="15"/>
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
@@ -4441,7 +4525,7 @@
     </row>
     <row r="29" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A29" s="43"/>
-      <c r="B29" s="109"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="15"/>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
@@ -4528,7 +4612,7 @@
     </row>
     <row r="30" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A30" s="43"/>
-      <c r="B30" s="109"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="15"/>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
@@ -4615,7 +4699,7 @@
     </row>
     <row r="31" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A31" s="43"/>
-      <c r="B31" s="109"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="15"/>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
@@ -4702,7 +4786,7 @@
     </row>
     <row r="32" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A32" s="43"/>
-      <c r="B32" s="109"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="15"/>
       <c r="D32" s="7"/>
       <c r="E32" s="8"/>
@@ -4789,7 +4873,7 @@
     </row>
     <row r="33" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A33" s="43"/>
-      <c r="B33" s="109"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="15"/>
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
@@ -4876,7 +4960,7 @@
     </row>
     <row r="34" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A34" s="43"/>
-      <c r="B34" s="109"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="15"/>
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
@@ -4963,7 +5047,7 @@
     </row>
     <row r="35" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A35" s="43"/>
-      <c r="B35" s="109"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="15"/>
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
@@ -5048,187 +5132,543 @@
       <c r="CF35" s="10"/>
       <c r="CG35" s="28"/>
     </row>
-    <row r="36" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A36" s="43"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-      <c r="AJ36" s="14"/>
-      <c r="AK36" s="12"/>
-      <c r="AL36" s="13"/>
-      <c r="AM36" s="13"/>
-      <c r="AN36" s="13"/>
-      <c r="AO36" s="13"/>
-      <c r="AP36" s="13"/>
-      <c r="AQ36" s="13"/>
-      <c r="AR36" s="14"/>
-      <c r="AS36" s="12"/>
-      <c r="AT36" s="13"/>
-      <c r="AU36" s="13"/>
-      <c r="AV36" s="13"/>
-      <c r="AW36" s="13"/>
-      <c r="AX36" s="13"/>
-      <c r="AY36" s="13"/>
-      <c r="AZ36" s="14"/>
-      <c r="BA36" s="12"/>
-      <c r="BB36" s="13"/>
-      <c r="BC36" s="13"/>
-      <c r="BD36" s="13"/>
-      <c r="BE36" s="13"/>
-      <c r="BF36" s="13"/>
-      <c r="BG36" s="13"/>
-      <c r="BH36" s="14"/>
-      <c r="BI36" s="12"/>
-      <c r="BJ36" s="13"/>
-      <c r="BK36" s="13"/>
-      <c r="BL36" s="13"/>
-      <c r="BM36" s="13"/>
-      <c r="BN36" s="13"/>
-      <c r="BO36" s="13"/>
-      <c r="BP36" s="14"/>
-      <c r="BQ36" s="12"/>
-      <c r="BR36" s="13"/>
-      <c r="BS36" s="13"/>
-      <c r="BT36" s="13"/>
-      <c r="BU36" s="13"/>
-      <c r="BV36" s="13"/>
-      <c r="BW36" s="13"/>
-      <c r="BX36" s="14"/>
-      <c r="BY36" s="12"/>
-      <c r="BZ36" s="13"/>
-      <c r="CA36" s="13"/>
-      <c r="CB36" s="13"/>
-      <c r="CC36" s="13"/>
-      <c r="CD36" s="13"/>
-      <c r="CE36" s="13"/>
-      <c r="CF36" s="14"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="9"/>
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="9"/>
+      <c r="AP36" s="9"/>
+      <c r="AQ36" s="9"/>
+      <c r="AR36" s="10"/>
+      <c r="AS36" s="8"/>
+      <c r="AT36" s="9"/>
+      <c r="AU36" s="9"/>
+      <c r="AV36" s="9"/>
+      <c r="AW36" s="9"/>
+      <c r="AX36" s="9"/>
+      <c r="AY36" s="9"/>
+      <c r="AZ36" s="10"/>
+      <c r="BA36" s="8"/>
+      <c r="BB36" s="9"/>
+      <c r="BC36" s="9"/>
+      <c r="BD36" s="9"/>
+      <c r="BE36" s="9"/>
+      <c r="BF36" s="9"/>
+      <c r="BG36" s="9"/>
+      <c r="BH36" s="10"/>
+      <c r="BI36" s="8"/>
+      <c r="BJ36" s="9"/>
+      <c r="BK36" s="9"/>
+      <c r="BL36" s="9"/>
+      <c r="BM36" s="9"/>
+      <c r="BN36" s="9"/>
+      <c r="BO36" s="9"/>
+      <c r="BP36" s="10"/>
+      <c r="BQ36" s="8"/>
+      <c r="BR36" s="9"/>
+      <c r="BS36" s="9"/>
+      <c r="BT36" s="9"/>
+      <c r="BU36" s="9"/>
+      <c r="BV36" s="9"/>
+      <c r="BW36" s="9"/>
+      <c r="BX36" s="10"/>
+      <c r="BY36" s="8"/>
+      <c r="BZ36" s="9"/>
+      <c r="CA36" s="9"/>
+      <c r="CB36" s="9"/>
+      <c r="CC36" s="9"/>
+      <c r="CD36" s="9"/>
+      <c r="CE36" s="9"/>
+      <c r="CF36" s="10"/>
       <c r="CG36" s="28"/>
     </row>
     <row r="37" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A37" s="111" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="9"/>
+      <c r="AM37" s="9"/>
+      <c r="AN37" s="9"/>
+      <c r="AO37" s="9"/>
+      <c r="AP37" s="9"/>
+      <c r="AQ37" s="9"/>
+      <c r="AR37" s="10"/>
+      <c r="AS37" s="8"/>
+      <c r="AT37" s="9"/>
+      <c r="AU37" s="9"/>
+      <c r="AV37" s="9"/>
+      <c r="AW37" s="9"/>
+      <c r="AX37" s="9"/>
+      <c r="AY37" s="9"/>
+      <c r="AZ37" s="10"/>
+      <c r="BA37" s="8"/>
+      <c r="BB37" s="9"/>
+      <c r="BC37" s="9"/>
+      <c r="BD37" s="9"/>
+      <c r="BE37" s="9"/>
+      <c r="BF37" s="9"/>
+      <c r="BG37" s="9"/>
+      <c r="BH37" s="10"/>
+      <c r="BI37" s="8"/>
+      <c r="BJ37" s="9"/>
+      <c r="BK37" s="9"/>
+      <c r="BL37" s="9"/>
+      <c r="BM37" s="9"/>
+      <c r="BN37" s="9"/>
+      <c r="BO37" s="9"/>
+      <c r="BP37" s="10"/>
+      <c r="BQ37" s="8"/>
+      <c r="BR37" s="9"/>
+      <c r="BS37" s="9"/>
+      <c r="BT37" s="9"/>
+      <c r="BU37" s="9"/>
+      <c r="BV37" s="9"/>
+      <c r="BW37" s="9"/>
+      <c r="BX37" s="10"/>
+      <c r="BY37" s="8"/>
+      <c r="BZ37" s="9"/>
+      <c r="CA37" s="9"/>
+      <c r="CB37" s="9"/>
+      <c r="CC37" s="9"/>
+      <c r="CD37" s="9"/>
+      <c r="CE37" s="9"/>
+      <c r="CF37" s="10"/>
+      <c r="CG37" s="28"/>
+    </row>
+    <row r="38" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A38" s="43"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="9"/>
+      <c r="AM38" s="9"/>
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="9"/>
+      <c r="AP38" s="9"/>
+      <c r="AQ38" s="9"/>
+      <c r="AR38" s="10"/>
+      <c r="AS38" s="8"/>
+      <c r="AT38" s="9"/>
+      <c r="AU38" s="9"/>
+      <c r="AV38" s="9"/>
+      <c r="AW38" s="9"/>
+      <c r="AX38" s="9"/>
+      <c r="AY38" s="9"/>
+      <c r="AZ38" s="10"/>
+      <c r="BA38" s="8"/>
+      <c r="BB38" s="9"/>
+      <c r="BC38" s="9"/>
+      <c r="BD38" s="9"/>
+      <c r="BE38" s="9"/>
+      <c r="BF38" s="9"/>
+      <c r="BG38" s="9"/>
+      <c r="BH38" s="10"/>
+      <c r="BI38" s="8"/>
+      <c r="BJ38" s="9"/>
+      <c r="BK38" s="9"/>
+      <c r="BL38" s="9"/>
+      <c r="BM38" s="9"/>
+      <c r="BN38" s="9"/>
+      <c r="BO38" s="9"/>
+      <c r="BP38" s="10"/>
+      <c r="BQ38" s="8"/>
+      <c r="BR38" s="9"/>
+      <c r="BS38" s="9"/>
+      <c r="BT38" s="9"/>
+      <c r="BU38" s="9"/>
+      <c r="BV38" s="9"/>
+      <c r="BW38" s="9"/>
+      <c r="BX38" s="10"/>
+      <c r="BY38" s="8"/>
+      <c r="BZ38" s="9"/>
+      <c r="CA38" s="9"/>
+      <c r="CB38" s="9"/>
+      <c r="CC38" s="9"/>
+      <c r="CD38" s="9"/>
+      <c r="CE38" s="9"/>
+      <c r="CF38" s="10"/>
+      <c r="CG38" s="28"/>
+    </row>
+    <row r="39" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A39" s="43"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="9"/>
+      <c r="AM39" s="9"/>
+      <c r="AN39" s="9"/>
+      <c r="AO39" s="9"/>
+      <c r="AP39" s="9"/>
+      <c r="AQ39" s="9"/>
+      <c r="AR39" s="10"/>
+      <c r="AS39" s="8"/>
+      <c r="AT39" s="9"/>
+      <c r="AU39" s="9"/>
+      <c r="AV39" s="9"/>
+      <c r="AW39" s="9"/>
+      <c r="AX39" s="9"/>
+      <c r="AY39" s="9"/>
+      <c r="AZ39" s="10"/>
+      <c r="BA39" s="8"/>
+      <c r="BB39" s="9"/>
+      <c r="BC39" s="9"/>
+      <c r="BD39" s="9"/>
+      <c r="BE39" s="9"/>
+      <c r="BF39" s="9"/>
+      <c r="BG39" s="9"/>
+      <c r="BH39" s="10"/>
+      <c r="BI39" s="8"/>
+      <c r="BJ39" s="9"/>
+      <c r="BK39" s="9"/>
+      <c r="BL39" s="9"/>
+      <c r="BM39" s="9"/>
+      <c r="BN39" s="9"/>
+      <c r="BO39" s="9"/>
+      <c r="BP39" s="10"/>
+      <c r="BQ39" s="8"/>
+      <c r="BR39" s="9"/>
+      <c r="BS39" s="9"/>
+      <c r="BT39" s="9"/>
+      <c r="BU39" s="9"/>
+      <c r="BV39" s="9"/>
+      <c r="BW39" s="9"/>
+      <c r="BX39" s="10"/>
+      <c r="BY39" s="8"/>
+      <c r="BZ39" s="9"/>
+      <c r="CA39" s="9"/>
+      <c r="CB39" s="9"/>
+      <c r="CC39" s="9"/>
+      <c r="CD39" s="9"/>
+      <c r="CE39" s="9"/>
+      <c r="CF39" s="10"/>
+      <c r="CG39" s="28"/>
+    </row>
+    <row r="40" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="43"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="14"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="13"/>
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="13"/>
+      <c r="AQ40" s="13"/>
+      <c r="AR40" s="14"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="13"/>
+      <c r="AU40" s="13"/>
+      <c r="AV40" s="13"/>
+      <c r="AW40" s="13"/>
+      <c r="AX40" s="13"/>
+      <c r="AY40" s="13"/>
+      <c r="AZ40" s="14"/>
+      <c r="BA40" s="12"/>
+      <c r="BB40" s="13"/>
+      <c r="BC40" s="13"/>
+      <c r="BD40" s="13"/>
+      <c r="BE40" s="13"/>
+      <c r="BF40" s="13"/>
+      <c r="BG40" s="13"/>
+      <c r="BH40" s="14"/>
+      <c r="BI40" s="12"/>
+      <c r="BJ40" s="13"/>
+      <c r="BK40" s="13"/>
+      <c r="BL40" s="13"/>
+      <c r="BM40" s="13"/>
+      <c r="BN40" s="13"/>
+      <c r="BO40" s="13"/>
+      <c r="BP40" s="14"/>
+      <c r="BQ40" s="12"/>
+      <c r="BR40" s="13"/>
+      <c r="BS40" s="13"/>
+      <c r="BT40" s="13"/>
+      <c r="BU40" s="13"/>
+      <c r="BV40" s="13"/>
+      <c r="BW40" s="13"/>
+      <c r="BX40" s="14"/>
+      <c r="BY40" s="12"/>
+      <c r="BZ40" s="13"/>
+      <c r="CA40" s="13"/>
+      <c r="CB40" s="13"/>
+      <c r="CC40" s="13"/>
+      <c r="CD40" s="13"/>
+      <c r="CE40" s="13"/>
+      <c r="CF40" s="14"/>
+      <c r="CG40" s="28"/>
+    </row>
+    <row r="41" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A41" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="101"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="101"/>
-      <c r="S37" s="101"/>
-      <c r="T37" s="101"/>
-      <c r="U37" s="101"/>
-      <c r="V37" s="101"/>
-      <c r="W37" s="101"/>
-      <c r="X37" s="101"/>
-      <c r="Y37" s="101"/>
-      <c r="Z37" s="101"/>
-      <c r="AA37" s="101"/>
-      <c r="AB37" s="101"/>
-      <c r="AC37" s="101"/>
-      <c r="AD37" s="101"/>
-      <c r="AE37" s="101"/>
-      <c r="AF37" s="101"/>
-      <c r="AG37" s="101"/>
-      <c r="AH37" s="101"/>
-      <c r="AI37" s="101"/>
-      <c r="AJ37" s="101"/>
-      <c r="AK37" s="101"/>
-      <c r="AL37" s="101"/>
-      <c r="AM37" s="101"/>
-      <c r="AN37" s="101"/>
-      <c r="AO37" s="101"/>
-      <c r="AP37" s="101"/>
-      <c r="AQ37" s="101"/>
-      <c r="AR37" s="101"/>
-      <c r="AS37" s="101"/>
-      <c r="AT37" s="101"/>
-      <c r="AU37" s="101"/>
-      <c r="AV37" s="101"/>
-      <c r="AW37" s="101"/>
-      <c r="AX37" s="101"/>
-      <c r="AY37" s="101"/>
-      <c r="AZ37" s="101"/>
-      <c r="BA37" s="101"/>
-      <c r="BB37" s="101"/>
-      <c r="BC37" s="101"/>
-      <c r="BD37" s="101"/>
-      <c r="BE37" s="101"/>
-      <c r="BF37" s="101"/>
-      <c r="BG37" s="101"/>
-      <c r="BH37" s="101"/>
-      <c r="BI37" s="101"/>
-      <c r="BJ37" s="101"/>
-      <c r="BK37" s="101"/>
-      <c r="BL37" s="101"/>
-      <c r="BM37" s="101"/>
-      <c r="BN37" s="101"/>
-      <c r="BO37" s="101"/>
-      <c r="BP37" s="101"/>
-      <c r="BQ37" s="101"/>
-      <c r="BR37" s="101"/>
-      <c r="BS37" s="101"/>
-      <c r="BT37" s="101"/>
-      <c r="BU37" s="101"/>
-      <c r="BV37" s="101"/>
-      <c r="BW37" s="101"/>
-      <c r="BX37" s="101"/>
-      <c r="BY37" s="101"/>
-      <c r="BZ37" s="101"/>
-      <c r="CA37" s="101"/>
-      <c r="CB37" s="101"/>
-      <c r="CC37" s="101"/>
-      <c r="CD37" s="101"/>
-      <c r="CE37" s="101"/>
-      <c r="CF37" s="101"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="96"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="96"/>
+      <c r="Q41" s="96"/>
+      <c r="R41" s="96"/>
+      <c r="S41" s="96"/>
+      <c r="T41" s="96"/>
+      <c r="U41" s="96"/>
+      <c r="V41" s="96"/>
+      <c r="W41" s="96"/>
+      <c r="X41" s="96"/>
+      <c r="Y41" s="96"/>
+      <c r="Z41" s="96"/>
+      <c r="AA41" s="96"/>
+      <c r="AB41" s="96"/>
+      <c r="AC41" s="96"/>
+      <c r="AD41" s="96"/>
+      <c r="AE41" s="96"/>
+      <c r="AF41" s="96"/>
+      <c r="AG41" s="96"/>
+      <c r="AH41" s="96"/>
+      <c r="AI41" s="96"/>
+      <c r="AJ41" s="96"/>
+      <c r="AK41" s="96"/>
+      <c r="AL41" s="96"/>
+      <c r="AM41" s="96"/>
+      <c r="AN41" s="96"/>
+      <c r="AO41" s="96"/>
+      <c r="AP41" s="96"/>
+      <c r="AQ41" s="96"/>
+      <c r="AR41" s="96"/>
+      <c r="AS41" s="96"/>
+      <c r="AT41" s="96"/>
+      <c r="AU41" s="96"/>
+      <c r="AV41" s="96"/>
+      <c r="AW41" s="96"/>
+      <c r="AX41" s="96"/>
+      <c r="AY41" s="96"/>
+      <c r="AZ41" s="96"/>
+      <c r="BA41" s="96"/>
+      <c r="BB41" s="96"/>
+      <c r="BC41" s="96"/>
+      <c r="BD41" s="96"/>
+      <c r="BE41" s="96"/>
+      <c r="BF41" s="96"/>
+      <c r="BG41" s="96"/>
+      <c r="BH41" s="96"/>
+      <c r="BI41" s="96"/>
+      <c r="BJ41" s="96"/>
+      <c r="BK41" s="96"/>
+      <c r="BL41" s="96"/>
+      <c r="BM41" s="96"/>
+      <c r="BN41" s="96"/>
+      <c r="BO41" s="96"/>
+      <c r="BP41" s="96"/>
+      <c r="BQ41" s="96"/>
+      <c r="BR41" s="96"/>
+      <c r="BS41" s="96"/>
+      <c r="BT41" s="96"/>
+      <c r="BU41" s="96"/>
+      <c r="BV41" s="96"/>
+      <c r="BW41" s="96"/>
+      <c r="BX41" s="96"/>
+      <c r="BY41" s="96"/>
+      <c r="BZ41" s="96"/>
+      <c r="CA41" s="96"/>
+      <c r="CB41" s="96"/>
+      <c r="CC41" s="96"/>
+      <c r="CD41" s="96"/>
+      <c r="CE41" s="96"/>
+      <c r="CF41" s="96"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A37:CF37"/>
+  <mergeCells count="39">
+    <mergeCell ref="A41:CF41"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="CG4:CG36"/>
-    <mergeCell ref="U6:AB36"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="CG4:CG40"/>
+    <mergeCell ref="U6:AB40"/>
     <mergeCell ref="BA4:BD4"/>
     <mergeCell ref="BE4:BH4"/>
     <mergeCell ref="BI4:BL4"/>
@@ -5258,7 +5698,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="C6:C36">
+  <conditionalFormatting sqref="C6:C12 C14 C16 C18 C20:C40">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",C6)))</formula>
     </cfRule>

--- a/documentation/3_2_Modele_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_Modele_PlanningJeudiVendredi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jonas_deillon_studentfr_ch/Documents/02.EMF/3.3eme annee/Module 306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="301" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CC763B2-5D80-40ED-8DC7-4363DB781857}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3879EC0-EAF9-4B00-B472-EC9DC4A46BDB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -876,472 +876,472 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1405,8 +1405,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
@@ -1424,7 +1424,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4287042" y="695325"/>
-          <a:ext cx="4980783" cy="5978128"/>
+          <a:ext cx="5809458" cy="5978128"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1839,7 +1839,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="CK4" sqref="CK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1855,12 +1855,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1903,313 +1903,313 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:85" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="26"/>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="26"/>
-      <c r="BF2" s="26"/>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="26"/>
-      <c r="BL2" s="26"/>
-      <c r="BM2" s="26"/>
-      <c r="BN2" s="26"/>
-      <c r="BO2" s="26"/>
-      <c r="BP2" s="26"/>
-      <c r="BQ2" s="26"/>
-      <c r="BR2" s="26"/>
-      <c r="BS2" s="26"/>
-      <c r="BT2" s="26"/>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="26"/>
-      <c r="BY2" s="26"/>
-      <c r="BZ2" s="26"/>
-      <c r="CA2" s="26"/>
-      <c r="CB2" s="26"/>
-      <c r="CC2" s="26"/>
-      <c r="CD2" s="26"/>
-      <c r="CE2" s="26"/>
-      <c r="CF2" s="26"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="142"/>
+      <c r="AH2" s="142"/>
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="142"/>
+      <c r="AO2" s="142"/>
+      <c r="AP2" s="142"/>
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="142"/>
+      <c r="AW2" s="142"/>
+      <c r="AX2" s="142"/>
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="142"/>
+      <c r="BC2" s="142"/>
+      <c r="BD2" s="142"/>
+      <c r="BE2" s="142"/>
+      <c r="BF2" s="142"/>
+      <c r="BG2" s="142"/>
+      <c r="BH2" s="142"/>
+      <c r="BI2" s="142"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="142"/>
+      <c r="BL2" s="142"/>
+      <c r="BM2" s="142"/>
+      <c r="BN2" s="142"/>
+      <c r="BO2" s="142"/>
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="142"/>
+      <c r="BU2" s="142"/>
+      <c r="BV2" s="142"/>
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="142"/>
+      <c r="BY2" s="142"/>
+      <c r="BZ2" s="142"/>
+      <c r="CA2" s="142"/>
+      <c r="CB2" s="142"/>
+      <c r="CC2" s="142"/>
+      <c r="CD2" s="142"/>
+      <c r="CE2" s="142"/>
+      <c r="CF2" s="142"/>
     </row>
     <row r="3" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="27"/>
-      <c r="BC3" s="27"/>
-      <c r="BD3" s="27"/>
-      <c r="BE3" s="27"/>
-      <c r="BF3" s="27"/>
-      <c r="BG3" s="27"/>
-      <c r="BH3" s="27"/>
-      <c r="BI3" s="27"/>
-      <c r="BJ3" s="27"/>
-      <c r="BK3" s="27"/>
-      <c r="BL3" s="27"/>
-      <c r="BM3" s="27"/>
-      <c r="BN3" s="27"/>
-      <c r="BO3" s="27"/>
-      <c r="BP3" s="27"/>
-      <c r="BQ3" s="27"/>
-      <c r="BR3" s="27"/>
-      <c r="BS3" s="27"/>
-      <c r="BT3" s="27"/>
-      <c r="BU3" s="27"/>
-      <c r="BV3" s="27"/>
-      <c r="BW3" s="27"/>
-      <c r="BX3" s="27"/>
-      <c r="BY3" s="27"/>
-      <c r="BZ3" s="27"/>
-      <c r="CA3" s="27"/>
-      <c r="CB3" s="27"/>
-      <c r="CC3" s="27"/>
-      <c r="CD3" s="27"/>
-      <c r="CE3" s="27"/>
-      <c r="CF3" s="27"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="143"/>
+      <c r="AI3" s="143"/>
+      <c r="AJ3" s="143"/>
+      <c r="AK3" s="143"/>
+      <c r="AL3" s="143"/>
+      <c r="AM3" s="143"/>
+      <c r="AN3" s="143"/>
+      <c r="AO3" s="143"/>
+      <c r="AP3" s="143"/>
+      <c r="AQ3" s="143"/>
+      <c r="AR3" s="143"/>
+      <c r="AS3" s="143"/>
+      <c r="AT3" s="143"/>
+      <c r="AU3" s="143"/>
+      <c r="AV3" s="143"/>
+      <c r="AW3" s="143"/>
+      <c r="AX3" s="143"/>
+      <c r="AY3" s="143"/>
+      <c r="AZ3" s="143"/>
+      <c r="BA3" s="143"/>
+      <c r="BB3" s="143"/>
+      <c r="BC3" s="143"/>
+      <c r="BD3" s="143"/>
+      <c r="BE3" s="143"/>
+      <c r="BF3" s="143"/>
+      <c r="BG3" s="143"/>
+      <c r="BH3" s="143"/>
+      <c r="BI3" s="143"/>
+      <c r="BJ3" s="143"/>
+      <c r="BK3" s="143"/>
+      <c r="BL3" s="143"/>
+      <c r="BM3" s="143"/>
+      <c r="BN3" s="143"/>
+      <c r="BO3" s="143"/>
+      <c r="BP3" s="143"/>
+      <c r="BQ3" s="143"/>
+      <c r="BR3" s="143"/>
+      <c r="BS3" s="143"/>
+      <c r="BT3" s="143"/>
+      <c r="BU3" s="143"/>
+      <c r="BV3" s="143"/>
+      <c r="BW3" s="143"/>
+      <c r="BX3" s="143"/>
+      <c r="BY3" s="143"/>
+      <c r="BZ3" s="143"/>
+      <c r="CA3" s="143"/>
+      <c r="CB3" s="143"/>
+      <c r="CC3" s="143"/>
+      <c r="CD3" s="143"/>
+      <c r="CE3" s="143"/>
+      <c r="CF3" s="143"/>
     </row>
     <row r="4" spans="1:85" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="110"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="22">
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="134">
         <v>45995</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24" t="s">
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="22">
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="134">
         <v>45996</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="24" t="s">
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="135"/>
+      <c r="U4" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="22">
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="134">
         <v>46002</v>
       </c>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="24" t="s">
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="135"/>
+      <c r="AC4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="22">
+      <c r="AD4" s="133"/>
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="134">
         <v>46003</v>
       </c>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="24" t="s">
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="134"/>
+      <c r="AJ4" s="135"/>
+      <c r="AK4" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="22">
+      <c r="AL4" s="133"/>
+      <c r="AM4" s="133"/>
+      <c r="AN4" s="133"/>
+      <c r="AO4" s="134">
         <v>46009</v>
       </c>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="24" t="s">
+      <c r="AP4" s="134"/>
+      <c r="AQ4" s="134"/>
+      <c r="AR4" s="135"/>
+      <c r="AS4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="22">
+      <c r="AT4" s="133"/>
+      <c r="AU4" s="133"/>
+      <c r="AV4" s="133"/>
+      <c r="AW4" s="134">
         <v>46010</v>
       </c>
-      <c r="AX4" s="22"/>
-      <c r="AY4" s="22"/>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="24" t="s">
+      <c r="AX4" s="134"/>
+      <c r="AY4" s="134"/>
+      <c r="AZ4" s="135"/>
+      <c r="BA4" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="BB4" s="25"/>
-      <c r="BC4" s="25"/>
-      <c r="BD4" s="25"/>
-      <c r="BE4" s="22">
+      <c r="BB4" s="133"/>
+      <c r="BC4" s="133"/>
+      <c r="BD4" s="133"/>
+      <c r="BE4" s="134">
         <v>46030</v>
       </c>
-      <c r="BF4" s="22"/>
-      <c r="BG4" s="22"/>
-      <c r="BH4" s="23"/>
-      <c r="BI4" s="24" t="s">
+      <c r="BF4" s="134"/>
+      <c r="BG4" s="134"/>
+      <c r="BH4" s="135"/>
+      <c r="BI4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="BJ4" s="25"/>
-      <c r="BK4" s="25"/>
-      <c r="BL4" s="25"/>
-      <c r="BM4" s="22">
+      <c r="BJ4" s="133"/>
+      <c r="BK4" s="133"/>
+      <c r="BL4" s="133"/>
+      <c r="BM4" s="134">
         <v>46031</v>
       </c>
-      <c r="BN4" s="22"/>
-      <c r="BO4" s="22"/>
-      <c r="BP4" s="23"/>
-      <c r="BQ4" s="24" t="s">
+      <c r="BN4" s="134"/>
+      <c r="BO4" s="134"/>
+      <c r="BP4" s="135"/>
+      <c r="BQ4" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="BR4" s="25"/>
-      <c r="BS4" s="25"/>
-      <c r="BT4" s="25"/>
-      <c r="BU4" s="22">
+      <c r="BR4" s="133"/>
+      <c r="BS4" s="133"/>
+      <c r="BT4" s="133"/>
+      <c r="BU4" s="134">
         <v>46037</v>
       </c>
-      <c r="BV4" s="22"/>
-      <c r="BW4" s="22"/>
-      <c r="BX4" s="23"/>
-      <c r="BY4" s="24" t="s">
+      <c r="BV4" s="134"/>
+      <c r="BW4" s="134"/>
+      <c r="BX4" s="135"/>
+      <c r="BY4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="BZ4" s="25"/>
-      <c r="CA4" s="25"/>
-      <c r="CB4" s="25"/>
-      <c r="CC4" s="22">
+      <c r="BZ4" s="133"/>
+      <c r="CA4" s="133"/>
+      <c r="CB4" s="133"/>
+      <c r="CC4" s="134">
         <v>46038</v>
       </c>
-      <c r="CD4" s="22"/>
-      <c r="CE4" s="22"/>
-      <c r="CF4" s="23"/>
-      <c r="CG4" s="28" t="s">
+      <c r="CD4" s="134"/>
+      <c r="CE4" s="134"/>
+      <c r="CF4" s="135"/>
+      <c r="CG4" s="122" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="112"/>
+      <c r="A5" s="138"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="18" t="s">
         <v>3</v>
       </c>
@@ -2456,1554 +2456,1554 @@
       <c r="CF5" s="6">
         <v>8</v>
       </c>
-      <c r="CG5" s="28"/>
+      <c r="CG5" s="122"/>
     </row>
-    <row r="6" spans="1:85" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="107" t="s">
+    <row r="6" spans="1:85" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="29" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="44"/>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="44"/>
-      <c r="AP6" s="44"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="44"/>
-      <c r="AV6" s="44"/>
-      <c r="AW6" s="44"/>
-      <c r="AX6" s="44"/>
-      <c r="AY6" s="44"/>
-      <c r="AZ6" s="48"/>
-      <c r="BA6" s="49"/>
-      <c r="BB6" s="44"/>
-      <c r="BC6" s="44"/>
-      <c r="BD6" s="44"/>
-      <c r="BE6" s="44"/>
-      <c r="BF6" s="44"/>
-      <c r="BG6" s="44"/>
-      <c r="BH6" s="48"/>
-      <c r="BI6" s="49"/>
-      <c r="BJ6" s="44"/>
-      <c r="BK6" s="44"/>
-      <c r="BL6" s="44"/>
-      <c r="BM6" s="44"/>
-      <c r="BN6" s="44"/>
-      <c r="BO6" s="44"/>
-      <c r="BP6" s="48"/>
-      <c r="BQ6" s="49"/>
-      <c r="BR6" s="44"/>
-      <c r="BS6" s="44"/>
-      <c r="BT6" s="44"/>
-      <c r="BU6" s="44"/>
-      <c r="BV6" s="44"/>
-      <c r="BW6" s="44"/>
-      <c r="BX6" s="48"/>
-      <c r="BY6" s="49"/>
-      <c r="BZ6" s="44"/>
-      <c r="CA6" s="44"/>
-      <c r="CB6" s="44"/>
-      <c r="CC6" s="44"/>
-      <c r="CD6" s="44"/>
-      <c r="CE6" s="44"/>
-      <c r="CF6" s="48"/>
-      <c r="CG6" s="28"/>
+      <c r="V6" s="124"/>
+      <c r="W6" s="124"/>
+      <c r="X6" s="124"/>
+      <c r="Y6" s="124"/>
+      <c r="Z6" s="124"/>
+      <c r="AA6" s="124"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="29"/>
+      <c r="AS6" s="30"/>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="25"/>
+      <c r="AV6" s="25"/>
+      <c r="AW6" s="25"/>
+      <c r="AX6" s="25"/>
+      <c r="AY6" s="25"/>
+      <c r="AZ6" s="29"/>
+      <c r="BA6" s="30"/>
+      <c r="BB6" s="25"/>
+      <c r="BC6" s="25"/>
+      <c r="BD6" s="25"/>
+      <c r="BE6" s="25"/>
+      <c r="BF6" s="25"/>
+      <c r="BG6" s="25"/>
+      <c r="BH6" s="29"/>
+      <c r="BI6" s="30"/>
+      <c r="BJ6" s="25"/>
+      <c r="BK6" s="25"/>
+      <c r="BL6" s="25"/>
+      <c r="BM6" s="25"/>
+      <c r="BN6" s="25"/>
+      <c r="BO6" s="25"/>
+      <c r="BP6" s="29"/>
+      <c r="BQ6" s="30"/>
+      <c r="BR6" s="25"/>
+      <c r="BS6" s="25"/>
+      <c r="BT6" s="25"/>
+      <c r="BU6" s="25"/>
+      <c r="BV6" s="25"/>
+      <c r="BW6" s="25"/>
+      <c r="BX6" s="29"/>
+      <c r="BY6" s="30"/>
+      <c r="BZ6" s="25"/>
+      <c r="CA6" s="25"/>
+      <c r="CB6" s="25"/>
+      <c r="CC6" s="25"/>
+      <c r="CD6" s="25"/>
+      <c r="CE6" s="25"/>
+      <c r="CF6" s="29"/>
+      <c r="CG6" s="122"/>
     </row>
-    <row r="7" spans="1:85" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="107"/>
-      <c r="B7" s="97" t="s">
+    <row r="7" spans="1:85" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="140"/>
+      <c r="B7" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="56"/>
-      <c r="AK7" s="54"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="55"/>
-      <c r="AO7" s="55"/>
-      <c r="AP7" s="55"/>
-      <c r="AQ7" s="55"/>
-      <c r="AR7" s="56"/>
-      <c r="AS7" s="54"/>
-      <c r="AT7" s="55"/>
-      <c r="AU7" s="55"/>
-      <c r="AV7" s="55"/>
-      <c r="AW7" s="55"/>
-      <c r="AX7" s="55"/>
-      <c r="AY7" s="55"/>
-      <c r="AZ7" s="56"/>
-      <c r="BA7" s="54"/>
-      <c r="BB7" s="55"/>
-      <c r="BC7" s="55"/>
-      <c r="BD7" s="55"/>
-      <c r="BE7" s="55"/>
-      <c r="BF7" s="55"/>
-      <c r="BG7" s="55"/>
-      <c r="BH7" s="56"/>
-      <c r="BI7" s="54"/>
-      <c r="BJ7" s="55"/>
-      <c r="BK7" s="55"/>
-      <c r="BL7" s="55"/>
-      <c r="BM7" s="55"/>
-      <c r="BN7" s="55"/>
-      <c r="BO7" s="55"/>
-      <c r="BP7" s="56"/>
-      <c r="BQ7" s="54"/>
-      <c r="BR7" s="55"/>
-      <c r="BS7" s="55"/>
-      <c r="BT7" s="55"/>
-      <c r="BU7" s="55"/>
-      <c r="BV7" s="55"/>
-      <c r="BW7" s="55"/>
-      <c r="BX7" s="56"/>
-      <c r="BY7" s="54"/>
-      <c r="BZ7" s="55"/>
-      <c r="CA7" s="55"/>
-      <c r="CB7" s="55"/>
-      <c r="CC7" s="55"/>
-      <c r="CD7" s="55"/>
-      <c r="CE7" s="55"/>
-      <c r="CF7" s="56"/>
-      <c r="CG7" s="28"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="128"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="36"/>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="36"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="36"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="36"/>
+      <c r="AY7" s="36"/>
+      <c r="AZ7" s="37"/>
+      <c r="BA7" s="35"/>
+      <c r="BB7" s="36"/>
+      <c r="BC7" s="36"/>
+      <c r="BD7" s="36"/>
+      <c r="BE7" s="36"/>
+      <c r="BF7" s="36"/>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="37"/>
+      <c r="BI7" s="35"/>
+      <c r="BJ7" s="36"/>
+      <c r="BK7" s="36"/>
+      <c r="BL7" s="36"/>
+      <c r="BM7" s="36"/>
+      <c r="BN7" s="36"/>
+      <c r="BO7" s="36"/>
+      <c r="BP7" s="37"/>
+      <c r="BQ7" s="35"/>
+      <c r="BR7" s="36"/>
+      <c r="BS7" s="36"/>
+      <c r="BT7" s="36"/>
+      <c r="BU7" s="36"/>
+      <c r="BV7" s="36"/>
+      <c r="BW7" s="36"/>
+      <c r="BX7" s="37"/>
+      <c r="BY7" s="35"/>
+      <c r="BZ7" s="36"/>
+      <c r="CA7" s="36"/>
+      <c r="CB7" s="36"/>
+      <c r="CC7" s="36"/>
+      <c r="CD7" s="36"/>
+      <c r="CE7" s="36"/>
+      <c r="CF7" s="37"/>
+      <c r="CG7" s="122"/>
     </row>
-    <row r="8" spans="1:85" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="107"/>
-      <c r="B8" s="97" t="s">
+    <row r="8" spans="1:85" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="140"/>
+      <c r="B8" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55"/>
-      <c r="AP8" s="55"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="55"/>
-      <c r="AU8" s="55"/>
-      <c r="AV8" s="55"/>
-      <c r="AW8" s="55"/>
-      <c r="AX8" s="55"/>
-      <c r="AY8" s="55"/>
-      <c r="AZ8" s="56"/>
-      <c r="BA8" s="54"/>
-      <c r="BB8" s="55"/>
-      <c r="BC8" s="55"/>
-      <c r="BD8" s="55"/>
-      <c r="BE8" s="55"/>
-      <c r="BF8" s="55"/>
-      <c r="BG8" s="55"/>
-      <c r="BH8" s="56"/>
-      <c r="BI8" s="54"/>
-      <c r="BJ8" s="55"/>
-      <c r="BK8" s="55"/>
-      <c r="BL8" s="55"/>
-      <c r="BM8" s="55"/>
-      <c r="BN8" s="55"/>
-      <c r="BO8" s="55"/>
-      <c r="BP8" s="56"/>
-      <c r="BQ8" s="54"/>
-      <c r="BR8" s="55"/>
-      <c r="BS8" s="55"/>
-      <c r="BT8" s="55"/>
-      <c r="BU8" s="55"/>
-      <c r="BV8" s="55"/>
-      <c r="BW8" s="55"/>
-      <c r="BX8" s="56"/>
-      <c r="BY8" s="54"/>
-      <c r="BZ8" s="55"/>
-      <c r="CA8" s="55"/>
-      <c r="CB8" s="55"/>
-      <c r="CC8" s="55"/>
-      <c r="CD8" s="55"/>
-      <c r="CE8" s="55"/>
-      <c r="CF8" s="56"/>
-      <c r="CG8" s="28"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="127"/>
+      <c r="Y8" s="127"/>
+      <c r="Z8" s="127"/>
+      <c r="AA8" s="127"/>
+      <c r="AB8" s="128"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="36"/>
+      <c r="AQ8" s="36"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="36"/>
+      <c r="AU8" s="36"/>
+      <c r="AV8" s="36"/>
+      <c r="AW8" s="36"/>
+      <c r="AX8" s="36"/>
+      <c r="AY8" s="36"/>
+      <c r="AZ8" s="37"/>
+      <c r="BA8" s="35"/>
+      <c r="BB8" s="36"/>
+      <c r="BC8" s="36"/>
+      <c r="BD8" s="36"/>
+      <c r="BE8" s="36"/>
+      <c r="BF8" s="36"/>
+      <c r="BG8" s="36"/>
+      <c r="BH8" s="37"/>
+      <c r="BI8" s="35"/>
+      <c r="BJ8" s="36"/>
+      <c r="BK8" s="36"/>
+      <c r="BL8" s="36"/>
+      <c r="BM8" s="36"/>
+      <c r="BN8" s="36"/>
+      <c r="BO8" s="36"/>
+      <c r="BP8" s="37"/>
+      <c r="BQ8" s="35"/>
+      <c r="BR8" s="36"/>
+      <c r="BS8" s="36"/>
+      <c r="BT8" s="36"/>
+      <c r="BU8" s="36"/>
+      <c r="BV8" s="36"/>
+      <c r="BW8" s="36"/>
+      <c r="BX8" s="37"/>
+      <c r="BY8" s="35"/>
+      <c r="BZ8" s="36"/>
+      <c r="CA8" s="36"/>
+      <c r="CB8" s="36"/>
+      <c r="CC8" s="36"/>
+      <c r="CD8" s="36"/>
+      <c r="CE8" s="36"/>
+      <c r="CF8" s="37"/>
+      <c r="CG8" s="122"/>
     </row>
-    <row r="9" spans="1:85" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="108" t="s">
+    <row r="9" spans="1:85" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="61"/>
-      <c r="AK9" s="59"/>
-      <c r="AL9" s="60"/>
-      <c r="AM9" s="60"/>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="60"/>
-      <c r="AR9" s="61"/>
-      <c r="AS9" s="59"/>
-      <c r="AT9" s="60"/>
-      <c r="AU9" s="60"/>
-      <c r="AV9" s="60"/>
-      <c r="AW9" s="60"/>
-      <c r="AX9" s="60"/>
-      <c r="AY9" s="60"/>
-      <c r="AZ9" s="61"/>
-      <c r="BA9" s="59"/>
-      <c r="BB9" s="60"/>
-      <c r="BC9" s="60"/>
-      <c r="BD9" s="60"/>
-      <c r="BE9" s="60"/>
-      <c r="BF9" s="60"/>
-      <c r="BG9" s="60"/>
-      <c r="BH9" s="61"/>
-      <c r="BI9" s="59"/>
-      <c r="BJ9" s="60"/>
-      <c r="BK9" s="60"/>
-      <c r="BL9" s="60"/>
-      <c r="BM9" s="60"/>
-      <c r="BN9" s="60"/>
-      <c r="BO9" s="60"/>
-      <c r="BP9" s="61"/>
-      <c r="BQ9" s="59"/>
-      <c r="BR9" s="60"/>
-      <c r="BS9" s="60"/>
-      <c r="BT9" s="60"/>
-      <c r="BU9" s="60"/>
-      <c r="BV9" s="60"/>
-      <c r="BW9" s="60"/>
-      <c r="BX9" s="61"/>
-      <c r="BY9" s="59"/>
-      <c r="BZ9" s="60"/>
-      <c r="CA9" s="60"/>
-      <c r="CB9" s="60"/>
-      <c r="CC9" s="60"/>
-      <c r="CD9" s="60"/>
-      <c r="CE9" s="60"/>
-      <c r="CF9" s="61"/>
-      <c r="CG9" s="28"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="128"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="41"/>
+      <c r="AQ9" s="41"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="40"/>
+      <c r="AT9" s="41"/>
+      <c r="AU9" s="41"/>
+      <c r="AV9" s="41"/>
+      <c r="AW9" s="41"/>
+      <c r="AX9" s="41"/>
+      <c r="AY9" s="41"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="40"/>
+      <c r="BB9" s="41"/>
+      <c r="BC9" s="41"/>
+      <c r="BD9" s="41"/>
+      <c r="BE9" s="41"/>
+      <c r="BF9" s="41"/>
+      <c r="BG9" s="41"/>
+      <c r="BH9" s="42"/>
+      <c r="BI9" s="40"/>
+      <c r="BJ9" s="41"/>
+      <c r="BK9" s="41"/>
+      <c r="BL9" s="41"/>
+      <c r="BM9" s="41"/>
+      <c r="BN9" s="41"/>
+      <c r="BO9" s="41"/>
+      <c r="BP9" s="42"/>
+      <c r="BQ9" s="40"/>
+      <c r="BR9" s="41"/>
+      <c r="BS9" s="41"/>
+      <c r="BT9" s="41"/>
+      <c r="BU9" s="41"/>
+      <c r="BV9" s="41"/>
+      <c r="BW9" s="41"/>
+      <c r="BX9" s="42"/>
+      <c r="BY9" s="40"/>
+      <c r="BZ9" s="41"/>
+      <c r="CA9" s="41"/>
+      <c r="CB9" s="41"/>
+      <c r="CC9" s="41"/>
+      <c r="CD9" s="41"/>
+      <c r="CE9" s="41"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="122"/>
     </row>
-    <row r="10" spans="1:85" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="108"/>
-      <c r="B10" s="98" t="s">
+    <row r="10" spans="1:85" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="141"/>
+      <c r="B10" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="60"/>
-      <c r="AI10" s="60"/>
-      <c r="AJ10" s="61"/>
-      <c r="AK10" s="59"/>
-      <c r="AL10" s="60"/>
-      <c r="AM10" s="60"/>
-      <c r="AN10" s="60"/>
-      <c r="AO10" s="60"/>
-      <c r="AP10" s="60"/>
-      <c r="AQ10" s="60"/>
-      <c r="AR10" s="61"/>
-      <c r="AS10" s="59"/>
-      <c r="AT10" s="60"/>
-      <c r="AU10" s="60"/>
-      <c r="AV10" s="60"/>
-      <c r="AW10" s="60"/>
-      <c r="AX10" s="60"/>
-      <c r="AY10" s="60"/>
-      <c r="AZ10" s="61"/>
-      <c r="BA10" s="59"/>
-      <c r="BB10" s="60"/>
-      <c r="BC10" s="60"/>
-      <c r="BD10" s="60"/>
-      <c r="BE10" s="60"/>
-      <c r="BF10" s="60"/>
-      <c r="BG10" s="60"/>
-      <c r="BH10" s="61"/>
-      <c r="BI10" s="59"/>
-      <c r="BJ10" s="60"/>
-      <c r="BK10" s="60"/>
-      <c r="BL10" s="60"/>
-      <c r="BM10" s="60"/>
-      <c r="BN10" s="60"/>
-      <c r="BO10" s="60"/>
-      <c r="BP10" s="61"/>
-      <c r="BQ10" s="59"/>
-      <c r="BR10" s="60"/>
-      <c r="BS10" s="60"/>
-      <c r="BT10" s="60"/>
-      <c r="BU10" s="60"/>
-      <c r="BV10" s="60"/>
-      <c r="BW10" s="60"/>
-      <c r="BX10" s="61"/>
-      <c r="BY10" s="59"/>
-      <c r="BZ10" s="60"/>
-      <c r="CA10" s="60"/>
-      <c r="CB10" s="60"/>
-      <c r="CC10" s="60"/>
-      <c r="CD10" s="60"/>
-      <c r="CE10" s="60"/>
-      <c r="CF10" s="61"/>
-      <c r="CG10" s="28"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="41"/>
+      <c r="AQ10" s="41"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="40"/>
+      <c r="AT10" s="41"/>
+      <c r="AU10" s="41"/>
+      <c r="AV10" s="41"/>
+      <c r="AW10" s="41"/>
+      <c r="AX10" s="41"/>
+      <c r="AY10" s="41"/>
+      <c r="AZ10" s="42"/>
+      <c r="BA10" s="40"/>
+      <c r="BB10" s="41"/>
+      <c r="BC10" s="41"/>
+      <c r="BD10" s="41"/>
+      <c r="BE10" s="41"/>
+      <c r="BF10" s="41"/>
+      <c r="BG10" s="41"/>
+      <c r="BH10" s="42"/>
+      <c r="BI10" s="40"/>
+      <c r="BJ10" s="41"/>
+      <c r="BK10" s="41"/>
+      <c r="BL10" s="41"/>
+      <c r="BM10" s="41"/>
+      <c r="BN10" s="41"/>
+      <c r="BO10" s="41"/>
+      <c r="BP10" s="42"/>
+      <c r="BQ10" s="40"/>
+      <c r="BR10" s="41"/>
+      <c r="BS10" s="41"/>
+      <c r="BT10" s="41"/>
+      <c r="BU10" s="41"/>
+      <c r="BV10" s="41"/>
+      <c r="BW10" s="41"/>
+      <c r="BX10" s="42"/>
+      <c r="BY10" s="40"/>
+      <c r="BZ10" s="41"/>
+      <c r="CA10" s="41"/>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="41"/>
+      <c r="CD10" s="41"/>
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="42"/>
+      <c r="CG10" s="122"/>
     </row>
-    <row r="11" spans="1:85" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="108"/>
-      <c r="B11" s="98" t="s">
+    <row r="11" spans="1:85" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="141"/>
+      <c r="B11" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="71"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="61"/>
-      <c r="AK11" s="59"/>
-      <c r="AL11" s="60"/>
-      <c r="AM11" s="60"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="60"/>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="61"/>
-      <c r="AS11" s="59"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="60"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="60"/>
-      <c r="AZ11" s="61"/>
-      <c r="BA11" s="59"/>
-      <c r="BB11" s="60"/>
-      <c r="BC11" s="60"/>
-      <c r="BD11" s="60"/>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="60"/>
-      <c r="BH11" s="61"/>
-      <c r="BI11" s="59"/>
-      <c r="BJ11" s="60"/>
-      <c r="BK11" s="60"/>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="60"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="60"/>
-      <c r="BP11" s="61"/>
-      <c r="BQ11" s="59"/>
-      <c r="BR11" s="60"/>
-      <c r="BS11" s="60"/>
-      <c r="BT11" s="60"/>
-      <c r="BU11" s="60"/>
-      <c r="BV11" s="60"/>
-      <c r="BW11" s="60"/>
-      <c r="BX11" s="61"/>
-      <c r="BY11" s="59"/>
-      <c r="BZ11" s="60"/>
-      <c r="CA11" s="60"/>
-      <c r="CB11" s="60"/>
-      <c r="CC11" s="60"/>
-      <c r="CD11" s="60"/>
-      <c r="CE11" s="60"/>
-      <c r="CF11" s="61"/>
-      <c r="CG11" s="28"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="41"/>
+      <c r="AP11" s="41"/>
+      <c r="AQ11" s="41"/>
+      <c r="AR11" s="42"/>
+      <c r="AS11" s="40"/>
+      <c r="AT11" s="41"/>
+      <c r="AU11" s="41"/>
+      <c r="AV11" s="41"/>
+      <c r="AW11" s="41"/>
+      <c r="AX11" s="41"/>
+      <c r="AY11" s="41"/>
+      <c r="AZ11" s="42"/>
+      <c r="BA11" s="40"/>
+      <c r="BB11" s="41"/>
+      <c r="BC11" s="41"/>
+      <c r="BD11" s="41"/>
+      <c r="BE11" s="41"/>
+      <c r="BF11" s="41"/>
+      <c r="BG11" s="41"/>
+      <c r="BH11" s="42"/>
+      <c r="BI11" s="40"/>
+      <c r="BJ11" s="41"/>
+      <c r="BK11" s="41"/>
+      <c r="BL11" s="41"/>
+      <c r="BM11" s="41"/>
+      <c r="BN11" s="41"/>
+      <c r="BO11" s="41"/>
+      <c r="BP11" s="42"/>
+      <c r="BQ11" s="40"/>
+      <c r="BR11" s="41"/>
+      <c r="BS11" s="41"/>
+      <c r="BT11" s="41"/>
+      <c r="BU11" s="41"/>
+      <c r="BV11" s="41"/>
+      <c r="BW11" s="41"/>
+      <c r="BX11" s="42"/>
+      <c r="BY11" s="40"/>
+      <c r="BZ11" s="41"/>
+      <c r="CA11" s="41"/>
+      <c r="CB11" s="41"/>
+      <c r="CC11" s="41"/>
+      <c r="CD11" s="41"/>
+      <c r="CE11" s="41"/>
+      <c r="CF11" s="42"/>
+      <c r="CG11" s="122"/>
     </row>
-    <row r="12" spans="1:85" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="132" t="s">
+    <row r="12" spans="1:85" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="64"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="64"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="65"/>
-      <c r="AV12" s="65"/>
-      <c r="AW12" s="65"/>
-      <c r="AX12" s="65"/>
-      <c r="AY12" s="65"/>
-      <c r="AZ12" s="66"/>
-      <c r="BA12" s="64"/>
-      <c r="BB12" s="65"/>
-      <c r="BC12" s="65"/>
-      <c r="BD12" s="65"/>
-      <c r="BE12" s="65"/>
-      <c r="BF12" s="65"/>
-      <c r="BG12" s="65"/>
-      <c r="BH12" s="66"/>
-      <c r="BI12" s="64"/>
-      <c r="BJ12" s="65"/>
-      <c r="BK12" s="65"/>
-      <c r="BL12" s="65"/>
-      <c r="BM12" s="65"/>
-      <c r="BN12" s="65"/>
-      <c r="BO12" s="65"/>
-      <c r="BP12" s="66"/>
-      <c r="BQ12" s="64"/>
-      <c r="BR12" s="65"/>
-      <c r="BS12" s="65"/>
-      <c r="BT12" s="65"/>
-      <c r="BU12" s="65"/>
-      <c r="BV12" s="65"/>
-      <c r="BW12" s="65"/>
-      <c r="BX12" s="66"/>
-      <c r="BY12" s="64"/>
-      <c r="BZ12" s="65"/>
-      <c r="CA12" s="65"/>
-      <c r="CB12" s="65"/>
-      <c r="CC12" s="65"/>
-      <c r="CD12" s="65"/>
-      <c r="CE12" s="65"/>
-      <c r="CF12" s="66"/>
-      <c r="CG12" s="28"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="126"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="127"/>
+      <c r="AA12" s="127"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
+      <c r="AP12" s="46"/>
+      <c r="AQ12" s="46"/>
+      <c r="AR12" s="47"/>
+      <c r="AS12" s="45"/>
+      <c r="AT12" s="46"/>
+      <c r="AU12" s="46"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="47"/>
+      <c r="BA12" s="45"/>
+      <c r="BB12" s="46"/>
+      <c r="BC12" s="46"/>
+      <c r="BD12" s="46"/>
+      <c r="BE12" s="46"/>
+      <c r="BF12" s="46"/>
+      <c r="BG12" s="46"/>
+      <c r="BH12" s="47"/>
+      <c r="BI12" s="45"/>
+      <c r="BJ12" s="46"/>
+      <c r="BK12" s="46"/>
+      <c r="BL12" s="46"/>
+      <c r="BM12" s="46"/>
+      <c r="BN12" s="46"/>
+      <c r="BO12" s="46"/>
+      <c r="BP12" s="47"/>
+      <c r="BQ12" s="45"/>
+      <c r="BR12" s="46"/>
+      <c r="BS12" s="46"/>
+      <c r="BT12" s="46"/>
+      <c r="BU12" s="46"/>
+      <c r="BV12" s="46"/>
+      <c r="BW12" s="46"/>
+      <c r="BX12" s="47"/>
+      <c r="BY12" s="45"/>
+      <c r="BZ12" s="46"/>
+      <c r="CA12" s="46"/>
+      <c r="CB12" s="46"/>
+      <c r="CC12" s="46"/>
+      <c r="CD12" s="46"/>
+      <c r="CE12" s="46"/>
+      <c r="CF12" s="47"/>
+      <c r="CG12" s="122"/>
     </row>
-    <row r="13" spans="1:85" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="133"/>
-      <c r="B13" s="99" t="s">
+    <row r="13" spans="1:85" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="109"/>
+      <c r="B13" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="64"/>
-      <c r="AL13" s="65"/>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="64"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="65"/>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="65"/>
-      <c r="AX13" s="65"/>
-      <c r="AY13" s="65"/>
-      <c r="AZ13" s="66"/>
-      <c r="BA13" s="64"/>
-      <c r="BB13" s="65"/>
-      <c r="BC13" s="65"/>
-      <c r="BD13" s="65"/>
-      <c r="BE13" s="65"/>
-      <c r="BF13" s="65"/>
-      <c r="BG13" s="65"/>
-      <c r="BH13" s="66"/>
-      <c r="BI13" s="64"/>
-      <c r="BJ13" s="65"/>
-      <c r="BK13" s="65"/>
-      <c r="BL13" s="65"/>
-      <c r="BM13" s="65"/>
-      <c r="BN13" s="65"/>
-      <c r="BO13" s="65"/>
-      <c r="BP13" s="66"/>
-      <c r="BQ13" s="64"/>
-      <c r="BR13" s="65"/>
-      <c r="BS13" s="65"/>
-      <c r="BT13" s="65"/>
-      <c r="BU13" s="65"/>
-      <c r="BV13" s="65"/>
-      <c r="BW13" s="65"/>
-      <c r="BX13" s="66"/>
-      <c r="BY13" s="64"/>
-      <c r="BZ13" s="65"/>
-      <c r="CA13" s="65"/>
-      <c r="CB13" s="65"/>
-      <c r="CC13" s="65"/>
-      <c r="CD13" s="65"/>
-      <c r="CE13" s="65"/>
-      <c r="CF13" s="66"/>
-      <c r="CG13" s="28"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="126"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="127"/>
+      <c r="X13" s="127"/>
+      <c r="Y13" s="127"/>
+      <c r="Z13" s="127"/>
+      <c r="AA13" s="127"/>
+      <c r="AB13" s="128"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="46"/>
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="46"/>
+      <c r="AR13" s="47"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="46"/>
+      <c r="AU13" s="46"/>
+      <c r="AV13" s="46"/>
+      <c r="AW13" s="46"/>
+      <c r="AX13" s="46"/>
+      <c r="AY13" s="46"/>
+      <c r="AZ13" s="47"/>
+      <c r="BA13" s="45"/>
+      <c r="BB13" s="46"/>
+      <c r="BC13" s="46"/>
+      <c r="BD13" s="46"/>
+      <c r="BE13" s="46"/>
+      <c r="BF13" s="46"/>
+      <c r="BG13" s="46"/>
+      <c r="BH13" s="47"/>
+      <c r="BI13" s="45"/>
+      <c r="BJ13" s="46"/>
+      <c r="BK13" s="46"/>
+      <c r="BL13" s="46"/>
+      <c r="BM13" s="46"/>
+      <c r="BN13" s="46"/>
+      <c r="BO13" s="46"/>
+      <c r="BP13" s="47"/>
+      <c r="BQ13" s="45"/>
+      <c r="BR13" s="46"/>
+      <c r="BS13" s="46"/>
+      <c r="BT13" s="46"/>
+      <c r="BU13" s="46"/>
+      <c r="BV13" s="46"/>
+      <c r="BW13" s="46"/>
+      <c r="BX13" s="47"/>
+      <c r="BY13" s="45"/>
+      <c r="BZ13" s="46"/>
+      <c r="CA13" s="46"/>
+      <c r="CB13" s="46"/>
+      <c r="CC13" s="46"/>
+      <c r="CD13" s="46"/>
+      <c r="CE13" s="46"/>
+      <c r="CF13" s="47"/>
+      <c r="CG13" s="122"/>
     </row>
-    <row r="14" spans="1:85" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135" t="s">
+    <row r="14" spans="1:85" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="77"/>
-      <c r="AK14" s="75"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="71"/>
-      <c r="AP14" s="71"/>
-      <c r="AQ14" s="95"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="71"/>
-      <c r="AT14" s="71"/>
-      <c r="AU14" s="95"/>
-      <c r="AV14" s="72"/>
-      <c r="AW14" s="71"/>
-      <c r="AX14" s="71"/>
-      <c r="AY14" s="95"/>
-      <c r="AZ14" s="72"/>
-      <c r="BA14" s="75"/>
-      <c r="BB14" s="76"/>
-      <c r="BC14" s="76"/>
-      <c r="BD14" s="76"/>
-      <c r="BE14" s="76"/>
-      <c r="BF14" s="76"/>
-      <c r="BG14" s="76"/>
-      <c r="BH14" s="77"/>
-      <c r="BI14" s="75"/>
-      <c r="BJ14" s="76"/>
-      <c r="BK14" s="76"/>
-      <c r="BL14" s="76"/>
-      <c r="BM14" s="76"/>
-      <c r="BN14" s="76"/>
-      <c r="BO14" s="76"/>
-      <c r="BP14" s="77"/>
-      <c r="BQ14" s="75"/>
-      <c r="BR14" s="76"/>
-      <c r="BS14" s="76"/>
-      <c r="BT14" s="76"/>
-      <c r="BU14" s="76"/>
-      <c r="BV14" s="76"/>
-      <c r="BW14" s="76"/>
-      <c r="BX14" s="77"/>
-      <c r="BY14" s="75"/>
-      <c r="BZ14" s="76"/>
-      <c r="CA14" s="76"/>
-      <c r="CB14" s="76"/>
-      <c r="CC14" s="76"/>
-      <c r="CD14" s="76"/>
-      <c r="CE14" s="76"/>
-      <c r="CF14" s="77"/>
-      <c r="CG14" s="28"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="126"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="127"/>
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="127"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="128"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="58"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="52"/>
+      <c r="AQ14" s="76"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="52"/>
+      <c r="AT14" s="52"/>
+      <c r="AU14" s="76"/>
+      <c r="AV14" s="53"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="76"/>
+      <c r="AZ14" s="53"/>
+      <c r="BA14" s="56"/>
+      <c r="BB14" s="57"/>
+      <c r="BC14" s="57"/>
+      <c r="BD14" s="57"/>
+      <c r="BE14" s="57"/>
+      <c r="BF14" s="57"/>
+      <c r="BG14" s="57"/>
+      <c r="BH14" s="58"/>
+      <c r="BI14" s="56"/>
+      <c r="BJ14" s="57"/>
+      <c r="BK14" s="57"/>
+      <c r="BL14" s="57"/>
+      <c r="BM14" s="57"/>
+      <c r="BN14" s="57"/>
+      <c r="BO14" s="57"/>
+      <c r="BP14" s="58"/>
+      <c r="BQ14" s="56"/>
+      <c r="BR14" s="57"/>
+      <c r="BS14" s="57"/>
+      <c r="BT14" s="57"/>
+      <c r="BU14" s="57"/>
+      <c r="BV14" s="57"/>
+      <c r="BW14" s="57"/>
+      <c r="BX14" s="58"/>
+      <c r="BY14" s="56"/>
+      <c r="BZ14" s="57"/>
+      <c r="CA14" s="57"/>
+      <c r="CB14" s="57"/>
+      <c r="CC14" s="57"/>
+      <c r="CD14" s="57"/>
+      <c r="CE14" s="57"/>
+      <c r="CF14" s="58"/>
+      <c r="CG14" s="122"/>
     </row>
-    <row r="15" spans="1:85" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
-      <c r="B15" s="100" t="s">
+    <row r="15" spans="1:85" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="111"/>
+      <c r="B15" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="76"/>
-      <c r="AE15" s="76"/>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="76"/>
-      <c r="AH15" s="76"/>
-      <c r="AI15" s="76"/>
-      <c r="AJ15" s="77"/>
-      <c r="AK15" s="75"/>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="76"/>
-      <c r="AN15" s="76"/>
-      <c r="AO15" s="76"/>
-      <c r="AP15" s="76"/>
-      <c r="AQ15" s="76"/>
-      <c r="AR15" s="76"/>
-      <c r="AS15" s="76"/>
-      <c r="AT15" s="76"/>
-      <c r="AU15" s="76"/>
-      <c r="AV15" s="76"/>
-      <c r="AW15" s="76"/>
-      <c r="AX15" s="76"/>
-      <c r="AY15" s="76"/>
-      <c r="AZ15" s="72"/>
-      <c r="BA15" s="75"/>
-      <c r="BB15" s="76"/>
-      <c r="BC15" s="76"/>
-      <c r="BD15" s="76"/>
-      <c r="BE15" s="76"/>
-      <c r="BF15" s="134"/>
-      <c r="BG15" s="76"/>
-      <c r="BH15" s="77"/>
-      <c r="BI15" s="75"/>
-      <c r="BJ15" s="76"/>
-      <c r="BK15" s="76"/>
-      <c r="BL15" s="76"/>
-      <c r="BM15" s="76"/>
-      <c r="BN15" s="76"/>
-      <c r="BO15" s="76"/>
-      <c r="BP15" s="77"/>
-      <c r="BQ15" s="75"/>
-      <c r="BR15" s="76"/>
-      <c r="BS15" s="76"/>
-      <c r="BT15" s="76"/>
-      <c r="BU15" s="76"/>
-      <c r="BV15" s="76"/>
-      <c r="BW15" s="76"/>
-      <c r="BX15" s="77"/>
-      <c r="BY15" s="75"/>
-      <c r="BZ15" s="76"/>
-      <c r="CA15" s="76"/>
-      <c r="CB15" s="76"/>
-      <c r="CC15" s="76"/>
-      <c r="CD15" s="76"/>
-      <c r="CE15" s="76"/>
-      <c r="CF15" s="77"/>
-      <c r="CG15" s="28"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="126"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
+      <c r="Z15" s="127"/>
+      <c r="AA15" s="127"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+      <c r="AJ15" s="58"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="57"/>
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="57"/>
+      <c r="AX15" s="57"/>
+      <c r="AY15" s="57"/>
+      <c r="AZ15" s="53"/>
+      <c r="BA15" s="56"/>
+      <c r="BB15" s="57"/>
+      <c r="BC15" s="57"/>
+      <c r="BD15" s="57"/>
+      <c r="BE15" s="57"/>
+      <c r="BF15" s="101"/>
+      <c r="BG15" s="57"/>
+      <c r="BH15" s="58"/>
+      <c r="BI15" s="56"/>
+      <c r="BJ15" s="57"/>
+      <c r="BK15" s="57"/>
+      <c r="BL15" s="57"/>
+      <c r="BM15" s="57"/>
+      <c r="BN15" s="57"/>
+      <c r="BO15" s="57"/>
+      <c r="BP15" s="58"/>
+      <c r="BQ15" s="56"/>
+      <c r="BR15" s="57"/>
+      <c r="BS15" s="57"/>
+      <c r="BT15" s="57"/>
+      <c r="BU15" s="57"/>
+      <c r="BV15" s="57"/>
+      <c r="BW15" s="57"/>
+      <c r="BX15" s="58"/>
+      <c r="BY15" s="56"/>
+      <c r="BZ15" s="57"/>
+      <c r="CA15" s="57"/>
+      <c r="CB15" s="57"/>
+      <c r="CC15" s="57"/>
+      <c r="CD15" s="57"/>
+      <c r="CE15" s="57"/>
+      <c r="CF15" s="58"/>
+      <c r="CG15" s="122"/>
     </row>
-    <row r="16" spans="1:85" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="137" t="s">
+    <row r="16" spans="1:85" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="81"/>
-      <c r="AE16" s="81"/>
-      <c r="AF16" s="81"/>
-      <c r="AG16" s="81"/>
-      <c r="AH16" s="81"/>
-      <c r="AI16" s="81"/>
-      <c r="AJ16" s="82"/>
-      <c r="AK16" s="80"/>
-      <c r="AL16" s="81"/>
-      <c r="AM16" s="81"/>
-      <c r="AN16" s="81"/>
-      <c r="AO16" s="81"/>
-      <c r="AP16" s="81"/>
-      <c r="AQ16" s="81"/>
-      <c r="AR16" s="82"/>
-      <c r="AS16" s="80"/>
-      <c r="AT16" s="81"/>
-      <c r="AU16" s="81"/>
-      <c r="AV16" s="81"/>
-      <c r="AW16" s="81"/>
-      <c r="AX16" s="81"/>
-      <c r="AY16" s="81"/>
-      <c r="AZ16" s="82"/>
-      <c r="BA16" s="80"/>
-      <c r="BB16" s="81"/>
-      <c r="BC16" s="81"/>
-      <c r="BD16" s="81"/>
-      <c r="BE16" s="81"/>
-      <c r="BF16" s="95"/>
-      <c r="BG16" s="71"/>
-      <c r="BH16" s="72"/>
-      <c r="BI16" s="73"/>
-      <c r="BJ16" s="71"/>
-      <c r="BK16" s="71"/>
-      <c r="BL16" s="71"/>
-      <c r="BM16" s="71"/>
-      <c r="BN16" s="71"/>
-      <c r="BO16" s="71"/>
-      <c r="BP16" s="72"/>
-      <c r="BQ16" s="80"/>
-      <c r="BR16" s="81"/>
-      <c r="BS16" s="81"/>
-      <c r="BT16" s="81"/>
-      <c r="BU16" s="81"/>
-      <c r="BV16" s="81"/>
-      <c r="BW16" s="81"/>
-      <c r="BX16" s="82"/>
-      <c r="BY16" s="80"/>
-      <c r="BZ16" s="81"/>
-      <c r="CA16" s="81"/>
-      <c r="CB16" s="81"/>
-      <c r="CC16" s="81"/>
-      <c r="CD16" s="81"/>
-      <c r="CE16" s="81"/>
-      <c r="CF16" s="82"/>
-      <c r="CG16" s="28"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="126"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="128"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="61"/>
+      <c r="AL16" s="62"/>
+      <c r="AM16" s="62"/>
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="62"/>
+      <c r="AP16" s="62"/>
+      <c r="AQ16" s="62"/>
+      <c r="AR16" s="63"/>
+      <c r="AS16" s="61"/>
+      <c r="AT16" s="62"/>
+      <c r="AU16" s="62"/>
+      <c r="AV16" s="62"/>
+      <c r="AW16" s="62"/>
+      <c r="AX16" s="62"/>
+      <c r="AY16" s="62"/>
+      <c r="AZ16" s="63"/>
+      <c r="BA16" s="61"/>
+      <c r="BB16" s="62"/>
+      <c r="BC16" s="62"/>
+      <c r="BD16" s="62"/>
+      <c r="BE16" s="62"/>
+      <c r="BF16" s="76"/>
+      <c r="BG16" s="52"/>
+      <c r="BH16" s="53"/>
+      <c r="BI16" s="54"/>
+      <c r="BJ16" s="52"/>
+      <c r="BK16" s="52"/>
+      <c r="BL16" s="52"/>
+      <c r="BM16" s="52"/>
+      <c r="BN16" s="52"/>
+      <c r="BO16" s="52"/>
+      <c r="BP16" s="53"/>
+      <c r="BQ16" s="61"/>
+      <c r="BR16" s="62"/>
+      <c r="BS16" s="62"/>
+      <c r="BT16" s="62"/>
+      <c r="BU16" s="62"/>
+      <c r="BV16" s="62"/>
+      <c r="BW16" s="62"/>
+      <c r="BX16" s="63"/>
+      <c r="BY16" s="61"/>
+      <c r="BZ16" s="62"/>
+      <c r="CA16" s="62"/>
+      <c r="CB16" s="62"/>
+      <c r="CC16" s="62"/>
+      <c r="CD16" s="62"/>
+      <c r="CE16" s="62"/>
+      <c r="CF16" s="63"/>
+      <c r="CG16" s="122"/>
     </row>
-    <row r="17" spans="1:85" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="138"/>
-      <c r="B17" s="101" t="s">
+    <row r="17" spans="1:85" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="113"/>
+      <c r="B17" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="80"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="81"/>
-      <c r="AH17" s="81"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="82"/>
-      <c r="AK17" s="80"/>
-      <c r="AL17" s="81"/>
-      <c r="AM17" s="81"/>
-      <c r="AN17" s="81"/>
-      <c r="AO17" s="81"/>
-      <c r="AP17" s="81"/>
-      <c r="AQ17" s="81"/>
-      <c r="AR17" s="82"/>
-      <c r="AS17" s="80"/>
-      <c r="AT17" s="81"/>
-      <c r="AU17" s="81"/>
-      <c r="AV17" s="81"/>
-      <c r="AW17" s="81"/>
-      <c r="AX17" s="81"/>
-      <c r="AY17" s="81"/>
-      <c r="AZ17" s="82"/>
-      <c r="BA17" s="80"/>
-      <c r="BB17" s="81"/>
-      <c r="BC17" s="81"/>
-      <c r="BD17" s="81"/>
-      <c r="BE17" s="81"/>
-      <c r="BF17" s="81"/>
-      <c r="BG17" s="81"/>
-      <c r="BH17" s="81"/>
-      <c r="BI17" s="81"/>
-      <c r="BJ17" s="81"/>
-      <c r="BK17" s="81"/>
-      <c r="BL17" s="81"/>
-      <c r="BM17" s="81"/>
-      <c r="BN17" s="81"/>
-      <c r="BO17" s="81"/>
-      <c r="BP17" s="72"/>
-      <c r="BQ17" s="80"/>
-      <c r="BR17" s="81"/>
-      <c r="BS17" s="81"/>
-      <c r="BT17" s="81"/>
-      <c r="BU17" s="81"/>
-      <c r="BV17" s="81"/>
-      <c r="BW17" s="81"/>
-      <c r="BX17" s="82"/>
-      <c r="BY17" s="80"/>
-      <c r="BZ17" s="81"/>
-      <c r="CA17" s="81"/>
-      <c r="CB17" s="81"/>
-      <c r="CC17" s="81"/>
-      <c r="CD17" s="81"/>
-      <c r="CE17" s="81"/>
-      <c r="CF17" s="82"/>
-      <c r="CG17" s="28"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="126"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="62"/>
+      <c r="AM17" s="62"/>
+      <c r="AN17" s="62"/>
+      <c r="AO17" s="62"/>
+      <c r="AP17" s="62"/>
+      <c r="AQ17" s="62"/>
+      <c r="AR17" s="63"/>
+      <c r="AS17" s="61"/>
+      <c r="AT17" s="62"/>
+      <c r="AU17" s="62"/>
+      <c r="AV17" s="62"/>
+      <c r="AW17" s="62"/>
+      <c r="AX17" s="62"/>
+      <c r="AY17" s="62"/>
+      <c r="AZ17" s="63"/>
+      <c r="BA17" s="61"/>
+      <c r="BB17" s="62"/>
+      <c r="BC17" s="62"/>
+      <c r="BD17" s="62"/>
+      <c r="BE17" s="62"/>
+      <c r="BF17" s="62"/>
+      <c r="BG17" s="62"/>
+      <c r="BH17" s="62"/>
+      <c r="BI17" s="62"/>
+      <c r="BJ17" s="62"/>
+      <c r="BK17" s="62"/>
+      <c r="BL17" s="62"/>
+      <c r="BM17" s="62"/>
+      <c r="BN17" s="62"/>
+      <c r="BO17" s="62"/>
+      <c r="BP17" s="53"/>
+      <c r="BQ17" s="61"/>
+      <c r="BR17" s="62"/>
+      <c r="BS17" s="62"/>
+      <c r="BT17" s="62"/>
+      <c r="BU17" s="62"/>
+      <c r="BV17" s="62"/>
+      <c r="BW17" s="62"/>
+      <c r="BX17" s="63"/>
+      <c r="BY17" s="61"/>
+      <c r="BZ17" s="62"/>
+      <c r="CA17" s="62"/>
+      <c r="CB17" s="62"/>
+      <c r="CC17" s="62"/>
+      <c r="CD17" s="62"/>
+      <c r="CE17" s="62"/>
+      <c r="CF17" s="63"/>
+      <c r="CG17" s="122"/>
     </row>
-    <row r="18" spans="1:85" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="139" t="s">
+    <row r="18" spans="1:85" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="145"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="85"/>
-      <c r="AD18" s="86"/>
-      <c r="AE18" s="86"/>
-      <c r="AF18" s="86"/>
-      <c r="AG18" s="86"/>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="86"/>
-      <c r="AJ18" s="87"/>
-      <c r="AK18" s="85"/>
-      <c r="AL18" s="86"/>
-      <c r="AM18" s="86"/>
-      <c r="AN18" s="86"/>
-      <c r="AO18" s="86"/>
-      <c r="AP18" s="86"/>
-      <c r="AQ18" s="86"/>
-      <c r="AR18" s="87"/>
-      <c r="AS18" s="85"/>
-      <c r="AT18" s="86"/>
-      <c r="AU18" s="86"/>
-      <c r="AV18" s="86"/>
-      <c r="AW18" s="86"/>
-      <c r="AX18" s="86"/>
-      <c r="AY18" s="86"/>
-      <c r="AZ18" s="87"/>
-      <c r="BA18" s="85"/>
-      <c r="BB18" s="86"/>
-      <c r="BC18" s="86"/>
-      <c r="BD18" s="86"/>
-      <c r="BE18" s="86"/>
-      <c r="BF18" s="86"/>
-      <c r="BG18" s="86"/>
-      <c r="BH18" s="87"/>
-      <c r="BI18" s="85"/>
-      <c r="BJ18" s="86"/>
-      <c r="BK18" s="86"/>
-      <c r="BL18" s="86"/>
-      <c r="BM18" s="86"/>
-      <c r="BN18" s="86"/>
-      <c r="BO18" s="86"/>
-      <c r="BP18" s="87"/>
-      <c r="BQ18" s="85"/>
-      <c r="BR18" s="86"/>
-      <c r="BS18" s="86"/>
-      <c r="BT18" s="86"/>
-      <c r="BU18" s="86"/>
-      <c r="BV18" s="71"/>
-      <c r="BW18" s="71"/>
-      <c r="BX18" s="72"/>
-      <c r="BY18" s="73"/>
-      <c r="BZ18" s="71"/>
-      <c r="CA18" s="71"/>
-      <c r="CB18" s="71"/>
-      <c r="CC18" s="71"/>
-      <c r="CD18" s="71"/>
-      <c r="CE18" s="86"/>
-      <c r="CF18" s="87"/>
-      <c r="CG18" s="28"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="126"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="127"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="67"/>
+      <c r="AI18" s="67"/>
+      <c r="AJ18" s="68"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="67"/>
+      <c r="AM18" s="67"/>
+      <c r="AN18" s="67"/>
+      <c r="AO18" s="67"/>
+      <c r="AP18" s="67"/>
+      <c r="AQ18" s="67"/>
+      <c r="AR18" s="68"/>
+      <c r="AS18" s="66"/>
+      <c r="AT18" s="67"/>
+      <c r="AU18" s="67"/>
+      <c r="AV18" s="67"/>
+      <c r="AW18" s="67"/>
+      <c r="AX18" s="67"/>
+      <c r="AY18" s="67"/>
+      <c r="AZ18" s="68"/>
+      <c r="BA18" s="66"/>
+      <c r="BB18" s="67"/>
+      <c r="BC18" s="67"/>
+      <c r="BD18" s="67"/>
+      <c r="BE18" s="67"/>
+      <c r="BF18" s="67"/>
+      <c r="BG18" s="67"/>
+      <c r="BH18" s="68"/>
+      <c r="BI18" s="66"/>
+      <c r="BJ18" s="67"/>
+      <c r="BK18" s="67"/>
+      <c r="BL18" s="67"/>
+      <c r="BM18" s="67"/>
+      <c r="BN18" s="67"/>
+      <c r="BO18" s="67"/>
+      <c r="BP18" s="68"/>
+      <c r="BQ18" s="66"/>
+      <c r="BR18" s="67"/>
+      <c r="BS18" s="67"/>
+      <c r="BT18" s="67"/>
+      <c r="BU18" s="67"/>
+      <c r="BV18" s="52"/>
+      <c r="BW18" s="52"/>
+      <c r="BX18" s="53"/>
+      <c r="BY18" s="54"/>
+      <c r="BZ18" s="52"/>
+      <c r="CA18" s="52"/>
+      <c r="CB18" s="52"/>
+      <c r="CC18" s="52"/>
+      <c r="CD18" s="52"/>
+      <c r="CE18" s="67"/>
+      <c r="CF18" s="68"/>
+      <c r="CG18" s="122"/>
     </row>
-    <row r="19" spans="1:85" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="140"/>
-      <c r="B19" s="102" t="s">
+    <row r="19" spans="1:85" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="115"/>
+      <c r="B19" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="146"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="85"/>
-      <c r="AD19" s="86"/>
-      <c r="AE19" s="86"/>
-      <c r="AF19" s="86"/>
-      <c r="AG19" s="86"/>
-      <c r="AH19" s="86"/>
-      <c r="AI19" s="86"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="85"/>
-      <c r="AL19" s="86"/>
-      <c r="AM19" s="86"/>
-      <c r="AN19" s="86"/>
-      <c r="AO19" s="86"/>
-      <c r="AP19" s="86"/>
-      <c r="AQ19" s="86"/>
-      <c r="AR19" s="87"/>
-      <c r="AS19" s="85"/>
-      <c r="AT19" s="86"/>
-      <c r="AU19" s="86"/>
-      <c r="AV19" s="86"/>
-      <c r="AW19" s="86"/>
-      <c r="AX19" s="86"/>
-      <c r="AY19" s="86"/>
-      <c r="AZ19" s="87"/>
-      <c r="BA19" s="85"/>
-      <c r="BB19" s="86"/>
-      <c r="BC19" s="86"/>
-      <c r="BD19" s="86"/>
-      <c r="BE19" s="86"/>
-      <c r="BF19" s="86"/>
-      <c r="BG19" s="86"/>
-      <c r="BH19" s="87"/>
-      <c r="BI19" s="85"/>
-      <c r="BJ19" s="86"/>
-      <c r="BK19" s="86"/>
-      <c r="BL19" s="86"/>
-      <c r="BM19" s="86"/>
-      <c r="BN19" s="86"/>
-      <c r="BO19" s="86"/>
-      <c r="BP19" s="87"/>
-      <c r="BQ19" s="85"/>
-      <c r="BR19" s="86"/>
-      <c r="BS19" s="86"/>
-      <c r="BT19" s="86"/>
-      <c r="BU19" s="86"/>
-      <c r="BV19" s="86"/>
-      <c r="BW19" s="86"/>
-      <c r="BX19" s="86"/>
-      <c r="BY19" s="86"/>
-      <c r="BZ19" s="86"/>
-      <c r="CA19" s="86"/>
-      <c r="CB19" s="86"/>
-      <c r="CC19" s="86"/>
-      <c r="CD19" s="71"/>
-      <c r="CE19" s="86"/>
-      <c r="CF19" s="87"/>
-      <c r="CG19" s="28"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="126"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="67"/>
+      <c r="AI19" s="67"/>
+      <c r="AJ19" s="68"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="67"/>
+      <c r="AM19" s="67"/>
+      <c r="AN19" s="67"/>
+      <c r="AO19" s="67"/>
+      <c r="AP19" s="67"/>
+      <c r="AQ19" s="67"/>
+      <c r="AR19" s="68"/>
+      <c r="AS19" s="66"/>
+      <c r="AT19" s="67"/>
+      <c r="AU19" s="67"/>
+      <c r="AV19" s="67"/>
+      <c r="AW19" s="67"/>
+      <c r="AX19" s="67"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="66"/>
+      <c r="BB19" s="67"/>
+      <c r="BC19" s="67"/>
+      <c r="BD19" s="67"/>
+      <c r="BE19" s="67"/>
+      <c r="BF19" s="67"/>
+      <c r="BG19" s="67"/>
+      <c r="BH19" s="68"/>
+      <c r="BI19" s="66"/>
+      <c r="BJ19" s="67"/>
+      <c r="BK19" s="67"/>
+      <c r="BL19" s="67"/>
+      <c r="BM19" s="67"/>
+      <c r="BN19" s="67"/>
+      <c r="BO19" s="67"/>
+      <c r="BP19" s="68"/>
+      <c r="BQ19" s="66"/>
+      <c r="BR19" s="67"/>
+      <c r="BS19" s="67"/>
+      <c r="BT19" s="67"/>
+      <c r="BU19" s="67"/>
+      <c r="BV19" s="67"/>
+      <c r="BW19" s="67"/>
+      <c r="BX19" s="67"/>
+      <c r="BY19" s="67"/>
+      <c r="BZ19" s="67"/>
+      <c r="CA19" s="67"/>
+      <c r="CB19" s="67"/>
+      <c r="CC19" s="67"/>
+      <c r="CD19" s="52"/>
+      <c r="CE19" s="67"/>
+      <c r="CF19" s="68"/>
+      <c r="CG19" s="122"/>
     </row>
-    <row r="20" spans="1:85" s="94" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="113" t="s">
+    <row r="20" spans="1:85" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="91"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="92"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="92"/>
-      <c r="AJ20" s="93"/>
-      <c r="AK20" s="91"/>
-      <c r="AL20" s="92"/>
-      <c r="AM20" s="92"/>
-      <c r="AN20" s="92"/>
-      <c r="AO20" s="92"/>
-      <c r="AP20" s="92"/>
-      <c r="AQ20" s="92"/>
-      <c r="AR20" s="93"/>
-      <c r="AS20" s="91"/>
-      <c r="AT20" s="92"/>
-      <c r="AU20" s="92"/>
-      <c r="AV20" s="92"/>
-      <c r="AW20" s="92"/>
-      <c r="AX20" s="92"/>
-      <c r="AY20" s="92"/>
-      <c r="AZ20" s="93"/>
-      <c r="BA20" s="91"/>
-      <c r="BB20" s="92"/>
-      <c r="BC20" s="92"/>
-      <c r="BD20" s="92"/>
-      <c r="BE20" s="92"/>
-      <c r="BF20" s="92"/>
-      <c r="BG20" s="92"/>
-      <c r="BH20" s="93"/>
-      <c r="BI20" s="91"/>
-      <c r="BJ20" s="92"/>
-      <c r="BK20" s="92"/>
-      <c r="BL20" s="92"/>
-      <c r="BM20" s="92"/>
-      <c r="BN20" s="92"/>
-      <c r="BO20" s="92"/>
-      <c r="BP20" s="93"/>
-      <c r="BQ20" s="91"/>
-      <c r="BR20" s="92"/>
-      <c r="BS20" s="92"/>
-      <c r="BT20" s="92"/>
-      <c r="BU20" s="92"/>
-      <c r="BV20" s="92"/>
-      <c r="BW20" s="92"/>
-      <c r="BX20" s="93"/>
-      <c r="BY20" s="91"/>
-      <c r="BZ20" s="92"/>
-      <c r="CA20" s="92"/>
-      <c r="CB20" s="92"/>
-      <c r="CC20" s="92"/>
-      <c r="CD20" s="92"/>
-      <c r="CE20" s="71"/>
-      <c r="CF20" s="72"/>
-      <c r="CG20" s="28"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="126"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="73"/>
+      <c r="AH20" s="73"/>
+      <c r="AI20" s="73"/>
+      <c r="AJ20" s="74"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="73"/>
+      <c r="AM20" s="73"/>
+      <c r="AN20" s="73"/>
+      <c r="AO20" s="73"/>
+      <c r="AP20" s="73"/>
+      <c r="AQ20" s="73"/>
+      <c r="AR20" s="74"/>
+      <c r="AS20" s="72"/>
+      <c r="AT20" s="73"/>
+      <c r="AU20" s="73"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="73"/>
+      <c r="AY20" s="73"/>
+      <c r="AZ20" s="74"/>
+      <c r="BA20" s="72"/>
+      <c r="BB20" s="73"/>
+      <c r="BC20" s="73"/>
+      <c r="BD20" s="73"/>
+      <c r="BE20" s="73"/>
+      <c r="BF20" s="73"/>
+      <c r="BG20" s="73"/>
+      <c r="BH20" s="74"/>
+      <c r="BI20" s="72"/>
+      <c r="BJ20" s="73"/>
+      <c r="BK20" s="73"/>
+      <c r="BL20" s="73"/>
+      <c r="BM20" s="73"/>
+      <c r="BN20" s="73"/>
+      <c r="BO20" s="73"/>
+      <c r="BP20" s="74"/>
+      <c r="BQ20" s="72"/>
+      <c r="BR20" s="73"/>
+      <c r="BS20" s="73"/>
+      <c r="BT20" s="73"/>
+      <c r="BU20" s="73"/>
+      <c r="BV20" s="73"/>
+      <c r="BW20" s="73"/>
+      <c r="BX20" s="74"/>
+      <c r="BY20" s="72"/>
+      <c r="BZ20" s="73"/>
+      <c r="CA20" s="73"/>
+      <c r="CB20" s="73"/>
+      <c r="CC20" s="73"/>
+      <c r="CD20" s="73"/>
+      <c r="CE20" s="52"/>
+      <c r="CF20" s="53"/>
+      <c r="CG20" s="122"/>
     </row>
-    <row r="21" spans="1:85" s="121" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="114"/>
-      <c r="B21" s="115" t="s">
+    <row r="21" spans="1:85" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="105"/>
+      <c r="B21" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
-      <c r="T21" s="120"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="118"/>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="119"/>
-      <c r="AF21" s="119"/>
-      <c r="AG21" s="119"/>
-      <c r="AH21" s="119"/>
-      <c r="AI21" s="119"/>
-      <c r="AJ21" s="120"/>
-      <c r="AK21" s="118"/>
-      <c r="AL21" s="119"/>
-      <c r="AM21" s="119"/>
-      <c r="AN21" s="119"/>
-      <c r="AO21" s="119"/>
-      <c r="AP21" s="119"/>
-      <c r="AQ21" s="119"/>
-      <c r="AR21" s="120"/>
-      <c r="AS21" s="118"/>
-      <c r="AT21" s="119"/>
-      <c r="AU21" s="119"/>
-      <c r="AV21" s="119"/>
-      <c r="AW21" s="119"/>
-      <c r="AX21" s="119"/>
-      <c r="AY21" s="119"/>
-      <c r="AZ21" s="120"/>
-      <c r="BA21" s="118"/>
-      <c r="BB21" s="119"/>
-      <c r="BC21" s="119"/>
-      <c r="BD21" s="119"/>
-      <c r="BE21" s="119"/>
-      <c r="BF21" s="119"/>
-      <c r="BG21" s="119"/>
-      <c r="BH21" s="120"/>
-      <c r="BI21" s="118"/>
-      <c r="BJ21" s="119"/>
-      <c r="BK21" s="119"/>
-      <c r="BL21" s="119"/>
-      <c r="BM21" s="119"/>
-      <c r="BN21" s="119"/>
-      <c r="BO21" s="119"/>
-      <c r="BP21" s="120"/>
-      <c r="BQ21" s="118"/>
-      <c r="BR21" s="119"/>
-      <c r="BS21" s="119"/>
-      <c r="BT21" s="119"/>
-      <c r="BU21" s="119"/>
-      <c r="BV21" s="119"/>
-      <c r="BW21" s="119"/>
-      <c r="BX21" s="120"/>
-      <c r="BY21" s="118"/>
-      <c r="BZ21" s="119"/>
-      <c r="CA21" s="119"/>
-      <c r="CB21" s="119"/>
-      <c r="CC21" s="119"/>
-      <c r="CD21" s="119"/>
-      <c r="CE21" s="119"/>
-      <c r="CF21" s="120"/>
-      <c r="CG21" s="28"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="126"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="127"/>
+      <c r="X21" s="127"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="127"/>
+      <c r="AA21" s="127"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="90"/>
+      <c r="AJ21" s="91"/>
+      <c r="AK21" s="89"/>
+      <c r="AL21" s="90"/>
+      <c r="AM21" s="90"/>
+      <c r="AN21" s="90"/>
+      <c r="AO21" s="90"/>
+      <c r="AP21" s="90"/>
+      <c r="AQ21" s="90"/>
+      <c r="AR21" s="91"/>
+      <c r="AS21" s="89"/>
+      <c r="AT21" s="90"/>
+      <c r="AU21" s="90"/>
+      <c r="AV21" s="90"/>
+      <c r="AW21" s="90"/>
+      <c r="AX21" s="90"/>
+      <c r="AY21" s="90"/>
+      <c r="AZ21" s="91"/>
+      <c r="BA21" s="89"/>
+      <c r="BB21" s="90"/>
+      <c r="BC21" s="90"/>
+      <c r="BD21" s="90"/>
+      <c r="BE21" s="90"/>
+      <c r="BF21" s="90"/>
+      <c r="BG21" s="90"/>
+      <c r="BH21" s="91"/>
+      <c r="BI21" s="89"/>
+      <c r="BJ21" s="90"/>
+      <c r="BK21" s="90"/>
+      <c r="BL21" s="90"/>
+      <c r="BM21" s="90"/>
+      <c r="BN21" s="90"/>
+      <c r="BO21" s="90"/>
+      <c r="BP21" s="91"/>
+      <c r="BQ21" s="89"/>
+      <c r="BR21" s="90"/>
+      <c r="BS21" s="90"/>
+      <c r="BT21" s="90"/>
+      <c r="BU21" s="90"/>
+      <c r="BV21" s="90"/>
+      <c r="BW21" s="90"/>
+      <c r="BX21" s="91"/>
+      <c r="BY21" s="89"/>
+      <c r="BZ21" s="90"/>
+      <c r="CA21" s="90"/>
+      <c r="CB21" s="90"/>
+      <c r="CC21" s="90"/>
+      <c r="CD21" s="90"/>
+      <c r="CE21" s="90"/>
+      <c r="CF21" s="91"/>
+      <c r="CG21" s="122"/>
     </row>
-    <row r="22" spans="1:85" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="122" t="s">
+    <row r="22" spans="1:85" s="100" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="126"/>
-      <c r="AD22" s="127"/>
-      <c r="AE22" s="127"/>
-      <c r="AF22" s="127"/>
-      <c r="AG22" s="127"/>
-      <c r="AH22" s="127"/>
-      <c r="AI22" s="72"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="126"/>
-      <c r="AL22" s="127"/>
-      <c r="AM22" s="127"/>
-      <c r="AN22" s="127"/>
-      <c r="AO22" s="127"/>
-      <c r="AP22" s="127"/>
-      <c r="AQ22" s="127"/>
-      <c r="AR22" s="72"/>
-      <c r="AS22" s="126"/>
-      <c r="AT22" s="127"/>
-      <c r="AU22" s="127"/>
-      <c r="AV22" s="127"/>
-      <c r="AW22" s="127"/>
-      <c r="AX22" s="127"/>
-      <c r="AY22" s="127"/>
-      <c r="AZ22" s="72"/>
-      <c r="BA22" s="126"/>
-      <c r="BB22" s="127"/>
-      <c r="BC22" s="127"/>
-      <c r="BD22" s="127"/>
-      <c r="BE22" s="127"/>
-      <c r="BF22" s="127"/>
-      <c r="BG22" s="127"/>
-      <c r="BH22" s="72"/>
-      <c r="BI22" s="126"/>
-      <c r="BJ22" s="127"/>
-      <c r="BK22" s="127"/>
-      <c r="BL22" s="127"/>
-      <c r="BM22" s="127"/>
-      <c r="BN22" s="127"/>
-      <c r="BO22" s="72"/>
-      <c r="BP22" s="72"/>
-      <c r="BQ22" s="126"/>
-      <c r="BR22" s="127"/>
-      <c r="BS22" s="127"/>
-      <c r="BT22" s="127"/>
-      <c r="BU22" s="127"/>
-      <c r="BV22" s="127"/>
-      <c r="BW22" s="127"/>
-      <c r="BX22" s="72"/>
-      <c r="BY22" s="126"/>
-      <c r="BZ22" s="127"/>
-      <c r="CA22" s="127"/>
-      <c r="CB22" s="127"/>
-      <c r="CC22" s="71"/>
-      <c r="CD22" s="71"/>
-      <c r="CE22" s="127"/>
-      <c r="CF22" s="128"/>
-      <c r="CG22" s="28"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="97"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="98"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
+      <c r="AK22" s="97"/>
+      <c r="AL22" s="98"/>
+      <c r="AM22" s="98"/>
+      <c r="AN22" s="98"/>
+      <c r="AO22" s="98"/>
+      <c r="AP22" s="98"/>
+      <c r="AQ22" s="98"/>
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="97"/>
+      <c r="AT22" s="98"/>
+      <c r="AU22" s="98"/>
+      <c r="AV22" s="98"/>
+      <c r="AW22" s="98"/>
+      <c r="AX22" s="98"/>
+      <c r="AY22" s="98"/>
+      <c r="AZ22" s="53"/>
+      <c r="BA22" s="97"/>
+      <c r="BB22" s="98"/>
+      <c r="BC22" s="98"/>
+      <c r="BD22" s="98"/>
+      <c r="BE22" s="98"/>
+      <c r="BF22" s="98"/>
+      <c r="BG22" s="98"/>
+      <c r="BH22" s="53"/>
+      <c r="BI22" s="97"/>
+      <c r="BJ22" s="98"/>
+      <c r="BK22" s="98"/>
+      <c r="BL22" s="98"/>
+      <c r="BM22" s="98"/>
+      <c r="BN22" s="98"/>
+      <c r="BO22" s="53"/>
+      <c r="BP22" s="53"/>
+      <c r="BQ22" s="97"/>
+      <c r="BR22" s="98"/>
+      <c r="BS22" s="98"/>
+      <c r="BT22" s="98"/>
+      <c r="BU22" s="98"/>
+      <c r="BV22" s="98"/>
+      <c r="BW22" s="98"/>
+      <c r="BX22" s="53"/>
+      <c r="BY22" s="97"/>
+      <c r="BZ22" s="98"/>
+      <c r="CA22" s="98"/>
+      <c r="CB22" s="98"/>
+      <c r="CC22" s="52"/>
+      <c r="CD22" s="52"/>
+      <c r="CE22" s="98"/>
+      <c r="CF22" s="99"/>
+      <c r="CG22" s="122"/>
     </row>
     <row r="23" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="104"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="15"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
@@ -4022,14 +4022,14 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="10"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="33"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="128"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="9"/>
       <c r="AE23" s="9"/>
@@ -4086,11 +4086,11 @@
       <c r="CD23" s="9"/>
       <c r="CE23" s="9"/>
       <c r="CF23" s="10"/>
-      <c r="CG23" s="28"/>
+      <c r="CG23" s="122"/>
     </row>
     <row r="24" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="104"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="15"/>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
@@ -4109,14 +4109,14 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="10"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="33"/>
+      <c r="U24" s="126"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="127"/>
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="127"/>
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="128"/>
       <c r="AC24" s="8"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="9"/>
@@ -4173,11 +4173,11 @@
       <c r="CD24" s="9"/>
       <c r="CE24" s="9"/>
       <c r="CF24" s="10"/>
-      <c r="CG24" s="28"/>
+      <c r="CG24" s="122"/>
     </row>
     <row r="25" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="104"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="15"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
@@ -4196,14 +4196,14 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="33"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="127"/>
+      <c r="AA25" s="127"/>
+      <c r="AB25" s="128"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9"/>
@@ -4260,11 +4260,11 @@
       <c r="CD25" s="9"/>
       <c r="CE25" s="9"/>
       <c r="CF25" s="10"/>
-      <c r="CG25" s="28"/>
+      <c r="CG25" s="122"/>
     </row>
     <row r="26" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="104"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="15"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
@@ -4283,14 +4283,14 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="33"/>
+      <c r="U26" s="126"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
+      <c r="Z26" s="127"/>
+      <c r="AA26" s="127"/>
+      <c r="AB26" s="128"/>
       <c r="AC26" s="8"/>
       <c r="AD26" s="9"/>
       <c r="AE26" s="9"/>
@@ -4347,11 +4347,11 @@
       <c r="CD26" s="9"/>
       <c r="CE26" s="9"/>
       <c r="CF26" s="10"/>
-      <c r="CG26" s="28"/>
+      <c r="CG26" s="122"/>
     </row>
     <row r="27" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="104"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="15"/>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
@@ -4370,14 +4370,14 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="33"/>
+      <c r="U27" s="126"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="127"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="128"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="9"/>
       <c r="AE27" s="9"/>
@@ -4434,11 +4434,11 @@
       <c r="CD27" s="9"/>
       <c r="CE27" s="9"/>
       <c r="CF27" s="10"/>
-      <c r="CG27" s="28"/>
+      <c r="CG27" s="122"/>
     </row>
     <row r="28" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="104"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="84"/>
       <c r="C28" s="15"/>
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
@@ -4457,14 +4457,14 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="33"/>
+      <c r="U28" s="126"/>
+      <c r="V28" s="127"/>
+      <c r="W28" s="127"/>
+      <c r="X28" s="127"/>
+      <c r="Y28" s="127"/>
+      <c r="Z28" s="127"/>
+      <c r="AA28" s="127"/>
+      <c r="AB28" s="128"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="9"/>
       <c r="AE28" s="9"/>
@@ -4521,11 +4521,11 @@
       <c r="CD28" s="9"/>
       <c r="CE28" s="9"/>
       <c r="CF28" s="10"/>
-      <c r="CG28" s="28"/>
+      <c r="CG28" s="122"/>
     </row>
     <row r="29" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="104"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="15"/>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
@@ -4544,14 +4544,14 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="33"/>
+      <c r="U29" s="126"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="127"/>
+      <c r="X29" s="127"/>
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="127"/>
+      <c r="AA29" s="127"/>
+      <c r="AB29" s="128"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="9"/>
       <c r="AE29" s="9"/>
@@ -4608,11 +4608,11 @@
       <c r="CD29" s="9"/>
       <c r="CE29" s="9"/>
       <c r="CF29" s="10"/>
-      <c r="CG29" s="28"/>
+      <c r="CG29" s="122"/>
     </row>
     <row r="30" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="104"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="15"/>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
@@ -4631,14 +4631,14 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="33"/>
+      <c r="U30" s="126"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="127"/>
+      <c r="X30" s="127"/>
+      <c r="Y30" s="127"/>
+      <c r="Z30" s="127"/>
+      <c r="AA30" s="127"/>
+      <c r="AB30" s="128"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="9"/>
       <c r="AE30" s="9"/>
@@ -4695,11 +4695,11 @@
       <c r="CD30" s="9"/>
       <c r="CE30" s="9"/>
       <c r="CF30" s="10"/>
-      <c r="CG30" s="28"/>
+      <c r="CG30" s="122"/>
     </row>
     <row r="31" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="104"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="15"/>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
@@ -4718,14 +4718,14 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="33"/>
+      <c r="U31" s="126"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="127"/>
+      <c r="X31" s="127"/>
+      <c r="Y31" s="127"/>
+      <c r="Z31" s="127"/>
+      <c r="AA31" s="127"/>
+      <c r="AB31" s="128"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="9"/>
       <c r="AE31" s="9"/>
@@ -4782,11 +4782,11 @@
       <c r="CD31" s="9"/>
       <c r="CE31" s="9"/>
       <c r="CF31" s="10"/>
-      <c r="CG31" s="28"/>
+      <c r="CG31" s="122"/>
     </row>
     <row r="32" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="104"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="15"/>
       <c r="D32" s="7"/>
       <c r="E32" s="8"/>
@@ -4805,14 +4805,14 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="33"/>
+      <c r="U32" s="126"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="Z32" s="127"/>
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="128"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="9"/>
       <c r="AE32" s="9"/>
@@ -4869,11 +4869,11 @@
       <c r="CD32" s="9"/>
       <c r="CE32" s="9"/>
       <c r="CF32" s="10"/>
-      <c r="CG32" s="28"/>
+      <c r="CG32" s="122"/>
     </row>
     <row r="33" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="104"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="15"/>
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
@@ -4892,14 +4892,14 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="33"/>
+      <c r="U33" s="126"/>
+      <c r="V33" s="127"/>
+      <c r="W33" s="127"/>
+      <c r="X33" s="127"/>
+      <c r="Y33" s="127"/>
+      <c r="Z33" s="127"/>
+      <c r="AA33" s="127"/>
+      <c r="AB33" s="128"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="9"/>
       <c r="AE33" s="9"/>
@@ -4956,11 +4956,11 @@
       <c r="CD33" s="9"/>
       <c r="CE33" s="9"/>
       <c r="CF33" s="10"/>
-      <c r="CG33" s="28"/>
+      <c r="CG33" s="122"/>
     </row>
     <row r="34" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="104"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="15"/>
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
@@ -4979,14 +4979,14 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="33"/>
+      <c r="U34" s="126"/>
+      <c r="V34" s="127"/>
+      <c r="W34" s="127"/>
+      <c r="X34" s="127"/>
+      <c r="Y34" s="127"/>
+      <c r="Z34" s="127"/>
+      <c r="AA34" s="127"/>
+      <c r="AB34" s="128"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="9"/>
       <c r="AE34" s="9"/>
@@ -5043,11 +5043,11 @@
       <c r="CD34" s="9"/>
       <c r="CE34" s="9"/>
       <c r="CF34" s="10"/>
-      <c r="CG34" s="28"/>
+      <c r="CG34" s="122"/>
     </row>
     <row r="35" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="104"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="15"/>
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
@@ -5066,14 +5066,14 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="33"/>
+      <c r="U35" s="126"/>
+      <c r="V35" s="127"/>
+      <c r="W35" s="127"/>
+      <c r="X35" s="127"/>
+      <c r="Y35" s="127"/>
+      <c r="Z35" s="127"/>
+      <c r="AA35" s="127"/>
+      <c r="AB35" s="128"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
@@ -5130,11 +5130,11 @@
       <c r="CD35" s="9"/>
       <c r="CE35" s="9"/>
       <c r="CF35" s="10"/>
-      <c r="CG35" s="28"/>
+      <c r="CG35" s="122"/>
     </row>
     <row r="36" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
-      <c r="B36" s="104"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="15"/>
       <c r="D36" s="7"/>
       <c r="E36" s="8"/>
@@ -5153,14 +5153,14 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="33"/>
+      <c r="U36" s="126"/>
+      <c r="V36" s="127"/>
+      <c r="W36" s="127"/>
+      <c r="X36" s="127"/>
+      <c r="Y36" s="127"/>
+      <c r="Z36" s="127"/>
+      <c r="AA36" s="127"/>
+      <c r="AB36" s="128"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -5217,11 +5217,11 @@
       <c r="CD36" s="9"/>
       <c r="CE36" s="9"/>
       <c r="CF36" s="10"/>
-      <c r="CG36" s="28"/>
+      <c r="CG36" s="122"/>
     </row>
     <row r="37" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="104"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="15"/>
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
@@ -5240,14 +5240,14 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="33"/>
+      <c r="U37" s="126"/>
+      <c r="V37" s="127"/>
+      <c r="W37" s="127"/>
+      <c r="X37" s="127"/>
+      <c r="Y37" s="127"/>
+      <c r="Z37" s="127"/>
+      <c r="AA37" s="127"/>
+      <c r="AB37" s="128"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -5304,11 +5304,11 @@
       <c r="CD37" s="9"/>
       <c r="CE37" s="9"/>
       <c r="CF37" s="10"/>
-      <c r="CG37" s="28"/>
+      <c r="CG37" s="122"/>
     </row>
     <row r="38" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
-      <c r="B38" s="104"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="15"/>
       <c r="D38" s="7"/>
       <c r="E38" s="8"/>
@@ -5327,14 +5327,14 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="33"/>
+      <c r="U38" s="126"/>
+      <c r="V38" s="127"/>
+      <c r="W38" s="127"/>
+      <c r="X38" s="127"/>
+      <c r="Y38" s="127"/>
+      <c r="Z38" s="127"/>
+      <c r="AA38" s="127"/>
+      <c r="AB38" s="128"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="9"/>
       <c r="AE38" s="9"/>
@@ -5391,11 +5391,11 @@
       <c r="CD38" s="9"/>
       <c r="CE38" s="9"/>
       <c r="CF38" s="10"/>
-      <c r="CG38" s="28"/>
+      <c r="CG38" s="122"/>
     </row>
     <row r="39" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A39" s="43"/>
-      <c r="B39" s="104"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="15"/>
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
@@ -5414,14 +5414,14 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="10"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="33"/>
+      <c r="U39" s="126"/>
+      <c r="V39" s="127"/>
+      <c r="W39" s="127"/>
+      <c r="X39" s="127"/>
+      <c r="Y39" s="127"/>
+      <c r="Z39" s="127"/>
+      <c r="AA39" s="127"/>
+      <c r="AB39" s="128"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="9"/>
       <c r="AE39" s="9"/>
@@ -5478,11 +5478,11 @@
       <c r="CD39" s="9"/>
       <c r="CE39" s="9"/>
       <c r="CF39" s="10"/>
-      <c r="CG39" s="28"/>
+      <c r="CG39" s="122"/>
     </row>
     <row r="40" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="105"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="16"/>
       <c r="D40" s="11"/>
       <c r="E40" s="12"/>
@@ -5501,14 +5501,14 @@
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
       <c r="T40" s="14"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="36"/>
+      <c r="U40" s="129"/>
+      <c r="V40" s="130"/>
+      <c r="W40" s="130"/>
+      <c r="X40" s="130"/>
+      <c r="Y40" s="130"/>
+      <c r="Z40" s="130"/>
+      <c r="AA40" s="130"/>
+      <c r="AB40" s="131"/>
       <c r="AC40" s="12"/>
       <c r="AD40" s="13"/>
       <c r="AE40" s="13"/>
@@ -5565,114 +5565,104 @@
       <c r="CD40" s="13"/>
       <c r="CE40" s="13"/>
       <c r="CF40" s="14"/>
-      <c r="CG40" s="28"/>
+      <c r="CG40" s="122"/>
     </row>
     <row r="41" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A41" s="106" t="s">
+      <c r="A41" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
-      <c r="T41" s="96"/>
-      <c r="U41" s="96"/>
-      <c r="V41" s="96"/>
-      <c r="W41" s="96"/>
-      <c r="X41" s="96"/>
-      <c r="Y41" s="96"/>
-      <c r="Z41" s="96"/>
-      <c r="AA41" s="96"/>
-      <c r="AB41" s="96"/>
-      <c r="AC41" s="96"/>
-      <c r="AD41" s="96"/>
-      <c r="AE41" s="96"/>
-      <c r="AF41" s="96"/>
-      <c r="AG41" s="96"/>
-      <c r="AH41" s="96"/>
-      <c r="AI41" s="96"/>
-      <c r="AJ41" s="96"/>
-      <c r="AK41" s="96"/>
-      <c r="AL41" s="96"/>
-      <c r="AM41" s="96"/>
-      <c r="AN41" s="96"/>
-      <c r="AO41" s="96"/>
-      <c r="AP41" s="96"/>
-      <c r="AQ41" s="96"/>
-      <c r="AR41" s="96"/>
-      <c r="AS41" s="96"/>
-      <c r="AT41" s="96"/>
-      <c r="AU41" s="96"/>
-      <c r="AV41" s="96"/>
-      <c r="AW41" s="96"/>
-      <c r="AX41" s="96"/>
-      <c r="AY41" s="96"/>
-      <c r="AZ41" s="96"/>
-      <c r="BA41" s="96"/>
-      <c r="BB41" s="96"/>
-      <c r="BC41" s="96"/>
-      <c r="BD41" s="96"/>
-      <c r="BE41" s="96"/>
-      <c r="BF41" s="96"/>
-      <c r="BG41" s="96"/>
-      <c r="BH41" s="96"/>
-      <c r="BI41" s="96"/>
-      <c r="BJ41" s="96"/>
-      <c r="BK41" s="96"/>
-      <c r="BL41" s="96"/>
-      <c r="BM41" s="96"/>
-      <c r="BN41" s="96"/>
-      <c r="BO41" s="96"/>
-      <c r="BP41" s="96"/>
-      <c r="BQ41" s="96"/>
-      <c r="BR41" s="96"/>
-      <c r="BS41" s="96"/>
-      <c r="BT41" s="96"/>
-      <c r="BU41" s="96"/>
-      <c r="BV41" s="96"/>
-      <c r="BW41" s="96"/>
-      <c r="BX41" s="96"/>
-      <c r="BY41" s="96"/>
-      <c r="BZ41" s="96"/>
-      <c r="CA41" s="96"/>
-      <c r="CB41" s="96"/>
-      <c r="CC41" s="96"/>
-      <c r="CD41" s="96"/>
-      <c r="CE41" s="96"/>
-      <c r="CF41" s="96"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="103"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="103"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="103"/>
+      <c r="Q41" s="103"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="103"/>
+      <c r="T41" s="103"/>
+      <c r="U41" s="103"/>
+      <c r="V41" s="103"/>
+      <c r="W41" s="103"/>
+      <c r="X41" s="103"/>
+      <c r="Y41" s="103"/>
+      <c r="Z41" s="103"/>
+      <c r="AA41" s="103"/>
+      <c r="AB41" s="103"/>
+      <c r="AC41" s="103"/>
+      <c r="AD41" s="103"/>
+      <c r="AE41" s="103"/>
+      <c r="AF41" s="103"/>
+      <c r="AG41" s="103"/>
+      <c r="AH41" s="103"/>
+      <c r="AI41" s="103"/>
+      <c r="AJ41" s="103"/>
+      <c r="AK41" s="103"/>
+      <c r="AL41" s="103"/>
+      <c r="AM41" s="103"/>
+      <c r="AN41" s="103"/>
+      <c r="AO41" s="103"/>
+      <c r="AP41" s="103"/>
+      <c r="AQ41" s="103"/>
+      <c r="AR41" s="103"/>
+      <c r="AS41" s="103"/>
+      <c r="AT41" s="103"/>
+      <c r="AU41" s="103"/>
+      <c r="AV41" s="103"/>
+      <c r="AW41" s="103"/>
+      <c r="AX41" s="103"/>
+      <c r="AY41" s="103"/>
+      <c r="AZ41" s="103"/>
+      <c r="BA41" s="103"/>
+      <c r="BB41" s="103"/>
+      <c r="BC41" s="103"/>
+      <c r="BD41" s="103"/>
+      <c r="BE41" s="103"/>
+      <c r="BF41" s="103"/>
+      <c r="BG41" s="103"/>
+      <c r="BH41" s="103"/>
+      <c r="BI41" s="103"/>
+      <c r="BJ41" s="103"/>
+      <c r="BK41" s="103"/>
+      <c r="BL41" s="103"/>
+      <c r="BM41" s="103"/>
+      <c r="BN41" s="103"/>
+      <c r="BO41" s="103"/>
+      <c r="BP41" s="103"/>
+      <c r="BQ41" s="103"/>
+      <c r="BR41" s="103"/>
+      <c r="BS41" s="103"/>
+      <c r="BT41" s="103"/>
+      <c r="BU41" s="103"/>
+      <c r="BV41" s="103"/>
+      <c r="BW41" s="103"/>
+      <c r="BX41" s="103"/>
+      <c r="BY41" s="103"/>
+      <c r="BZ41" s="103"/>
+      <c r="CA41" s="103"/>
+      <c r="CB41" s="103"/>
+      <c r="CC41" s="103"/>
+      <c r="CD41" s="103"/>
+      <c r="CE41" s="103"/>
+      <c r="CF41" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A41:CF41"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="CG4:CG40"/>
-    <mergeCell ref="U6:AB40"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="E2:AR3"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -5689,13 +5679,23 @@
     <mergeCell ref="BU4:BX4"/>
     <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="BY4:CB4"/>
+    <mergeCell ref="CG4:CG40"/>
+    <mergeCell ref="U6:AB40"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="CC4:CF4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="E2:AR3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A41:CF41"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="C6:C12 C14 C16 C18 C20:C40">
@@ -5724,26 +5724,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5956,28 +5936,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C334E08-C15B-4283-B082-739F59C9FCA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5994,4 +5973,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_Modele_PlanningJeudiVendredi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jonas_deillon_studentfr_ch/Documents/02.EMF/3.3eme annee/Module 306/306-G2-ArcadiaBox/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3879EC0-EAF9-4B00-B472-EC9DC4A46BDB}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC99079A-0F31-40D9-A50D-B91EA9CD61DE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -1164,83 +1164,63 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1284,64 +1264,84 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1400,13 +1400,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19842</xdr:colOff>
+      <xdr:colOff>19841</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
@@ -1423,8 +1423,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4287042" y="695325"/>
-          <a:ext cx="5809458" cy="5978128"/>
+          <a:off x="4287041" y="695325"/>
+          <a:ext cx="7285833" cy="5978128"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1483,6 +1483,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1839,7 +1843,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CK4" sqref="CK4"/>
+      <selection pane="bottomRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1855,10 +1859,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="102"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="1"/>
@@ -1903,313 +1907,313 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:85" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="145"/>
+      <c r="B2" s="110"/>
       <c r="C2" s="22"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="142"/>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="142"/>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="142"/>
-      <c r="AX2" s="142"/>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="142"/>
-      <c r="BB2" s="142"/>
-      <c r="BC2" s="142"/>
-      <c r="BD2" s="142"/>
-      <c r="BE2" s="142"/>
-      <c r="BF2" s="142"/>
-      <c r="BG2" s="142"/>
-      <c r="BH2" s="142"/>
-      <c r="BI2" s="142"/>
-      <c r="BJ2" s="142"/>
-      <c r="BK2" s="142"/>
-      <c r="BL2" s="142"/>
-      <c r="BM2" s="142"/>
-      <c r="BN2" s="142"/>
-      <c r="BO2" s="142"/>
-      <c r="BP2" s="142"/>
-      <c r="BQ2" s="142"/>
-      <c r="BR2" s="142"/>
-      <c r="BS2" s="142"/>
-      <c r="BT2" s="142"/>
-      <c r="BU2" s="142"/>
-      <c r="BV2" s="142"/>
-      <c r="BW2" s="142"/>
-      <c r="BX2" s="142"/>
-      <c r="BY2" s="142"/>
-      <c r="BZ2" s="142"/>
-      <c r="CA2" s="142"/>
-      <c r="CB2" s="142"/>
-      <c r="CC2" s="142"/>
-      <c r="CD2" s="142"/>
-      <c r="CE2" s="142"/>
-      <c r="CF2" s="142"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="107"/>
+      <c r="AR2" s="107"/>
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="107"/>
+      <c r="AW2" s="107"/>
+      <c r="AX2" s="107"/>
+      <c r="AY2" s="107"/>
+      <c r="AZ2" s="107"/>
+      <c r="BA2" s="107"/>
+      <c r="BB2" s="107"/>
+      <c r="BC2" s="107"/>
+      <c r="BD2" s="107"/>
+      <c r="BE2" s="107"/>
+      <c r="BF2" s="107"/>
+      <c r="BG2" s="107"/>
+      <c r="BH2" s="107"/>
+      <c r="BI2" s="107"/>
+      <c r="BJ2" s="107"/>
+      <c r="BK2" s="107"/>
+      <c r="BL2" s="107"/>
+      <c r="BM2" s="107"/>
+      <c r="BN2" s="107"/>
+      <c r="BO2" s="107"/>
+      <c r="BP2" s="107"/>
+      <c r="BQ2" s="107"/>
+      <c r="BR2" s="107"/>
+      <c r="BS2" s="107"/>
+      <c r="BT2" s="107"/>
+      <c r="BU2" s="107"/>
+      <c r="BV2" s="107"/>
+      <c r="BW2" s="107"/>
+      <c r="BX2" s="107"/>
+      <c r="BY2" s="107"/>
+      <c r="BZ2" s="107"/>
+      <c r="CA2" s="107"/>
+      <c r="CB2" s="107"/>
+      <c r="CC2" s="107"/>
+      <c r="CD2" s="107"/>
+      <c r="CE2" s="107"/>
+      <c r="CF2" s="107"/>
     </row>
     <row r="3" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="143"/>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="143"/>
-      <c r="AK3" s="143"/>
-      <c r="AL3" s="143"/>
-      <c r="AM3" s="143"/>
-      <c r="AN3" s="143"/>
-      <c r="AO3" s="143"/>
-      <c r="AP3" s="143"/>
-      <c r="AQ3" s="143"/>
-      <c r="AR3" s="143"/>
-      <c r="AS3" s="143"/>
-      <c r="AT3" s="143"/>
-      <c r="AU3" s="143"/>
-      <c r="AV3" s="143"/>
-      <c r="AW3" s="143"/>
-      <c r="AX3" s="143"/>
-      <c r="AY3" s="143"/>
-      <c r="AZ3" s="143"/>
-      <c r="BA3" s="143"/>
-      <c r="BB3" s="143"/>
-      <c r="BC3" s="143"/>
-      <c r="BD3" s="143"/>
-      <c r="BE3" s="143"/>
-      <c r="BF3" s="143"/>
-      <c r="BG3" s="143"/>
-      <c r="BH3" s="143"/>
-      <c r="BI3" s="143"/>
-      <c r="BJ3" s="143"/>
-      <c r="BK3" s="143"/>
-      <c r="BL3" s="143"/>
-      <c r="BM3" s="143"/>
-      <c r="BN3" s="143"/>
-      <c r="BO3" s="143"/>
-      <c r="BP3" s="143"/>
-      <c r="BQ3" s="143"/>
-      <c r="BR3" s="143"/>
-      <c r="BS3" s="143"/>
-      <c r="BT3" s="143"/>
-      <c r="BU3" s="143"/>
-      <c r="BV3" s="143"/>
-      <c r="BW3" s="143"/>
-      <c r="BX3" s="143"/>
-      <c r="BY3" s="143"/>
-      <c r="BZ3" s="143"/>
-      <c r="CA3" s="143"/>
-      <c r="CB3" s="143"/>
-      <c r="CC3" s="143"/>
-      <c r="CD3" s="143"/>
-      <c r="CE3" s="143"/>
-      <c r="CF3" s="143"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="108"/>
+      <c r="AP3" s="108"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="108"/>
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="108"/>
+      <c r="AW3" s="108"/>
+      <c r="AX3" s="108"/>
+      <c r="AY3" s="108"/>
+      <c r="AZ3" s="108"/>
+      <c r="BA3" s="108"/>
+      <c r="BB3" s="108"/>
+      <c r="BC3" s="108"/>
+      <c r="BD3" s="108"/>
+      <c r="BE3" s="108"/>
+      <c r="BF3" s="108"/>
+      <c r="BG3" s="108"/>
+      <c r="BH3" s="108"/>
+      <c r="BI3" s="108"/>
+      <c r="BJ3" s="108"/>
+      <c r="BK3" s="108"/>
+      <c r="BL3" s="108"/>
+      <c r="BM3" s="108"/>
+      <c r="BN3" s="108"/>
+      <c r="BO3" s="108"/>
+      <c r="BP3" s="108"/>
+      <c r="BQ3" s="108"/>
+      <c r="BR3" s="108"/>
+      <c r="BS3" s="108"/>
+      <c r="BT3" s="108"/>
+      <c r="BU3" s="108"/>
+      <c r="BV3" s="108"/>
+      <c r="BW3" s="108"/>
+      <c r="BX3" s="108"/>
+      <c r="BY3" s="108"/>
+      <c r="BZ3" s="108"/>
+      <c r="CA3" s="108"/>
+      <c r="CB3" s="108"/>
+      <c r="CC3" s="108"/>
+      <c r="CD3" s="108"/>
+      <c r="CE3" s="108"/>
+      <c r="CF3" s="108"/>
     </row>
     <row r="4" spans="1:85" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="137"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="132" t="s">
+      <c r="E4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="134">
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="103">
         <v>45995</v>
       </c>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="132" t="s">
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="134">
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="103">
         <v>45996</v>
       </c>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="132" t="s">
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="134">
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="103">
         <v>46002</v>
       </c>
-      <c r="Z4" s="134"/>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="135"/>
-      <c r="AC4" s="132" t="s">
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="133"/>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="134">
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="103">
         <v>46003</v>
       </c>
-      <c r="AH4" s="134"/>
-      <c r="AI4" s="134"/>
-      <c r="AJ4" s="135"/>
-      <c r="AK4" s="132" t="s">
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="133"/>
-      <c r="AM4" s="133"/>
-      <c r="AN4" s="133"/>
-      <c r="AO4" s="134">
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="103">
         <v>46009</v>
       </c>
-      <c r="AP4" s="134"/>
-      <c r="AQ4" s="134"/>
-      <c r="AR4" s="135"/>
-      <c r="AS4" s="132" t="s">
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="AT4" s="133"/>
-      <c r="AU4" s="133"/>
-      <c r="AV4" s="133"/>
-      <c r="AW4" s="134">
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="103">
         <v>46010</v>
       </c>
-      <c r="AX4" s="134"/>
-      <c r="AY4" s="134"/>
-      <c r="AZ4" s="135"/>
-      <c r="BA4" s="132" t="s">
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103"/>
+      <c r="AZ4" s="104"/>
+      <c r="BA4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="BB4" s="133"/>
-      <c r="BC4" s="133"/>
-      <c r="BD4" s="133"/>
-      <c r="BE4" s="134">
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="103">
         <v>46030</v>
       </c>
-      <c r="BF4" s="134"/>
-      <c r="BG4" s="134"/>
-      <c r="BH4" s="135"/>
-      <c r="BI4" s="132" t="s">
+      <c r="BF4" s="103"/>
+      <c r="BG4" s="103"/>
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="BJ4" s="133"/>
-      <c r="BK4" s="133"/>
-      <c r="BL4" s="133"/>
-      <c r="BM4" s="134">
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="103">
         <v>46031</v>
       </c>
-      <c r="BN4" s="134"/>
-      <c r="BO4" s="134"/>
-      <c r="BP4" s="135"/>
-      <c r="BQ4" s="132" t="s">
+      <c r="BN4" s="103"/>
+      <c r="BO4" s="103"/>
+      <c r="BP4" s="104"/>
+      <c r="BQ4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="BR4" s="133"/>
-      <c r="BS4" s="133"/>
-      <c r="BT4" s="133"/>
-      <c r="BU4" s="134">
+      <c r="BR4" s="106"/>
+      <c r="BS4" s="106"/>
+      <c r="BT4" s="106"/>
+      <c r="BU4" s="103">
         <v>46037</v>
       </c>
-      <c r="BV4" s="134"/>
-      <c r="BW4" s="134"/>
-      <c r="BX4" s="135"/>
-      <c r="BY4" s="132" t="s">
+      <c r="BV4" s="103"/>
+      <c r="BW4" s="103"/>
+      <c r="BX4" s="104"/>
+      <c r="BY4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="BZ4" s="133"/>
-      <c r="CA4" s="133"/>
-      <c r="CB4" s="133"/>
-      <c r="CC4" s="134">
+      <c r="BZ4" s="106"/>
+      <c r="CA4" s="106"/>
+      <c r="CB4" s="106"/>
+      <c r="CC4" s="103">
         <v>46038</v>
       </c>
-      <c r="CD4" s="134"/>
-      <c r="CE4" s="134"/>
-      <c r="CF4" s="135"/>
-      <c r="CG4" s="122" t="s">
+      <c r="CD4" s="103"/>
+      <c r="CE4" s="103"/>
+      <c r="CF4" s="104"/>
+      <c r="CG4" s="117" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="138"/>
-      <c r="B5" s="139"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="114"/>
       <c r="C5" s="18" t="s">
         <v>3</v>
       </c>
@@ -2456,10 +2460,10 @@
       <c r="CF5" s="6">
         <v>8</v>
       </c>
-      <c r="CG5" s="122"/>
+      <c r="CG5" s="117"/>
     </row>
     <row r="6" spans="1:85" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="115" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="77" t="s">
@@ -2485,16 +2489,16 @@
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
       <c r="T6" s="29"/>
-      <c r="U6" s="123" t="s">
+      <c r="U6" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
-      <c r="AB6" s="125"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="120"/>
       <c r="AC6" s="31"/>
       <c r="AD6" s="25"/>
       <c r="AE6" s="30"/>
@@ -2551,10 +2555,10 @@
       <c r="CD6" s="25"/>
       <c r="CE6" s="25"/>
       <c r="CF6" s="29"/>
-      <c r="CG6" s="122"/>
+      <c r="CG6" s="117"/>
     </row>
     <row r="7" spans="1:85" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="140"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="77" t="s">
         <v>16</v>
       </c>
@@ -2578,14 +2582,14 @@
       <c r="R7" s="36"/>
       <c r="S7" s="36"/>
       <c r="T7" s="37"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="128"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="122"/>
+      <c r="AB7" s="123"/>
       <c r="AC7" s="35"/>
       <c r="AD7" s="36"/>
       <c r="AE7" s="36"/>
@@ -2642,10 +2646,10 @@
       <c r="CD7" s="36"/>
       <c r="CE7" s="36"/>
       <c r="CF7" s="37"/>
-      <c r="CG7" s="122"/>
+      <c r="CG7" s="117"/>
     </row>
     <row r="8" spans="1:85" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="140"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="77" t="s">
         <v>17</v>
       </c>
@@ -2669,14 +2673,14 @@
       <c r="R8" s="36"/>
       <c r="S8" s="36"/>
       <c r="T8" s="37"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="128"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="122"/>
+      <c r="AB8" s="123"/>
       <c r="AC8" s="35"/>
       <c r="AD8" s="36"/>
       <c r="AE8" s="36"/>
@@ -2733,10 +2737,10 @@
       <c r="CD8" s="36"/>
       <c r="CE8" s="36"/>
       <c r="CF8" s="37"/>
-      <c r="CG8" s="122"/>
+      <c r="CG8" s="117"/>
     </row>
     <row r="9" spans="1:85" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="116" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="78" t="s">
@@ -2762,14 +2766,14 @@
       <c r="R9" s="52"/>
       <c r="S9" s="52"/>
       <c r="T9" s="53"/>
-      <c r="U9" s="126"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="128"/>
+      <c r="U9" s="121"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="123"/>
       <c r="AC9" s="52"/>
       <c r="AD9" s="52"/>
       <c r="AE9" s="41"/>
@@ -2826,10 +2830,10 @@
       <c r="CD9" s="41"/>
       <c r="CE9" s="41"/>
       <c r="CF9" s="42"/>
-      <c r="CG9" s="122"/>
+      <c r="CG9" s="117"/>
     </row>
     <row r="10" spans="1:85" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="141"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="78" t="s">
         <v>19</v>
       </c>
@@ -2853,14 +2857,14 @@
       <c r="R10" s="41"/>
       <c r="S10" s="41"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="126"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="128"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="122"/>
+      <c r="AB10" s="123"/>
       <c r="AC10" s="54"/>
       <c r="AD10" s="41"/>
       <c r="AE10" s="41"/>
@@ -2917,10 +2921,10 @@
       <c r="CD10" s="41"/>
       <c r="CE10" s="41"/>
       <c r="CF10" s="42"/>
-      <c r="CG10" s="122"/>
+      <c r="CG10" s="117"/>
     </row>
     <row r="11" spans="1:85" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="141"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="78" t="s">
         <v>20</v>
       </c>
@@ -2944,14 +2948,14 @@
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
       <c r="T11" s="42"/>
-      <c r="U11" s="126"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="127"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="128"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="122"/>
+      <c r="Y11" s="122"/>
+      <c r="Z11" s="122"/>
+      <c r="AA11" s="122"/>
+      <c r="AB11" s="123"/>
       <c r="AC11" s="40"/>
       <c r="AD11" s="41"/>
       <c r="AE11" s="52"/>
@@ -3008,16 +3012,16 @@
       <c r="CD11" s="41"/>
       <c r="CE11" s="41"/>
       <c r="CF11" s="42"/>
-      <c r="CG11" s="122"/>
+      <c r="CG11" s="117"/>
     </row>
     <row r="12" spans="1:85" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="133" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="131" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="44"/>
@@ -3037,14 +3041,14 @@
       <c r="R12" s="46"/>
       <c r="S12" s="46"/>
       <c r="T12" s="47"/>
-      <c r="U12" s="126"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="128"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="122"/>
+      <c r="AA12" s="122"/>
+      <c r="AB12" s="123"/>
       <c r="AC12" s="45"/>
       <c r="AD12" s="46"/>
       <c r="AE12" s="46"/>
@@ -3101,14 +3105,14 @@
       <c r="CD12" s="46"/>
       <c r="CE12" s="46"/>
       <c r="CF12" s="47"/>
-      <c r="CG12" s="122"/>
+      <c r="CG12" s="117"/>
     </row>
     <row r="13" spans="1:85" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="109"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="107"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="44"/>
       <c r="E13" s="45"/>
       <c r="F13" s="46"/>
@@ -3126,14 +3130,14 @@
       <c r="R13" s="46"/>
       <c r="S13" s="46"/>
       <c r="T13" s="47"/>
-      <c r="U13" s="126"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="128"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="122"/>
+      <c r="AB13" s="123"/>
       <c r="AC13" s="45"/>
       <c r="AD13" s="46"/>
       <c r="AE13" s="46"/>
@@ -3190,16 +3194,16 @@
       <c r="CD13" s="46"/>
       <c r="CE13" s="46"/>
       <c r="CF13" s="47"/>
-      <c r="CG13" s="122"/>
+      <c r="CG13" s="117"/>
     </row>
     <row r="14" spans="1:85" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="135" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="116"/>
+      <c r="C14" s="141"/>
       <c r="D14" s="55"/>
       <c r="E14" s="56"/>
       <c r="F14" s="57"/>
@@ -3217,14 +3221,14 @@
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
       <c r="T14" s="58"/>
-      <c r="U14" s="126"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="128"/>
+      <c r="U14" s="121"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="122"/>
+      <c r="AA14" s="122"/>
+      <c r="AB14" s="123"/>
       <c r="AC14" s="56"/>
       <c r="AD14" s="57"/>
       <c r="AE14" s="57"/>
@@ -3281,14 +3285,14 @@
       <c r="CD14" s="57"/>
       <c r="CE14" s="57"/>
       <c r="CF14" s="58"/>
-      <c r="CG14" s="122"/>
+      <c r="CG14" s="117"/>
     </row>
     <row r="15" spans="1:85" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="111"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="117"/>
+      <c r="C15" s="142"/>
       <c r="D15" s="55"/>
       <c r="E15" s="56"/>
       <c r="F15" s="57"/>
@@ -3306,14 +3310,14 @@
       <c r="R15" s="57"/>
       <c r="S15" s="57"/>
       <c r="T15" s="58"/>
-      <c r="U15" s="126"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="128"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="122"/>
+      <c r="W15" s="122"/>
+      <c r="X15" s="122"/>
+      <c r="Y15" s="122"/>
+      <c r="Z15" s="122"/>
+      <c r="AA15" s="122"/>
+      <c r="AB15" s="123"/>
       <c r="AC15" s="56"/>
       <c r="AD15" s="57"/>
       <c r="AE15" s="57"/>
@@ -3370,16 +3374,16 @@
       <c r="CD15" s="57"/>
       <c r="CE15" s="57"/>
       <c r="CF15" s="58"/>
-      <c r="CG15" s="122"/>
+      <c r="CG15" s="117"/>
     </row>
     <row r="16" spans="1:85" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="137" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="60"/>
       <c r="E16" s="61"/>
       <c r="F16" s="62"/>
@@ -3397,14 +3401,14 @@
       <c r="R16" s="62"/>
       <c r="S16" s="62"/>
       <c r="T16" s="63"/>
-      <c r="U16" s="126"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="128"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="122"/>
+      <c r="W16" s="122"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="122"/>
+      <c r="Z16" s="122"/>
+      <c r="AA16" s="122"/>
+      <c r="AB16" s="123"/>
       <c r="AC16" s="61"/>
       <c r="AD16" s="62"/>
       <c r="AE16" s="62"/>
@@ -3461,14 +3465,14 @@
       <c r="CD16" s="62"/>
       <c r="CE16" s="62"/>
       <c r="CF16" s="63"/>
-      <c r="CG16" s="122"/>
+      <c r="CG16" s="117"/>
     </row>
     <row r="17" spans="1:85" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="119"/>
+      <c r="C17" s="144"/>
       <c r="D17" s="60"/>
       <c r="E17" s="61"/>
       <c r="F17" s="62"/>
@@ -3486,14 +3490,14 @@
       <c r="R17" s="62"/>
       <c r="S17" s="62"/>
       <c r="T17" s="63"/>
-      <c r="U17" s="126"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="128"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="122"/>
+      <c r="W17" s="122"/>
+      <c r="X17" s="122"/>
+      <c r="Y17" s="122"/>
+      <c r="Z17" s="122"/>
+      <c r="AA17" s="122"/>
+      <c r="AB17" s="123"/>
       <c r="AC17" s="61"/>
       <c r="AD17" s="62"/>
       <c r="AE17" s="62"/>
@@ -3550,16 +3554,16 @@
       <c r="CD17" s="62"/>
       <c r="CE17" s="62"/>
       <c r="CF17" s="63"/>
-      <c r="CG17" s="122"/>
+      <c r="CG17" s="117"/>
     </row>
     <row r="18" spans="1:85" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="139" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="120"/>
+      <c r="C18" s="145"/>
       <c r="D18" s="65"/>
       <c r="E18" s="66"/>
       <c r="F18" s="67"/>
@@ -3577,14 +3581,14 @@
       <c r="R18" s="67"/>
       <c r="S18" s="67"/>
       <c r="T18" s="68"/>
-      <c r="U18" s="126"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="127"/>
-      <c r="AB18" s="128"/>
+      <c r="U18" s="121"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="122"/>
+      <c r="Z18" s="122"/>
+      <c r="AA18" s="122"/>
+      <c r="AB18" s="123"/>
       <c r="AC18" s="66"/>
       <c r="AD18" s="67"/>
       <c r="AE18" s="67"/>
@@ -3641,14 +3645,14 @@
       <c r="CD18" s="52"/>
       <c r="CE18" s="67"/>
       <c r="CF18" s="68"/>
-      <c r="CG18" s="122"/>
+      <c r="CG18" s="117"/>
     </row>
     <row r="19" spans="1:85" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="115"/>
+      <c r="A19" s="140"/>
       <c r="B19" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="121"/>
+      <c r="C19" s="146"/>
       <c r="D19" s="65"/>
       <c r="E19" s="66"/>
       <c r="F19" s="67"/>
@@ -3666,14 +3670,14 @@
       <c r="R19" s="67"/>
       <c r="S19" s="67"/>
       <c r="T19" s="68"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="127"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="128"/>
+      <c r="U19" s="121"/>
+      <c r="V19" s="122"/>
+      <c r="W19" s="122"/>
+      <c r="X19" s="122"/>
+      <c r="Y19" s="122"/>
+      <c r="Z19" s="122"/>
+      <c r="AA19" s="122"/>
+      <c r="AB19" s="123"/>
       <c r="AC19" s="66"/>
       <c r="AD19" s="67"/>
       <c r="AE19" s="67"/>
@@ -3730,10 +3734,10 @@
       <c r="CD19" s="52"/>
       <c r="CE19" s="67"/>
       <c r="CF19" s="68"/>
-      <c r="CG19" s="122"/>
+      <c r="CG19" s="117"/>
     </row>
     <row r="20" spans="1:85" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="129" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="83" t="s">
@@ -3757,14 +3761,14 @@
       <c r="R20" s="73"/>
       <c r="S20" s="73"/>
       <c r="T20" s="74"/>
-      <c r="U20" s="126"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="128"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="122"/>
+      <c r="AB20" s="123"/>
       <c r="AC20" s="72"/>
       <c r="AD20" s="73"/>
       <c r="AE20" s="73"/>
@@ -3821,10 +3825,10 @@
       <c r="CD20" s="73"/>
       <c r="CE20" s="52"/>
       <c r="CF20" s="53"/>
-      <c r="CG20" s="122"/>
+      <c r="CG20" s="117"/>
     </row>
     <row r="21" spans="1:85" s="92" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="105"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="86" t="s">
         <v>28</v>
       </c>
@@ -3846,14 +3850,14 @@
       <c r="R21" s="90"/>
       <c r="S21" s="90"/>
       <c r="T21" s="91"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="127"/>
-      <c r="W21" s="127"/>
-      <c r="X21" s="127"/>
-      <c r="Y21" s="127"/>
-      <c r="Z21" s="127"/>
-      <c r="AA21" s="127"/>
-      <c r="AB21" s="128"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="122"/>
+      <c r="X21" s="122"/>
+      <c r="Y21" s="122"/>
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="122"/>
+      <c r="AB21" s="123"/>
       <c r="AC21" s="89"/>
       <c r="AD21" s="90"/>
       <c r="AE21" s="90"/>
@@ -3910,7 +3914,7 @@
       <c r="CD21" s="90"/>
       <c r="CE21" s="90"/>
       <c r="CF21" s="91"/>
-      <c r="CG21" s="122"/>
+      <c r="CG21" s="117"/>
     </row>
     <row r="22" spans="1:85" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="93" t="s">
@@ -3935,14 +3939,14 @@
       <c r="R22" s="98"/>
       <c r="S22" s="98"/>
       <c r="T22" s="99"/>
-      <c r="U22" s="126"/>
-      <c r="V22" s="127"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="128"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="122"/>
+      <c r="W22" s="122"/>
+      <c r="X22" s="122"/>
+      <c r="Y22" s="122"/>
+      <c r="Z22" s="122"/>
+      <c r="AA22" s="122"/>
+      <c r="AB22" s="123"/>
       <c r="AC22" s="97"/>
       <c r="AD22" s="98"/>
       <c r="AE22" s="98"/>
@@ -3999,7 +4003,7 @@
       <c r="CD22" s="52"/>
       <c r="CE22" s="98"/>
       <c r="CF22" s="99"/>
-      <c r="CG22" s="122"/>
+      <c r="CG22" s="117"/>
     </row>
     <row r="23" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
@@ -4022,14 +4026,14 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="10"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="127"/>
-      <c r="W23" s="127"/>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="128"/>
+      <c r="U23" s="121"/>
+      <c r="V23" s="122"/>
+      <c r="W23" s="122"/>
+      <c r="X23" s="122"/>
+      <c r="Y23" s="122"/>
+      <c r="Z23" s="122"/>
+      <c r="AA23" s="122"/>
+      <c r="AB23" s="123"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="9"/>
       <c r="AE23" s="9"/>
@@ -4086,7 +4090,7 @@
       <c r="CD23" s="9"/>
       <c r="CE23" s="9"/>
       <c r="CF23" s="10"/>
-      <c r="CG23" s="122"/>
+      <c r="CG23" s="117"/>
     </row>
     <row r="24" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
@@ -4109,14 +4113,14 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="10"/>
-      <c r="U24" s="126"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="127"/>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="128"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="122"/>
+      <c r="W24" s="122"/>
+      <c r="X24" s="122"/>
+      <c r="Y24" s="122"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="122"/>
+      <c r="AB24" s="123"/>
       <c r="AC24" s="8"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="9"/>
@@ -4173,7 +4177,7 @@
       <c r="CD24" s="9"/>
       <c r="CE24" s="9"/>
       <c r="CF24" s="10"/>
-      <c r="CG24" s="122"/>
+      <c r="CG24" s="117"/>
     </row>
     <row r="25" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
@@ -4196,14 +4200,14 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="126"/>
-      <c r="V25" s="127"/>
-      <c r="W25" s="127"/>
-      <c r="X25" s="127"/>
-      <c r="Y25" s="127"/>
-      <c r="Z25" s="127"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="128"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="122"/>
+      <c r="W25" s="122"/>
+      <c r="X25" s="122"/>
+      <c r="Y25" s="122"/>
+      <c r="Z25" s="122"/>
+      <c r="AA25" s="122"/>
+      <c r="AB25" s="123"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9"/>
@@ -4260,7 +4264,7 @@
       <c r="CD25" s="9"/>
       <c r="CE25" s="9"/>
       <c r="CF25" s="10"/>
-      <c r="CG25" s="122"/>
+      <c r="CG25" s="117"/>
     </row>
     <row r="26" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A26" s="24"/>
@@ -4283,14 +4287,14 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="127"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="128"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="122"/>
+      <c r="W26" s="122"/>
+      <c r="X26" s="122"/>
+      <c r="Y26" s="122"/>
+      <c r="Z26" s="122"/>
+      <c r="AA26" s="122"/>
+      <c r="AB26" s="123"/>
       <c r="AC26" s="8"/>
       <c r="AD26" s="9"/>
       <c r="AE26" s="9"/>
@@ -4347,7 +4351,7 @@
       <c r="CD26" s="9"/>
       <c r="CE26" s="9"/>
       <c r="CF26" s="10"/>
-      <c r="CG26" s="122"/>
+      <c r="CG26" s="117"/>
     </row>
     <row r="27" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
@@ -4370,14 +4374,14 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="127"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="127"/>
-      <c r="Z27" s="127"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="128"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="122"/>
+      <c r="W27" s="122"/>
+      <c r="X27" s="122"/>
+      <c r="Y27" s="122"/>
+      <c r="Z27" s="122"/>
+      <c r="AA27" s="122"/>
+      <c r="AB27" s="123"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="9"/>
       <c r="AE27" s="9"/>
@@ -4434,7 +4438,7 @@
       <c r="CD27" s="9"/>
       <c r="CE27" s="9"/>
       <c r="CF27" s="10"/>
-      <c r="CG27" s="122"/>
+      <c r="CG27" s="117"/>
     </row>
     <row r="28" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
@@ -4457,14 +4461,14 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="126"/>
-      <c r="V28" s="127"/>
-      <c r="W28" s="127"/>
-      <c r="X28" s="127"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="127"/>
-      <c r="AB28" s="128"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="122"/>
+      <c r="W28" s="122"/>
+      <c r="X28" s="122"/>
+      <c r="Y28" s="122"/>
+      <c r="Z28" s="122"/>
+      <c r="AA28" s="122"/>
+      <c r="AB28" s="123"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="9"/>
       <c r="AE28" s="9"/>
@@ -4521,7 +4525,7 @@
       <c r="CD28" s="9"/>
       <c r="CE28" s="9"/>
       <c r="CF28" s="10"/>
-      <c r="CG28" s="122"/>
+      <c r="CG28" s="117"/>
     </row>
     <row r="29" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
@@ -4544,14 +4548,14 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="126"/>
-      <c r="V29" s="127"/>
-      <c r="W29" s="127"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="127"/>
-      <c r="Z29" s="127"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="128"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="122"/>
+      <c r="W29" s="122"/>
+      <c r="X29" s="122"/>
+      <c r="Y29" s="122"/>
+      <c r="Z29" s="122"/>
+      <c r="AA29" s="122"/>
+      <c r="AB29" s="123"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="9"/>
       <c r="AE29" s="9"/>
@@ -4608,7 +4612,7 @@
       <c r="CD29" s="9"/>
       <c r="CE29" s="9"/>
       <c r="CF29" s="10"/>
-      <c r="CG29" s="122"/>
+      <c r="CG29" s="117"/>
     </row>
     <row r="30" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
@@ -4631,14 +4635,14 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="126"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="127"/>
-      <c r="Z30" s="127"/>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="128"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="122"/>
+      <c r="W30" s="122"/>
+      <c r="X30" s="122"/>
+      <c r="Y30" s="122"/>
+      <c r="Z30" s="122"/>
+      <c r="AA30" s="122"/>
+      <c r="AB30" s="123"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="9"/>
       <c r="AE30" s="9"/>
@@ -4695,7 +4699,7 @@
       <c r="CD30" s="9"/>
       <c r="CE30" s="9"/>
       <c r="CF30" s="10"/>
-      <c r="CG30" s="122"/>
+      <c r="CG30" s="117"/>
     </row>
     <row r="31" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
@@ -4718,14 +4722,14 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="127"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="128"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="122"/>
+      <c r="X31" s="122"/>
+      <c r="Y31" s="122"/>
+      <c r="Z31" s="122"/>
+      <c r="AA31" s="122"/>
+      <c r="AB31" s="123"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="9"/>
       <c r="AE31" s="9"/>
@@ -4782,7 +4786,7 @@
       <c r="CD31" s="9"/>
       <c r="CE31" s="9"/>
       <c r="CF31" s="10"/>
-      <c r="CG31" s="122"/>
+      <c r="CG31" s="117"/>
     </row>
     <row r="32" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
@@ -4805,14 +4809,14 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="126"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="128"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="122"/>
+      <c r="W32" s="122"/>
+      <c r="X32" s="122"/>
+      <c r="Y32" s="122"/>
+      <c r="Z32" s="122"/>
+      <c r="AA32" s="122"/>
+      <c r="AB32" s="123"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="9"/>
       <c r="AE32" s="9"/>
@@ -4869,7 +4873,7 @@
       <c r="CD32" s="9"/>
       <c r="CE32" s="9"/>
       <c r="CF32" s="10"/>
-      <c r="CG32" s="122"/>
+      <c r="CG32" s="117"/>
     </row>
     <row r="33" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
@@ -4892,14 +4896,14 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="126"/>
-      <c r="V33" s="127"/>
-      <c r="W33" s="127"/>
-      <c r="X33" s="127"/>
-      <c r="Y33" s="127"/>
-      <c r="Z33" s="127"/>
-      <c r="AA33" s="127"/>
-      <c r="AB33" s="128"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="122"/>
+      <c r="W33" s="122"/>
+      <c r="X33" s="122"/>
+      <c r="Y33" s="122"/>
+      <c r="Z33" s="122"/>
+      <c r="AA33" s="122"/>
+      <c r="AB33" s="123"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="9"/>
       <c r="AE33" s="9"/>
@@ -4956,7 +4960,7 @@
       <c r="CD33" s="9"/>
       <c r="CE33" s="9"/>
       <c r="CF33" s="10"/>
-      <c r="CG33" s="122"/>
+      <c r="CG33" s="117"/>
     </row>
     <row r="34" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
@@ -4979,14 +4983,14 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="126"/>
-      <c r="V34" s="127"/>
-      <c r="W34" s="127"/>
-      <c r="X34" s="127"/>
-      <c r="Y34" s="127"/>
-      <c r="Z34" s="127"/>
-      <c r="AA34" s="127"/>
-      <c r="AB34" s="128"/>
+      <c r="U34" s="121"/>
+      <c r="V34" s="122"/>
+      <c r="W34" s="122"/>
+      <c r="X34" s="122"/>
+      <c r="Y34" s="122"/>
+      <c r="Z34" s="122"/>
+      <c r="AA34" s="122"/>
+      <c r="AB34" s="123"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="9"/>
       <c r="AE34" s="9"/>
@@ -5043,7 +5047,7 @@
       <c r="CD34" s="9"/>
       <c r="CE34" s="9"/>
       <c r="CF34" s="10"/>
-      <c r="CG34" s="122"/>
+      <c r="CG34" s="117"/>
     </row>
     <row r="35" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
@@ -5066,14 +5070,14 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="126"/>
-      <c r="V35" s="127"/>
-      <c r="W35" s="127"/>
-      <c r="X35" s="127"/>
-      <c r="Y35" s="127"/>
-      <c r="Z35" s="127"/>
-      <c r="AA35" s="127"/>
-      <c r="AB35" s="128"/>
+      <c r="U35" s="121"/>
+      <c r="V35" s="122"/>
+      <c r="W35" s="122"/>
+      <c r="X35" s="122"/>
+      <c r="Y35" s="122"/>
+      <c r="Z35" s="122"/>
+      <c r="AA35" s="122"/>
+      <c r="AB35" s="123"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
@@ -5130,7 +5134,7 @@
       <c r="CD35" s="9"/>
       <c r="CE35" s="9"/>
       <c r="CF35" s="10"/>
-      <c r="CG35" s="122"/>
+      <c r="CG35" s="117"/>
     </row>
     <row r="36" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
@@ -5153,14 +5157,14 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="126"/>
-      <c r="V36" s="127"/>
-      <c r="W36" s="127"/>
-      <c r="X36" s="127"/>
-      <c r="Y36" s="127"/>
-      <c r="Z36" s="127"/>
-      <c r="AA36" s="127"/>
-      <c r="AB36" s="128"/>
+      <c r="U36" s="121"/>
+      <c r="V36" s="122"/>
+      <c r="W36" s="122"/>
+      <c r="X36" s="122"/>
+      <c r="Y36" s="122"/>
+      <c r="Z36" s="122"/>
+      <c r="AA36" s="122"/>
+      <c r="AB36" s="123"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -5217,7 +5221,7 @@
       <c r="CD36" s="9"/>
       <c r="CE36" s="9"/>
       <c r="CF36" s="10"/>
-      <c r="CG36" s="122"/>
+      <c r="CG36" s="117"/>
     </row>
     <row r="37" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
@@ -5240,14 +5244,14 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="126"/>
-      <c r="V37" s="127"/>
-      <c r="W37" s="127"/>
-      <c r="X37" s="127"/>
-      <c r="Y37" s="127"/>
-      <c r="Z37" s="127"/>
-      <c r="AA37" s="127"/>
-      <c r="AB37" s="128"/>
+      <c r="U37" s="121"/>
+      <c r="V37" s="122"/>
+      <c r="W37" s="122"/>
+      <c r="X37" s="122"/>
+      <c r="Y37" s="122"/>
+      <c r="Z37" s="122"/>
+      <c r="AA37" s="122"/>
+      <c r="AB37" s="123"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -5304,7 +5308,7 @@
       <c r="CD37" s="9"/>
       <c r="CE37" s="9"/>
       <c r="CF37" s="10"/>
-      <c r="CG37" s="122"/>
+      <c r="CG37" s="117"/>
     </row>
     <row r="38" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A38" s="24"/>
@@ -5327,14 +5331,14 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="126"/>
-      <c r="V38" s="127"/>
-      <c r="W38" s="127"/>
-      <c r="X38" s="127"/>
-      <c r="Y38" s="127"/>
-      <c r="Z38" s="127"/>
-      <c r="AA38" s="127"/>
-      <c r="AB38" s="128"/>
+      <c r="U38" s="121"/>
+      <c r="V38" s="122"/>
+      <c r="W38" s="122"/>
+      <c r="X38" s="122"/>
+      <c r="Y38" s="122"/>
+      <c r="Z38" s="122"/>
+      <c r="AA38" s="122"/>
+      <c r="AB38" s="123"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="9"/>
       <c r="AE38" s="9"/>
@@ -5391,7 +5395,7 @@
       <c r="CD38" s="9"/>
       <c r="CE38" s="9"/>
       <c r="CF38" s="10"/>
-      <c r="CG38" s="122"/>
+      <c r="CG38" s="117"/>
     </row>
     <row r="39" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
@@ -5414,14 +5418,14 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="10"/>
-      <c r="U39" s="126"/>
-      <c r="V39" s="127"/>
-      <c r="W39" s="127"/>
-      <c r="X39" s="127"/>
-      <c r="Y39" s="127"/>
-      <c r="Z39" s="127"/>
-      <c r="AA39" s="127"/>
-      <c r="AB39" s="128"/>
+      <c r="U39" s="121"/>
+      <c r="V39" s="122"/>
+      <c r="W39" s="122"/>
+      <c r="X39" s="122"/>
+      <c r="Y39" s="122"/>
+      <c r="Z39" s="122"/>
+      <c r="AA39" s="122"/>
+      <c r="AB39" s="123"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="9"/>
       <c r="AE39" s="9"/>
@@ -5478,7 +5482,7 @@
       <c r="CD39" s="9"/>
       <c r="CE39" s="9"/>
       <c r="CF39" s="10"/>
-      <c r="CG39" s="122"/>
+      <c r="CG39" s="117"/>
     </row>
     <row r="40" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
@@ -5501,14 +5505,14 @@
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
       <c r="T40" s="14"/>
-      <c r="U40" s="129"/>
-      <c r="V40" s="130"/>
-      <c r="W40" s="130"/>
-      <c r="X40" s="130"/>
-      <c r="Y40" s="130"/>
-      <c r="Z40" s="130"/>
-      <c r="AA40" s="130"/>
-      <c r="AB40" s="131"/>
+      <c r="U40" s="124"/>
+      <c r="V40" s="125"/>
+      <c r="W40" s="125"/>
+      <c r="X40" s="125"/>
+      <c r="Y40" s="125"/>
+      <c r="Z40" s="125"/>
+      <c r="AA40" s="125"/>
+      <c r="AB40" s="126"/>
       <c r="AC40" s="12"/>
       <c r="AD40" s="13"/>
       <c r="AE40" s="13"/>
@@ -5565,105 +5569,115 @@
       <c r="CD40" s="13"/>
       <c r="CE40" s="13"/>
       <c r="CF40" s="14"/>
-      <c r="CG40" s="122"/>
+      <c r="CG40" s="117"/>
     </row>
     <row r="41" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A41" s="102" t="s">
+      <c r="A41" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-      <c r="M41" s="103"/>
-      <c r="N41" s="103"/>
-      <c r="O41" s="103"/>
-      <c r="P41" s="103"/>
-      <c r="Q41" s="103"/>
-      <c r="R41" s="103"/>
-      <c r="S41" s="103"/>
-      <c r="T41" s="103"/>
-      <c r="U41" s="103"/>
-      <c r="V41" s="103"/>
-      <c r="W41" s="103"/>
-      <c r="X41" s="103"/>
-      <c r="Y41" s="103"/>
-      <c r="Z41" s="103"/>
-      <c r="AA41" s="103"/>
-      <c r="AB41" s="103"/>
-      <c r="AC41" s="103"/>
-      <c r="AD41" s="103"/>
-      <c r="AE41" s="103"/>
-      <c r="AF41" s="103"/>
-      <c r="AG41" s="103"/>
-      <c r="AH41" s="103"/>
-      <c r="AI41" s="103"/>
-      <c r="AJ41" s="103"/>
-      <c r="AK41" s="103"/>
-      <c r="AL41" s="103"/>
-      <c r="AM41" s="103"/>
-      <c r="AN41" s="103"/>
-      <c r="AO41" s="103"/>
-      <c r="AP41" s="103"/>
-      <c r="AQ41" s="103"/>
-      <c r="AR41" s="103"/>
-      <c r="AS41" s="103"/>
-      <c r="AT41" s="103"/>
-      <c r="AU41" s="103"/>
-      <c r="AV41" s="103"/>
-      <c r="AW41" s="103"/>
-      <c r="AX41" s="103"/>
-      <c r="AY41" s="103"/>
-      <c r="AZ41" s="103"/>
-      <c r="BA41" s="103"/>
-      <c r="BB41" s="103"/>
-      <c r="BC41" s="103"/>
-      <c r="BD41" s="103"/>
-      <c r="BE41" s="103"/>
-      <c r="BF41" s="103"/>
-      <c r="BG41" s="103"/>
-      <c r="BH41" s="103"/>
-      <c r="BI41" s="103"/>
-      <c r="BJ41" s="103"/>
-      <c r="BK41" s="103"/>
-      <c r="BL41" s="103"/>
-      <c r="BM41" s="103"/>
-      <c r="BN41" s="103"/>
-      <c r="BO41" s="103"/>
-      <c r="BP41" s="103"/>
-      <c r="BQ41" s="103"/>
-      <c r="BR41" s="103"/>
-      <c r="BS41" s="103"/>
-      <c r="BT41" s="103"/>
-      <c r="BU41" s="103"/>
-      <c r="BV41" s="103"/>
-      <c r="BW41" s="103"/>
-      <c r="BX41" s="103"/>
-      <c r="BY41" s="103"/>
-      <c r="BZ41" s="103"/>
-      <c r="CA41" s="103"/>
-      <c r="CB41" s="103"/>
-      <c r="CC41" s="103"/>
-      <c r="CD41" s="103"/>
-      <c r="CE41" s="103"/>
-      <c r="CF41" s="103"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
+      <c r="M41" s="128"/>
+      <c r="N41" s="128"/>
+      <c r="O41" s="128"/>
+      <c r="P41" s="128"/>
+      <c r="Q41" s="128"/>
+      <c r="R41" s="128"/>
+      <c r="S41" s="128"/>
+      <c r="T41" s="128"/>
+      <c r="U41" s="128"/>
+      <c r="V41" s="128"/>
+      <c r="W41" s="128"/>
+      <c r="X41" s="128"/>
+      <c r="Y41" s="128"/>
+      <c r="Z41" s="128"/>
+      <c r="AA41" s="128"/>
+      <c r="AB41" s="128"/>
+      <c r="AC41" s="128"/>
+      <c r="AD41" s="128"/>
+      <c r="AE41" s="128"/>
+      <c r="AF41" s="128"/>
+      <c r="AG41" s="128"/>
+      <c r="AH41" s="128"/>
+      <c r="AI41" s="128"/>
+      <c r="AJ41" s="128"/>
+      <c r="AK41" s="128"/>
+      <c r="AL41" s="128"/>
+      <c r="AM41" s="128"/>
+      <c r="AN41" s="128"/>
+      <c r="AO41" s="128"/>
+      <c r="AP41" s="128"/>
+      <c r="AQ41" s="128"/>
+      <c r="AR41" s="128"/>
+      <c r="AS41" s="128"/>
+      <c r="AT41" s="128"/>
+      <c r="AU41" s="128"/>
+      <c r="AV41" s="128"/>
+      <c r="AW41" s="128"/>
+      <c r="AX41" s="128"/>
+      <c r="AY41" s="128"/>
+      <c r="AZ41" s="128"/>
+      <c r="BA41" s="128"/>
+      <c r="BB41" s="128"/>
+      <c r="BC41" s="128"/>
+      <c r="BD41" s="128"/>
+      <c r="BE41" s="128"/>
+      <c r="BF41" s="128"/>
+      <c r="BG41" s="128"/>
+      <c r="BH41" s="128"/>
+      <c r="BI41" s="128"/>
+      <c r="BJ41" s="128"/>
+      <c r="BK41" s="128"/>
+      <c r="BL41" s="128"/>
+      <c r="BM41" s="128"/>
+      <c r="BN41" s="128"/>
+      <c r="BO41" s="128"/>
+      <c r="BP41" s="128"/>
+      <c r="BQ41" s="128"/>
+      <c r="BR41" s="128"/>
+      <c r="BS41" s="128"/>
+      <c r="BT41" s="128"/>
+      <c r="BU41" s="128"/>
+      <c r="BV41" s="128"/>
+      <c r="BW41" s="128"/>
+      <c r="BX41" s="128"/>
+      <c r="BY41" s="128"/>
+      <c r="BZ41" s="128"/>
+      <c r="CA41" s="128"/>
+      <c r="CB41" s="128"/>
+      <c r="CC41" s="128"/>
+      <c r="CD41" s="128"/>
+      <c r="CE41" s="128"/>
+      <c r="CF41" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="E2:AR3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A41:CF41"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="CG4:CG40"/>
+    <mergeCell ref="U6:AB40"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="CC4:CF4"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="AS2:CF3"/>
@@ -5679,23 +5693,13 @@
     <mergeCell ref="BU4:BX4"/>
     <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="BY4:CB4"/>
-    <mergeCell ref="CG4:CG40"/>
-    <mergeCell ref="U6:AB40"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="CC4:CF4"/>
-    <mergeCell ref="A41:CF41"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="E2:AR3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B5"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="C6:C12 C14 C16 C18 C20:C40">
@@ -5724,6 +5728,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5936,27 +5960,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C334E08-C15B-4283-B082-739F59C9FCA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5973,25 +5998,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_Modele_PlanningJeudiVendredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC99079A-0F31-40D9-A50D-B91EA9CD61DE}"/>
+  <xr:revisionPtr revIDLastSave="313" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEBE2F97-ABE7-47E8-9C09-5C23994853A5}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1164,34 +1164,162 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1213,134 +1341,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1405,8 +1405,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
@@ -1423,8 +1423,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4287041" y="695325"/>
-          <a:ext cx="7285833" cy="5978128"/>
+          <a:off x="4285384" y="704022"/>
+          <a:ext cx="8453268" cy="6104023"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1839,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="AJ6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" sqref="A1:B1"/>
@@ -1859,10 +1859,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="102"/>
+      <c r="B1" s="140"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="1"/>
@@ -1907,313 +1907,313 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:85" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="110"/>
+      <c r="B2" s="142"/>
       <c r="C2" s="22"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="107"/>
-      <c r="AR2" s="107"/>
-      <c r="AS2" s="107"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="107"/>
-      <c r="BA2" s="107"/>
-      <c r="BB2" s="107"/>
-      <c r="BC2" s="107"/>
-      <c r="BD2" s="107"/>
-      <c r="BE2" s="107"/>
-      <c r="BF2" s="107"/>
-      <c r="BG2" s="107"/>
-      <c r="BH2" s="107"/>
-      <c r="BI2" s="107"/>
-      <c r="BJ2" s="107"/>
-      <c r="BK2" s="107"/>
-      <c r="BL2" s="107"/>
-      <c r="BM2" s="107"/>
-      <c r="BN2" s="107"/>
-      <c r="BO2" s="107"/>
-      <c r="BP2" s="107"/>
-      <c r="BQ2" s="107"/>
-      <c r="BR2" s="107"/>
-      <c r="BS2" s="107"/>
-      <c r="BT2" s="107"/>
-      <c r="BU2" s="107"/>
-      <c r="BV2" s="107"/>
-      <c r="BW2" s="107"/>
-      <c r="BX2" s="107"/>
-      <c r="BY2" s="107"/>
-      <c r="BZ2" s="107"/>
-      <c r="CA2" s="107"/>
-      <c r="CB2" s="107"/>
-      <c r="CC2" s="107"/>
-      <c r="CD2" s="107"/>
-      <c r="CE2" s="107"/>
-      <c r="CF2" s="107"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
+      <c r="BB2" s="138"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BG2" s="138"/>
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="138"/>
+      <c r="BK2" s="138"/>
+      <c r="BL2" s="138"/>
+      <c r="BM2" s="138"/>
+      <c r="BN2" s="138"/>
+      <c r="BO2" s="138"/>
+      <c r="BP2" s="138"/>
+      <c r="BQ2" s="138"/>
+      <c r="BR2" s="138"/>
+      <c r="BS2" s="138"/>
+      <c r="BT2" s="138"/>
+      <c r="BU2" s="138"/>
+      <c r="BV2" s="138"/>
+      <c r="BW2" s="138"/>
+      <c r="BX2" s="138"/>
+      <c r="BY2" s="138"/>
+      <c r="BZ2" s="138"/>
+      <c r="CA2" s="138"/>
+      <c r="CB2" s="138"/>
+      <c r="CC2" s="138"/>
+      <c r="CD2" s="138"/>
+      <c r="CE2" s="138"/>
+      <c r="CF2" s="138"/>
     </row>
     <row r="3" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108"/>
-      <c r="AQ3" s="108"/>
-      <c r="AR3" s="108"/>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="108"/>
-      <c r="AU3" s="108"/>
-      <c r="AV3" s="108"/>
-      <c r="AW3" s="108"/>
-      <c r="AX3" s="108"/>
-      <c r="AY3" s="108"/>
-      <c r="AZ3" s="108"/>
-      <c r="BA3" s="108"/>
-      <c r="BB3" s="108"/>
-      <c r="BC3" s="108"/>
-      <c r="BD3" s="108"/>
-      <c r="BE3" s="108"/>
-      <c r="BF3" s="108"/>
-      <c r="BG3" s="108"/>
-      <c r="BH3" s="108"/>
-      <c r="BI3" s="108"/>
-      <c r="BJ3" s="108"/>
-      <c r="BK3" s="108"/>
-      <c r="BL3" s="108"/>
-      <c r="BM3" s="108"/>
-      <c r="BN3" s="108"/>
-      <c r="BO3" s="108"/>
-      <c r="BP3" s="108"/>
-      <c r="BQ3" s="108"/>
-      <c r="BR3" s="108"/>
-      <c r="BS3" s="108"/>
-      <c r="BT3" s="108"/>
-      <c r="BU3" s="108"/>
-      <c r="BV3" s="108"/>
-      <c r="BW3" s="108"/>
-      <c r="BX3" s="108"/>
-      <c r="BY3" s="108"/>
-      <c r="BZ3" s="108"/>
-      <c r="CA3" s="108"/>
-      <c r="CB3" s="108"/>
-      <c r="CC3" s="108"/>
-      <c r="CD3" s="108"/>
-      <c r="CE3" s="108"/>
-      <c r="CF3" s="108"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="139"/>
+      <c r="AD3" s="139"/>
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="139"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="139"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="139"/>
+      <c r="AL3" s="139"/>
+      <c r="AM3" s="139"/>
+      <c r="AN3" s="139"/>
+      <c r="AO3" s="139"/>
+      <c r="AP3" s="139"/>
+      <c r="AQ3" s="139"/>
+      <c r="AR3" s="139"/>
+      <c r="AS3" s="139"/>
+      <c r="AT3" s="139"/>
+      <c r="AU3" s="139"/>
+      <c r="AV3" s="139"/>
+      <c r="AW3" s="139"/>
+      <c r="AX3" s="139"/>
+      <c r="AY3" s="139"/>
+      <c r="AZ3" s="139"/>
+      <c r="BA3" s="139"/>
+      <c r="BB3" s="139"/>
+      <c r="BC3" s="139"/>
+      <c r="BD3" s="139"/>
+      <c r="BE3" s="139"/>
+      <c r="BF3" s="139"/>
+      <c r="BG3" s="139"/>
+      <c r="BH3" s="139"/>
+      <c r="BI3" s="139"/>
+      <c r="BJ3" s="139"/>
+      <c r="BK3" s="139"/>
+      <c r="BL3" s="139"/>
+      <c r="BM3" s="139"/>
+      <c r="BN3" s="139"/>
+      <c r="BO3" s="139"/>
+      <c r="BP3" s="139"/>
+      <c r="BQ3" s="139"/>
+      <c r="BR3" s="139"/>
+      <c r="BS3" s="139"/>
+      <c r="BT3" s="139"/>
+      <c r="BU3" s="139"/>
+      <c r="BV3" s="139"/>
+      <c r="BW3" s="139"/>
+      <c r="BX3" s="139"/>
+      <c r="BY3" s="139"/>
+      <c r="BZ3" s="139"/>
+      <c r="CA3" s="139"/>
+      <c r="CB3" s="139"/>
+      <c r="CC3" s="139"/>
+      <c r="CD3" s="139"/>
+      <c r="CE3" s="139"/>
+      <c r="CF3" s="139"/>
     </row>
     <row r="4" spans="1:85" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="144"/>
       <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="103">
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="134">
         <v>45995</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="105" t="s">
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="103">
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="134">
         <v>45996</v>
       </c>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="105" t="s">
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="135"/>
+      <c r="U4" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="103">
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="134">
         <v>46002</v>
       </c>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="105" t="s">
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="135"/>
+      <c r="AC4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="103">
+      <c r="AD4" s="133"/>
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="134">
         <v>46003</v>
       </c>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="105" t="s">
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="134"/>
+      <c r="AJ4" s="135"/>
+      <c r="AK4" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="103">
+      <c r="AL4" s="133"/>
+      <c r="AM4" s="133"/>
+      <c r="AN4" s="133"/>
+      <c r="AO4" s="134">
         <v>46009</v>
       </c>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="105" t="s">
+      <c r="AP4" s="134"/>
+      <c r="AQ4" s="134"/>
+      <c r="AR4" s="135"/>
+      <c r="AS4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="103">
+      <c r="AT4" s="133"/>
+      <c r="AU4" s="133"/>
+      <c r="AV4" s="133"/>
+      <c r="AW4" s="134">
         <v>46010</v>
       </c>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="105" t="s">
+      <c r="AX4" s="134"/>
+      <c r="AY4" s="134"/>
+      <c r="AZ4" s="135"/>
+      <c r="BA4" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="103">
+      <c r="BB4" s="133"/>
+      <c r="BC4" s="133"/>
+      <c r="BD4" s="133"/>
+      <c r="BE4" s="134">
         <v>46030</v>
       </c>
-      <c r="BF4" s="103"/>
-      <c r="BG4" s="103"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="105" t="s">
+      <c r="BF4" s="134"/>
+      <c r="BG4" s="134"/>
+      <c r="BH4" s="135"/>
+      <c r="BI4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="103">
+      <c r="BJ4" s="133"/>
+      <c r="BK4" s="133"/>
+      <c r="BL4" s="133"/>
+      <c r="BM4" s="134">
         <v>46031</v>
       </c>
-      <c r="BN4" s="103"/>
-      <c r="BO4" s="103"/>
-      <c r="BP4" s="104"/>
-      <c r="BQ4" s="105" t="s">
+      <c r="BN4" s="134"/>
+      <c r="BO4" s="134"/>
+      <c r="BP4" s="135"/>
+      <c r="BQ4" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="BR4" s="106"/>
-      <c r="BS4" s="106"/>
-      <c r="BT4" s="106"/>
-      <c r="BU4" s="103">
+      <c r="BR4" s="133"/>
+      <c r="BS4" s="133"/>
+      <c r="BT4" s="133"/>
+      <c r="BU4" s="134">
         <v>46037</v>
       </c>
-      <c r="BV4" s="103"/>
-      <c r="BW4" s="103"/>
-      <c r="BX4" s="104"/>
-      <c r="BY4" s="105" t="s">
+      <c r="BV4" s="134"/>
+      <c r="BW4" s="134"/>
+      <c r="BX4" s="135"/>
+      <c r="BY4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="BZ4" s="106"/>
-      <c r="CA4" s="106"/>
-      <c r="CB4" s="106"/>
-      <c r="CC4" s="103">
+      <c r="BZ4" s="133"/>
+      <c r="CA4" s="133"/>
+      <c r="CB4" s="133"/>
+      <c r="CC4" s="134">
         <v>46038</v>
       </c>
-      <c r="CD4" s="103"/>
-      <c r="CE4" s="103"/>
-      <c r="CF4" s="104"/>
-      <c r="CG4" s="117" t="s">
+      <c r="CD4" s="134"/>
+      <c r="CE4" s="134"/>
+      <c r="CF4" s="135"/>
+      <c r="CG4" s="122" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
-      <c r="B5" s="114"/>
+      <c r="A5" s="145"/>
+      <c r="B5" s="146"/>
       <c r="C5" s="18" t="s">
         <v>3</v>
       </c>
@@ -2460,10 +2460,10 @@
       <c r="CF5" s="6">
         <v>8</v>
       </c>
-      <c r="CG5" s="117"/>
+      <c r="CG5" s="122"/>
     </row>
     <row r="6" spans="1:85" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="136" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="77" t="s">
@@ -2489,16 +2489,16 @@
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
       <c r="T6" s="29"/>
-      <c r="U6" s="118" t="s">
+      <c r="U6" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="120"/>
+      <c r="V6" s="124"/>
+      <c r="W6" s="124"/>
+      <c r="X6" s="124"/>
+      <c r="Y6" s="124"/>
+      <c r="Z6" s="124"/>
+      <c r="AA6" s="124"/>
+      <c r="AB6" s="125"/>
       <c r="AC6" s="31"/>
       <c r="AD6" s="25"/>
       <c r="AE6" s="30"/>
@@ -2555,10 +2555,10 @@
       <c r="CD6" s="25"/>
       <c r="CE6" s="25"/>
       <c r="CF6" s="29"/>
-      <c r="CG6" s="117"/>
+      <c r="CG6" s="122"/>
     </row>
     <row r="7" spans="1:85" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="115"/>
+      <c r="A7" s="136"/>
       <c r="B7" s="77" t="s">
         <v>16</v>
       </c>
@@ -2582,14 +2582,14 @@
       <c r="R7" s="36"/>
       <c r="S7" s="36"/>
       <c r="T7" s="37"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="123"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="128"/>
       <c r="AC7" s="35"/>
       <c r="AD7" s="36"/>
       <c r="AE7" s="36"/>
@@ -2646,10 +2646,10 @@
       <c r="CD7" s="36"/>
       <c r="CE7" s="36"/>
       <c r="CF7" s="37"/>
-      <c r="CG7" s="117"/>
+      <c r="CG7" s="122"/>
     </row>
     <row r="8" spans="1:85" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="115"/>
+      <c r="A8" s="136"/>
       <c r="B8" s="77" t="s">
         <v>17</v>
       </c>
@@ -2673,14 +2673,14 @@
       <c r="R8" s="36"/>
       <c r="S8" s="36"/>
       <c r="T8" s="37"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="122"/>
-      <c r="W8" s="122"/>
-      <c r="X8" s="122"/>
-      <c r="Y8" s="122"/>
-      <c r="Z8" s="122"/>
-      <c r="AA8" s="122"/>
-      <c r="AB8" s="123"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="127"/>
+      <c r="Y8" s="127"/>
+      <c r="Z8" s="127"/>
+      <c r="AA8" s="127"/>
+      <c r="AB8" s="128"/>
       <c r="AC8" s="35"/>
       <c r="AD8" s="36"/>
       <c r="AE8" s="36"/>
@@ -2737,10 +2737,10 @@
       <c r="CD8" s="36"/>
       <c r="CE8" s="36"/>
       <c r="CF8" s="37"/>
-      <c r="CG8" s="117"/>
+      <c r="CG8" s="122"/>
     </row>
     <row r="9" spans="1:85" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="137" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="78" t="s">
@@ -2766,14 +2766,14 @@
       <c r="R9" s="52"/>
       <c r="S9" s="52"/>
       <c r="T9" s="53"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="123"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="128"/>
       <c r="AC9" s="52"/>
       <c r="AD9" s="52"/>
       <c r="AE9" s="41"/>
@@ -2830,10 +2830,10 @@
       <c r="CD9" s="41"/>
       <c r="CE9" s="41"/>
       <c r="CF9" s="42"/>
-      <c r="CG9" s="117"/>
+      <c r="CG9" s="122"/>
     </row>
     <row r="10" spans="1:85" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="78" t="s">
         <v>19</v>
       </c>
@@ -2857,14 +2857,14 @@
       <c r="R10" s="41"/>
       <c r="S10" s="41"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="122"/>
-      <c r="AB10" s="123"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="128"/>
       <c r="AC10" s="54"/>
       <c r="AD10" s="41"/>
       <c r="AE10" s="41"/>
@@ -2921,10 +2921,10 @@
       <c r="CD10" s="41"/>
       <c r="CE10" s="41"/>
       <c r="CF10" s="42"/>
-      <c r="CG10" s="117"/>
+      <c r="CG10" s="122"/>
     </row>
     <row r="11" spans="1:85" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="116"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="78" t="s">
         <v>20</v>
       </c>
@@ -2948,14 +2948,14 @@
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
       <c r="T11" s="42"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="122"/>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="122"/>
-      <c r="AA11" s="122"/>
-      <c r="AB11" s="123"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="128"/>
       <c r="AC11" s="40"/>
       <c r="AD11" s="41"/>
       <c r="AE11" s="52"/>
@@ -3012,16 +3012,16 @@
       <c r="CD11" s="41"/>
       <c r="CE11" s="41"/>
       <c r="CF11" s="42"/>
-      <c r="CG11" s="117"/>
+      <c r="CG11" s="122"/>
     </row>
     <row r="12" spans="1:85" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="108" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="106" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="44"/>
@@ -3041,14 +3041,14 @@
       <c r="R12" s="46"/>
       <c r="S12" s="46"/>
       <c r="T12" s="47"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="122"/>
-      <c r="AA12" s="122"/>
-      <c r="AB12" s="123"/>
+      <c r="U12" s="126"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="127"/>
+      <c r="AA12" s="127"/>
+      <c r="AB12" s="128"/>
       <c r="AC12" s="45"/>
       <c r="AD12" s="46"/>
       <c r="AE12" s="46"/>
@@ -3105,14 +3105,14 @@
       <c r="CD12" s="46"/>
       <c r="CE12" s="46"/>
       <c r="CF12" s="47"/>
-      <c r="CG12" s="117"/>
+      <c r="CG12" s="122"/>
     </row>
     <row r="13" spans="1:85" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="134"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="132"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="44"/>
       <c r="E13" s="45"/>
       <c r="F13" s="46"/>
@@ -3130,14 +3130,14 @@
       <c r="R13" s="46"/>
       <c r="S13" s="46"/>
       <c r="T13" s="47"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="123"/>
+      <c r="U13" s="126"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="127"/>
+      <c r="X13" s="127"/>
+      <c r="Y13" s="127"/>
+      <c r="Z13" s="127"/>
+      <c r="AA13" s="127"/>
+      <c r="AB13" s="128"/>
       <c r="AC13" s="45"/>
       <c r="AD13" s="46"/>
       <c r="AE13" s="46"/>
@@ -3194,16 +3194,16 @@
       <c r="CD13" s="46"/>
       <c r="CE13" s="46"/>
       <c r="CF13" s="47"/>
-      <c r="CG13" s="117"/>
+      <c r="CG13" s="122"/>
     </row>
     <row r="14" spans="1:85" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="110" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="141"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="55"/>
       <c r="E14" s="56"/>
       <c r="F14" s="57"/>
@@ -3221,14 +3221,14 @@
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
       <c r="T14" s="58"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="122"/>
-      <c r="AA14" s="122"/>
-      <c r="AB14" s="123"/>
+      <c r="U14" s="126"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="127"/>
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="127"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="128"/>
       <c r="AC14" s="56"/>
       <c r="AD14" s="57"/>
       <c r="AE14" s="57"/>
@@ -3285,14 +3285,14 @@
       <c r="CD14" s="57"/>
       <c r="CE14" s="57"/>
       <c r="CF14" s="58"/>
-      <c r="CG14" s="117"/>
+      <c r="CG14" s="122"/>
     </row>
     <row r="15" spans="1:85" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="142"/>
+      <c r="C15" s="117"/>
       <c r="D15" s="55"/>
       <c r="E15" s="56"/>
       <c r="F15" s="57"/>
@@ -3310,14 +3310,14 @@
       <c r="R15" s="57"/>
       <c r="S15" s="57"/>
       <c r="T15" s="58"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="122"/>
-      <c r="W15" s="122"/>
-      <c r="X15" s="122"/>
-      <c r="Y15" s="122"/>
-      <c r="Z15" s="122"/>
-      <c r="AA15" s="122"/>
-      <c r="AB15" s="123"/>
+      <c r="U15" s="126"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
+      <c r="Z15" s="127"/>
+      <c r="AA15" s="127"/>
+      <c r="AB15" s="128"/>
       <c r="AC15" s="56"/>
       <c r="AD15" s="57"/>
       <c r="AE15" s="57"/>
@@ -3374,16 +3374,16 @@
       <c r="CD15" s="57"/>
       <c r="CE15" s="57"/>
       <c r="CF15" s="58"/>
-      <c r="CG15" s="117"/>
+      <c r="CG15" s="122"/>
     </row>
     <row r="16" spans="1:85" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="112" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="143"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="60"/>
       <c r="E16" s="61"/>
       <c r="F16" s="62"/>
@@ -3401,14 +3401,14 @@
       <c r="R16" s="62"/>
       <c r="S16" s="62"/>
       <c r="T16" s="63"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="122"/>
-      <c r="Z16" s="122"/>
-      <c r="AA16" s="122"/>
-      <c r="AB16" s="123"/>
+      <c r="U16" s="126"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="128"/>
       <c r="AC16" s="61"/>
       <c r="AD16" s="62"/>
       <c r="AE16" s="62"/>
@@ -3465,14 +3465,14 @@
       <c r="CD16" s="62"/>
       <c r="CE16" s="62"/>
       <c r="CF16" s="63"/>
-      <c r="CG16" s="117"/>
+      <c r="CG16" s="122"/>
     </row>
     <row r="17" spans="1:85" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="138"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="144"/>
+      <c r="C17" s="119"/>
       <c r="D17" s="60"/>
       <c r="E17" s="61"/>
       <c r="F17" s="62"/>
@@ -3490,14 +3490,14 @@
       <c r="R17" s="62"/>
       <c r="S17" s="62"/>
       <c r="T17" s="63"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="122"/>
-      <c r="X17" s="122"/>
-      <c r="Y17" s="122"/>
-      <c r="Z17" s="122"/>
-      <c r="AA17" s="122"/>
-      <c r="AB17" s="123"/>
+      <c r="U17" s="126"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="128"/>
       <c r="AC17" s="61"/>
       <c r="AD17" s="62"/>
       <c r="AE17" s="62"/>
@@ -3554,16 +3554,16 @@
       <c r="CD17" s="62"/>
       <c r="CE17" s="62"/>
       <c r="CF17" s="63"/>
-      <c r="CG17" s="117"/>
+      <c r="CG17" s="122"/>
     </row>
     <row r="18" spans="1:85" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="139" t="s">
+      <c r="A18" s="114" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="145"/>
+      <c r="C18" s="120"/>
       <c r="D18" s="65"/>
       <c r="E18" s="66"/>
       <c r="F18" s="67"/>
@@ -3581,14 +3581,14 @@
       <c r="R18" s="67"/>
       <c r="S18" s="67"/>
       <c r="T18" s="68"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="122"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="122"/>
-      <c r="AB18" s="123"/>
+      <c r="U18" s="126"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="127"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="128"/>
       <c r="AC18" s="66"/>
       <c r="AD18" s="67"/>
       <c r="AE18" s="67"/>
@@ -3645,14 +3645,14 @@
       <c r="CD18" s="52"/>
       <c r="CE18" s="67"/>
       <c r="CF18" s="68"/>
-      <c r="CG18" s="117"/>
+      <c r="CG18" s="122"/>
     </row>
     <row r="19" spans="1:85" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="140"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="146"/>
+      <c r="C19" s="121"/>
       <c r="D19" s="65"/>
       <c r="E19" s="66"/>
       <c r="F19" s="67"/>
@@ -3670,14 +3670,14 @@
       <c r="R19" s="67"/>
       <c r="S19" s="67"/>
       <c r="T19" s="68"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="122"/>
-      <c r="W19" s="122"/>
-      <c r="X19" s="122"/>
-      <c r="Y19" s="122"/>
-      <c r="Z19" s="122"/>
-      <c r="AA19" s="122"/>
-      <c r="AB19" s="123"/>
+      <c r="U19" s="126"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="128"/>
       <c r="AC19" s="66"/>
       <c r="AD19" s="67"/>
       <c r="AE19" s="67"/>
@@ -3734,10 +3734,10 @@
       <c r="CD19" s="52"/>
       <c r="CE19" s="67"/>
       <c r="CF19" s="68"/>
-      <c r="CG19" s="117"/>
+      <c r="CG19" s="122"/>
     </row>
     <row r="20" spans="1:85" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="104" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="83" t="s">
@@ -3761,14 +3761,14 @@
       <c r="R20" s="73"/>
       <c r="S20" s="73"/>
       <c r="T20" s="74"/>
-      <c r="U20" s="121"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="122"/>
-      <c r="AB20" s="123"/>
+      <c r="U20" s="126"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="128"/>
       <c r="AC20" s="72"/>
       <c r="AD20" s="73"/>
       <c r="AE20" s="73"/>
@@ -3825,10 +3825,10 @@
       <c r="CD20" s="73"/>
       <c r="CE20" s="52"/>
       <c r="CF20" s="53"/>
-      <c r="CG20" s="117"/>
+      <c r="CG20" s="122"/>
     </row>
     <row r="21" spans="1:85" s="92" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="130"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="86" t="s">
         <v>28</v>
       </c>
@@ -3850,14 +3850,14 @@
       <c r="R21" s="90"/>
       <c r="S21" s="90"/>
       <c r="T21" s="91"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="122"/>
-      <c r="X21" s="122"/>
-      <c r="Y21" s="122"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="122"/>
-      <c r="AB21" s="123"/>
+      <c r="U21" s="126"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="127"/>
+      <c r="X21" s="127"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="127"/>
+      <c r="AA21" s="127"/>
+      <c r="AB21" s="128"/>
       <c r="AC21" s="89"/>
       <c r="AD21" s="90"/>
       <c r="AE21" s="90"/>
@@ -3914,7 +3914,7 @@
       <c r="CD21" s="90"/>
       <c r="CE21" s="90"/>
       <c r="CF21" s="91"/>
-      <c r="CG21" s="117"/>
+      <c r="CG21" s="122"/>
     </row>
     <row r="22" spans="1:85" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="93" t="s">
@@ -3939,14 +3939,14 @@
       <c r="R22" s="98"/>
       <c r="S22" s="98"/>
       <c r="T22" s="99"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="122"/>
-      <c r="W22" s="122"/>
-      <c r="X22" s="122"/>
-      <c r="Y22" s="122"/>
-      <c r="Z22" s="122"/>
-      <c r="AA22" s="122"/>
-      <c r="AB22" s="123"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="128"/>
       <c r="AC22" s="97"/>
       <c r="AD22" s="98"/>
       <c r="AE22" s="98"/>
@@ -4003,7 +4003,7 @@
       <c r="CD22" s="52"/>
       <c r="CE22" s="98"/>
       <c r="CF22" s="99"/>
-      <c r="CG22" s="117"/>
+      <c r="CG22" s="122"/>
     </row>
     <row r="23" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
@@ -4026,14 +4026,14 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="10"/>
-      <c r="U23" s="121"/>
-      <c r="V23" s="122"/>
-      <c r="W23" s="122"/>
-      <c r="X23" s="122"/>
-      <c r="Y23" s="122"/>
-      <c r="Z23" s="122"/>
-      <c r="AA23" s="122"/>
-      <c r="AB23" s="123"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="128"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="9"/>
       <c r="AE23" s="9"/>
@@ -4090,7 +4090,7 @@
       <c r="CD23" s="9"/>
       <c r="CE23" s="9"/>
       <c r="CF23" s="10"/>
-      <c r="CG23" s="117"/>
+      <c r="CG23" s="122"/>
     </row>
     <row r="24" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
@@ -4113,14 +4113,14 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="10"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="122"/>
-      <c r="W24" s="122"/>
-      <c r="X24" s="122"/>
-      <c r="Y24" s="122"/>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="122"/>
-      <c r="AB24" s="123"/>
+      <c r="U24" s="126"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="127"/>
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="127"/>
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="128"/>
       <c r="AC24" s="8"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="9"/>
@@ -4177,7 +4177,7 @@
       <c r="CD24" s="9"/>
       <c r="CE24" s="9"/>
       <c r="CF24" s="10"/>
-      <c r="CG24" s="117"/>
+      <c r="CG24" s="122"/>
     </row>
     <row r="25" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
@@ -4200,14 +4200,14 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="122"/>
-      <c r="X25" s="122"/>
-      <c r="Y25" s="122"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="122"/>
-      <c r="AB25" s="123"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="127"/>
+      <c r="AA25" s="127"/>
+      <c r="AB25" s="128"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9"/>
@@ -4264,7 +4264,7 @@
       <c r="CD25" s="9"/>
       <c r="CE25" s="9"/>
       <c r="CF25" s="10"/>
-      <c r="CG25" s="117"/>
+      <c r="CG25" s="122"/>
     </row>
     <row r="26" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A26" s="24"/>
@@ -4287,14 +4287,14 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="122"/>
-      <c r="W26" s="122"/>
-      <c r="X26" s="122"/>
-      <c r="Y26" s="122"/>
-      <c r="Z26" s="122"/>
-      <c r="AA26" s="122"/>
-      <c r="AB26" s="123"/>
+      <c r="U26" s="126"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
+      <c r="Z26" s="127"/>
+      <c r="AA26" s="127"/>
+      <c r="AB26" s="128"/>
       <c r="AC26" s="8"/>
       <c r="AD26" s="9"/>
       <c r="AE26" s="9"/>
@@ -4351,7 +4351,7 @@
       <c r="CD26" s="9"/>
       <c r="CE26" s="9"/>
       <c r="CF26" s="10"/>
-      <c r="CG26" s="117"/>
+      <c r="CG26" s="122"/>
     </row>
     <row r="27" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
@@ -4374,14 +4374,14 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="122"/>
-      <c r="W27" s="122"/>
-      <c r="X27" s="122"/>
-      <c r="Y27" s="122"/>
-      <c r="Z27" s="122"/>
-      <c r="AA27" s="122"/>
-      <c r="AB27" s="123"/>
+      <c r="U27" s="126"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="127"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="128"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="9"/>
       <c r="AE27" s="9"/>
@@ -4438,7 +4438,7 @@
       <c r="CD27" s="9"/>
       <c r="CE27" s="9"/>
       <c r="CF27" s="10"/>
-      <c r="CG27" s="117"/>
+      <c r="CG27" s="122"/>
     </row>
     <row r="28" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
@@ -4461,14 +4461,14 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="122"/>
-      <c r="X28" s="122"/>
-      <c r="Y28" s="122"/>
-      <c r="Z28" s="122"/>
-      <c r="AA28" s="122"/>
-      <c r="AB28" s="123"/>
+      <c r="U28" s="126"/>
+      <c r="V28" s="127"/>
+      <c r="W28" s="127"/>
+      <c r="X28" s="127"/>
+      <c r="Y28" s="127"/>
+      <c r="Z28" s="127"/>
+      <c r="AA28" s="127"/>
+      <c r="AB28" s="128"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="9"/>
       <c r="AE28" s="9"/>
@@ -4525,7 +4525,7 @@
       <c r="CD28" s="9"/>
       <c r="CE28" s="9"/>
       <c r="CF28" s="10"/>
-      <c r="CG28" s="117"/>
+      <c r="CG28" s="122"/>
     </row>
     <row r="29" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
@@ -4548,14 +4548,14 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="122"/>
-      <c r="W29" s="122"/>
-      <c r="X29" s="122"/>
-      <c r="Y29" s="122"/>
-      <c r="Z29" s="122"/>
-      <c r="AA29" s="122"/>
-      <c r="AB29" s="123"/>
+      <c r="U29" s="126"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="127"/>
+      <c r="X29" s="127"/>
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="127"/>
+      <c r="AA29" s="127"/>
+      <c r="AB29" s="128"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="9"/>
       <c r="AE29" s="9"/>
@@ -4612,7 +4612,7 @@
       <c r="CD29" s="9"/>
       <c r="CE29" s="9"/>
       <c r="CF29" s="10"/>
-      <c r="CG29" s="117"/>
+      <c r="CG29" s="122"/>
     </row>
     <row r="30" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
@@ -4635,14 +4635,14 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="122"/>
-      <c r="X30" s="122"/>
-      <c r="Y30" s="122"/>
-      <c r="Z30" s="122"/>
-      <c r="AA30" s="122"/>
-      <c r="AB30" s="123"/>
+      <c r="U30" s="126"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="127"/>
+      <c r="X30" s="127"/>
+      <c r="Y30" s="127"/>
+      <c r="Z30" s="127"/>
+      <c r="AA30" s="127"/>
+      <c r="AB30" s="128"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="9"/>
       <c r="AE30" s="9"/>
@@ -4699,7 +4699,7 @@
       <c r="CD30" s="9"/>
       <c r="CE30" s="9"/>
       <c r="CF30" s="10"/>
-      <c r="CG30" s="117"/>
+      <c r="CG30" s="122"/>
     </row>
     <row r="31" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
@@ -4722,14 +4722,14 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="122"/>
-      <c r="Y31" s="122"/>
-      <c r="Z31" s="122"/>
-      <c r="AA31" s="122"/>
-      <c r="AB31" s="123"/>
+      <c r="U31" s="126"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="127"/>
+      <c r="X31" s="127"/>
+      <c r="Y31" s="127"/>
+      <c r="Z31" s="127"/>
+      <c r="AA31" s="127"/>
+      <c r="AB31" s="128"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="9"/>
       <c r="AE31" s="9"/>
@@ -4786,7 +4786,7 @@
       <c r="CD31" s="9"/>
       <c r="CE31" s="9"/>
       <c r="CF31" s="10"/>
-      <c r="CG31" s="117"/>
+      <c r="CG31" s="122"/>
     </row>
     <row r="32" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
@@ -4809,14 +4809,14 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="122"/>
-      <c r="Y32" s="122"/>
-      <c r="Z32" s="122"/>
-      <c r="AA32" s="122"/>
-      <c r="AB32" s="123"/>
+      <c r="U32" s="126"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="Z32" s="127"/>
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="128"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="9"/>
       <c r="AE32" s="9"/>
@@ -4873,7 +4873,7 @@
       <c r="CD32" s="9"/>
       <c r="CE32" s="9"/>
       <c r="CF32" s="10"/>
-      <c r="CG32" s="117"/>
+      <c r="CG32" s="122"/>
     </row>
     <row r="33" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
@@ -4896,14 +4896,14 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="121"/>
-      <c r="V33" s="122"/>
-      <c r="W33" s="122"/>
-      <c r="X33" s="122"/>
-      <c r="Y33" s="122"/>
-      <c r="Z33" s="122"/>
-      <c r="AA33" s="122"/>
-      <c r="AB33" s="123"/>
+      <c r="U33" s="126"/>
+      <c r="V33" s="127"/>
+      <c r="W33" s="127"/>
+      <c r="X33" s="127"/>
+      <c r="Y33" s="127"/>
+      <c r="Z33" s="127"/>
+      <c r="AA33" s="127"/>
+      <c r="AB33" s="128"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="9"/>
       <c r="AE33" s="9"/>
@@ -4960,7 +4960,7 @@
       <c r="CD33" s="9"/>
       <c r="CE33" s="9"/>
       <c r="CF33" s="10"/>
-      <c r="CG33" s="117"/>
+      <c r="CG33" s="122"/>
     </row>
     <row r="34" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
@@ -4983,14 +4983,14 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="121"/>
-      <c r="V34" s="122"/>
-      <c r="W34" s="122"/>
-      <c r="X34" s="122"/>
-      <c r="Y34" s="122"/>
-      <c r="Z34" s="122"/>
-      <c r="AA34" s="122"/>
-      <c r="AB34" s="123"/>
+      <c r="U34" s="126"/>
+      <c r="V34" s="127"/>
+      <c r="W34" s="127"/>
+      <c r="X34" s="127"/>
+      <c r="Y34" s="127"/>
+      <c r="Z34" s="127"/>
+      <c r="AA34" s="127"/>
+      <c r="AB34" s="128"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="9"/>
       <c r="AE34" s="9"/>
@@ -5047,7 +5047,7 @@
       <c r="CD34" s="9"/>
       <c r="CE34" s="9"/>
       <c r="CF34" s="10"/>
-      <c r="CG34" s="117"/>
+      <c r="CG34" s="122"/>
     </row>
     <row r="35" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
@@ -5070,14 +5070,14 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="121"/>
-      <c r="V35" s="122"/>
-      <c r="W35" s="122"/>
-      <c r="X35" s="122"/>
-      <c r="Y35" s="122"/>
-      <c r="Z35" s="122"/>
-      <c r="AA35" s="122"/>
-      <c r="AB35" s="123"/>
+      <c r="U35" s="126"/>
+      <c r="V35" s="127"/>
+      <c r="W35" s="127"/>
+      <c r="X35" s="127"/>
+      <c r="Y35" s="127"/>
+      <c r="Z35" s="127"/>
+      <c r="AA35" s="127"/>
+      <c r="AB35" s="128"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
@@ -5134,7 +5134,7 @@
       <c r="CD35" s="9"/>
       <c r="CE35" s="9"/>
       <c r="CF35" s="10"/>
-      <c r="CG35" s="117"/>
+      <c r="CG35" s="122"/>
     </row>
     <row r="36" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
@@ -5157,14 +5157,14 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="121"/>
-      <c r="V36" s="122"/>
-      <c r="W36" s="122"/>
-      <c r="X36" s="122"/>
-      <c r="Y36" s="122"/>
-      <c r="Z36" s="122"/>
-      <c r="AA36" s="122"/>
-      <c r="AB36" s="123"/>
+      <c r="U36" s="126"/>
+      <c r="V36" s="127"/>
+      <c r="W36" s="127"/>
+      <c r="X36" s="127"/>
+      <c r="Y36" s="127"/>
+      <c r="Z36" s="127"/>
+      <c r="AA36" s="127"/>
+      <c r="AB36" s="128"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -5221,7 +5221,7 @@
       <c r="CD36" s="9"/>
       <c r="CE36" s="9"/>
       <c r="CF36" s="10"/>
-      <c r="CG36" s="117"/>
+      <c r="CG36" s="122"/>
     </row>
     <row r="37" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
@@ -5244,14 +5244,14 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="121"/>
-      <c r="V37" s="122"/>
-      <c r="W37" s="122"/>
-      <c r="X37" s="122"/>
-      <c r="Y37" s="122"/>
-      <c r="Z37" s="122"/>
-      <c r="AA37" s="122"/>
-      <c r="AB37" s="123"/>
+      <c r="U37" s="126"/>
+      <c r="V37" s="127"/>
+      <c r="W37" s="127"/>
+      <c r="X37" s="127"/>
+      <c r="Y37" s="127"/>
+      <c r="Z37" s="127"/>
+      <c r="AA37" s="127"/>
+      <c r="AB37" s="128"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -5308,7 +5308,7 @@
       <c r="CD37" s="9"/>
       <c r="CE37" s="9"/>
       <c r="CF37" s="10"/>
-      <c r="CG37" s="117"/>
+      <c r="CG37" s="122"/>
     </row>
     <row r="38" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A38" s="24"/>
@@ -5331,14 +5331,14 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="121"/>
-      <c r="V38" s="122"/>
-      <c r="W38" s="122"/>
-      <c r="X38" s="122"/>
-      <c r="Y38" s="122"/>
-      <c r="Z38" s="122"/>
-      <c r="AA38" s="122"/>
-      <c r="AB38" s="123"/>
+      <c r="U38" s="126"/>
+      <c r="V38" s="127"/>
+      <c r="W38" s="127"/>
+      <c r="X38" s="127"/>
+      <c r="Y38" s="127"/>
+      <c r="Z38" s="127"/>
+      <c r="AA38" s="127"/>
+      <c r="AB38" s="128"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="9"/>
       <c r="AE38" s="9"/>
@@ -5395,7 +5395,7 @@
       <c r="CD38" s="9"/>
       <c r="CE38" s="9"/>
       <c r="CF38" s="10"/>
-      <c r="CG38" s="117"/>
+      <c r="CG38" s="122"/>
     </row>
     <row r="39" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
@@ -5418,14 +5418,14 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="10"/>
-      <c r="U39" s="121"/>
-      <c r="V39" s="122"/>
-      <c r="W39" s="122"/>
-      <c r="X39" s="122"/>
-      <c r="Y39" s="122"/>
-      <c r="Z39" s="122"/>
-      <c r="AA39" s="122"/>
-      <c r="AB39" s="123"/>
+      <c r="U39" s="126"/>
+      <c r="V39" s="127"/>
+      <c r="W39" s="127"/>
+      <c r="X39" s="127"/>
+      <c r="Y39" s="127"/>
+      <c r="Z39" s="127"/>
+      <c r="AA39" s="127"/>
+      <c r="AB39" s="128"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="9"/>
       <c r="AE39" s="9"/>
@@ -5482,7 +5482,7 @@
       <c r="CD39" s="9"/>
       <c r="CE39" s="9"/>
       <c r="CF39" s="10"/>
-      <c r="CG39" s="117"/>
+      <c r="CG39" s="122"/>
     </row>
     <row r="40" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
@@ -5505,14 +5505,14 @@
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
       <c r="T40" s="14"/>
-      <c r="U40" s="124"/>
-      <c r="V40" s="125"/>
-      <c r="W40" s="125"/>
-      <c r="X40" s="125"/>
-      <c r="Y40" s="125"/>
-      <c r="Z40" s="125"/>
-      <c r="AA40" s="125"/>
-      <c r="AB40" s="126"/>
+      <c r="U40" s="129"/>
+      <c r="V40" s="130"/>
+      <c r="W40" s="130"/>
+      <c r="X40" s="130"/>
+      <c r="Y40" s="130"/>
+      <c r="Z40" s="130"/>
+      <c r="AA40" s="130"/>
+      <c r="AB40" s="131"/>
       <c r="AC40" s="12"/>
       <c r="AD40" s="13"/>
       <c r="AE40" s="13"/>
@@ -5569,115 +5569,105 @@
       <c r="CD40" s="13"/>
       <c r="CE40" s="13"/>
       <c r="CF40" s="14"/>
-      <c r="CG40" s="117"/>
+      <c r="CG40" s="122"/>
     </row>
     <row r="41" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A41" s="127" t="s">
+      <c r="A41" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="128"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="128"/>
-      <c r="O41" s="128"/>
-      <c r="P41" s="128"/>
-      <c r="Q41" s="128"/>
-      <c r="R41" s="128"/>
-      <c r="S41" s="128"/>
-      <c r="T41" s="128"/>
-      <c r="U41" s="128"/>
-      <c r="V41" s="128"/>
-      <c r="W41" s="128"/>
-      <c r="X41" s="128"/>
-      <c r="Y41" s="128"/>
-      <c r="Z41" s="128"/>
-      <c r="AA41" s="128"/>
-      <c r="AB41" s="128"/>
-      <c r="AC41" s="128"/>
-      <c r="AD41" s="128"/>
-      <c r="AE41" s="128"/>
-      <c r="AF41" s="128"/>
-      <c r="AG41" s="128"/>
-      <c r="AH41" s="128"/>
-      <c r="AI41" s="128"/>
-      <c r="AJ41" s="128"/>
-      <c r="AK41" s="128"/>
-      <c r="AL41" s="128"/>
-      <c r="AM41" s="128"/>
-      <c r="AN41" s="128"/>
-      <c r="AO41" s="128"/>
-      <c r="AP41" s="128"/>
-      <c r="AQ41" s="128"/>
-      <c r="AR41" s="128"/>
-      <c r="AS41" s="128"/>
-      <c r="AT41" s="128"/>
-      <c r="AU41" s="128"/>
-      <c r="AV41" s="128"/>
-      <c r="AW41" s="128"/>
-      <c r="AX41" s="128"/>
-      <c r="AY41" s="128"/>
-      <c r="AZ41" s="128"/>
-      <c r="BA41" s="128"/>
-      <c r="BB41" s="128"/>
-      <c r="BC41" s="128"/>
-      <c r="BD41" s="128"/>
-      <c r="BE41" s="128"/>
-      <c r="BF41" s="128"/>
-      <c r="BG41" s="128"/>
-      <c r="BH41" s="128"/>
-      <c r="BI41" s="128"/>
-      <c r="BJ41" s="128"/>
-      <c r="BK41" s="128"/>
-      <c r="BL41" s="128"/>
-      <c r="BM41" s="128"/>
-      <c r="BN41" s="128"/>
-      <c r="BO41" s="128"/>
-      <c r="BP41" s="128"/>
-      <c r="BQ41" s="128"/>
-      <c r="BR41" s="128"/>
-      <c r="BS41" s="128"/>
-      <c r="BT41" s="128"/>
-      <c r="BU41" s="128"/>
-      <c r="BV41" s="128"/>
-      <c r="BW41" s="128"/>
-      <c r="BX41" s="128"/>
-      <c r="BY41" s="128"/>
-      <c r="BZ41" s="128"/>
-      <c r="CA41" s="128"/>
-      <c r="CB41" s="128"/>
-      <c r="CC41" s="128"/>
-      <c r="CD41" s="128"/>
-      <c r="CE41" s="128"/>
-      <c r="CF41" s="128"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="103"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="103"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="103"/>
+      <c r="Q41" s="103"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="103"/>
+      <c r="T41" s="103"/>
+      <c r="U41" s="103"/>
+      <c r="V41" s="103"/>
+      <c r="W41" s="103"/>
+      <c r="X41" s="103"/>
+      <c r="Y41" s="103"/>
+      <c r="Z41" s="103"/>
+      <c r="AA41" s="103"/>
+      <c r="AB41" s="103"/>
+      <c r="AC41" s="103"/>
+      <c r="AD41" s="103"/>
+      <c r="AE41" s="103"/>
+      <c r="AF41" s="103"/>
+      <c r="AG41" s="103"/>
+      <c r="AH41" s="103"/>
+      <c r="AI41" s="103"/>
+      <c r="AJ41" s="103"/>
+      <c r="AK41" s="103"/>
+      <c r="AL41" s="103"/>
+      <c r="AM41" s="103"/>
+      <c r="AN41" s="103"/>
+      <c r="AO41" s="103"/>
+      <c r="AP41" s="103"/>
+      <c r="AQ41" s="103"/>
+      <c r="AR41" s="103"/>
+      <c r="AS41" s="103"/>
+      <c r="AT41" s="103"/>
+      <c r="AU41" s="103"/>
+      <c r="AV41" s="103"/>
+      <c r="AW41" s="103"/>
+      <c r="AX41" s="103"/>
+      <c r="AY41" s="103"/>
+      <c r="AZ41" s="103"/>
+      <c r="BA41" s="103"/>
+      <c r="BB41" s="103"/>
+      <c r="BC41" s="103"/>
+      <c r="BD41" s="103"/>
+      <c r="BE41" s="103"/>
+      <c r="BF41" s="103"/>
+      <c r="BG41" s="103"/>
+      <c r="BH41" s="103"/>
+      <c r="BI41" s="103"/>
+      <c r="BJ41" s="103"/>
+      <c r="BK41" s="103"/>
+      <c r="BL41" s="103"/>
+      <c r="BM41" s="103"/>
+      <c r="BN41" s="103"/>
+      <c r="BO41" s="103"/>
+      <c r="BP41" s="103"/>
+      <c r="BQ41" s="103"/>
+      <c r="BR41" s="103"/>
+      <c r="BS41" s="103"/>
+      <c r="BT41" s="103"/>
+      <c r="BU41" s="103"/>
+      <c r="BV41" s="103"/>
+      <c r="BW41" s="103"/>
+      <c r="BX41" s="103"/>
+      <c r="BY41" s="103"/>
+      <c r="BZ41" s="103"/>
+      <c r="CA41" s="103"/>
+      <c r="CB41" s="103"/>
+      <c r="CC41" s="103"/>
+      <c r="CD41" s="103"/>
+      <c r="CE41" s="103"/>
+      <c r="CF41" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A41:CF41"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="CG4:CG40"/>
-    <mergeCell ref="U6:AB40"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="CC4:CF4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="E2:AR3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="AS2:CF3"/>
@@ -5693,13 +5683,23 @@
     <mergeCell ref="BU4:BX4"/>
     <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="BY4:CB4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="E2:AR3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="CG4:CG40"/>
+    <mergeCell ref="U6:AB40"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="CC4:CF4"/>
+    <mergeCell ref="A41:CF41"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="C6:C12 C14 C16 C18 C20:C40">
@@ -5739,15 +5739,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5960,6 +5951,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
@@ -5974,14 +5974,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C334E08-C15B-4283-B082-739F59C9FCA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5998,4 +5990,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_Modele_PlanningJeudiVendredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEBE2F97-ABE7-47E8-9C09-5C23994853A5}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{133EF519-9273-438B-912C-43126574751F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1164,83 +1164,63 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1284,63 +1264,83 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1400,13 +1400,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19841</xdr:colOff>
+      <xdr:colOff>19840</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>8282</xdr:colOff>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>124238</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
@@ -1423,8 +1423,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4285384" y="704022"/>
-          <a:ext cx="8453268" cy="6104023"/>
+          <a:off x="4285383" y="704022"/>
+          <a:ext cx="9414051" cy="6104023"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1859,10 +1859,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="140"/>
+      <c r="B1" s="102"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="1"/>
@@ -1907,313 +1907,313 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:85" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="142"/>
+      <c r="B2" s="110"/>
       <c r="C2" s="22"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="138"/>
-      <c r="AG2" s="138"/>
-      <c r="AH2" s="138"/>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="138"/>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="138"/>
-      <c r="AV2" s="138"/>
-      <c r="AW2" s="138"/>
-      <c r="AX2" s="138"/>
-      <c r="AY2" s="138"/>
-      <c r="AZ2" s="138"/>
-      <c r="BA2" s="138"/>
-      <c r="BB2" s="138"/>
-      <c r="BC2" s="138"/>
-      <c r="BD2" s="138"/>
-      <c r="BE2" s="138"/>
-      <c r="BF2" s="138"/>
-      <c r="BG2" s="138"/>
-      <c r="BH2" s="138"/>
-      <c r="BI2" s="138"/>
-      <c r="BJ2" s="138"/>
-      <c r="BK2" s="138"/>
-      <c r="BL2" s="138"/>
-      <c r="BM2" s="138"/>
-      <c r="BN2" s="138"/>
-      <c r="BO2" s="138"/>
-      <c r="BP2" s="138"/>
-      <c r="BQ2" s="138"/>
-      <c r="BR2" s="138"/>
-      <c r="BS2" s="138"/>
-      <c r="BT2" s="138"/>
-      <c r="BU2" s="138"/>
-      <c r="BV2" s="138"/>
-      <c r="BW2" s="138"/>
-      <c r="BX2" s="138"/>
-      <c r="BY2" s="138"/>
-      <c r="BZ2" s="138"/>
-      <c r="CA2" s="138"/>
-      <c r="CB2" s="138"/>
-      <c r="CC2" s="138"/>
-      <c r="CD2" s="138"/>
-      <c r="CE2" s="138"/>
-      <c r="CF2" s="138"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="107"/>
+      <c r="AR2" s="107"/>
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="107"/>
+      <c r="AW2" s="107"/>
+      <c r="AX2" s="107"/>
+      <c r="AY2" s="107"/>
+      <c r="AZ2" s="107"/>
+      <c r="BA2" s="107"/>
+      <c r="BB2" s="107"/>
+      <c r="BC2" s="107"/>
+      <c r="BD2" s="107"/>
+      <c r="BE2" s="107"/>
+      <c r="BF2" s="107"/>
+      <c r="BG2" s="107"/>
+      <c r="BH2" s="107"/>
+      <c r="BI2" s="107"/>
+      <c r="BJ2" s="107"/>
+      <c r="BK2" s="107"/>
+      <c r="BL2" s="107"/>
+      <c r="BM2" s="107"/>
+      <c r="BN2" s="107"/>
+      <c r="BO2" s="107"/>
+      <c r="BP2" s="107"/>
+      <c r="BQ2" s="107"/>
+      <c r="BR2" s="107"/>
+      <c r="BS2" s="107"/>
+      <c r="BT2" s="107"/>
+      <c r="BU2" s="107"/>
+      <c r="BV2" s="107"/>
+      <c r="BW2" s="107"/>
+      <c r="BX2" s="107"/>
+      <c r="BY2" s="107"/>
+      <c r="BZ2" s="107"/>
+      <c r="CA2" s="107"/>
+      <c r="CB2" s="107"/>
+      <c r="CC2" s="107"/>
+      <c r="CD2" s="107"/>
+      <c r="CE2" s="107"/>
+      <c r="CF2" s="107"/>
     </row>
     <row r="3" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="139"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="139"/>
-      <c r="AD3" s="139"/>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="139"/>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="139"/>
-      <c r="AL3" s="139"/>
-      <c r="AM3" s="139"/>
-      <c r="AN3" s="139"/>
-      <c r="AO3" s="139"/>
-      <c r="AP3" s="139"/>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139"/>
-      <c r="AS3" s="139"/>
-      <c r="AT3" s="139"/>
-      <c r="AU3" s="139"/>
-      <c r="AV3" s="139"/>
-      <c r="AW3" s="139"/>
-      <c r="AX3" s="139"/>
-      <c r="AY3" s="139"/>
-      <c r="AZ3" s="139"/>
-      <c r="BA3" s="139"/>
-      <c r="BB3" s="139"/>
-      <c r="BC3" s="139"/>
-      <c r="BD3" s="139"/>
-      <c r="BE3" s="139"/>
-      <c r="BF3" s="139"/>
-      <c r="BG3" s="139"/>
-      <c r="BH3" s="139"/>
-      <c r="BI3" s="139"/>
-      <c r="BJ3" s="139"/>
-      <c r="BK3" s="139"/>
-      <c r="BL3" s="139"/>
-      <c r="BM3" s="139"/>
-      <c r="BN3" s="139"/>
-      <c r="BO3" s="139"/>
-      <c r="BP3" s="139"/>
-      <c r="BQ3" s="139"/>
-      <c r="BR3" s="139"/>
-      <c r="BS3" s="139"/>
-      <c r="BT3" s="139"/>
-      <c r="BU3" s="139"/>
-      <c r="BV3" s="139"/>
-      <c r="BW3" s="139"/>
-      <c r="BX3" s="139"/>
-      <c r="BY3" s="139"/>
-      <c r="BZ3" s="139"/>
-      <c r="CA3" s="139"/>
-      <c r="CB3" s="139"/>
-      <c r="CC3" s="139"/>
-      <c r="CD3" s="139"/>
-      <c r="CE3" s="139"/>
-      <c r="CF3" s="139"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="108"/>
+      <c r="AP3" s="108"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="108"/>
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="108"/>
+      <c r="AW3" s="108"/>
+      <c r="AX3" s="108"/>
+      <c r="AY3" s="108"/>
+      <c r="AZ3" s="108"/>
+      <c r="BA3" s="108"/>
+      <c r="BB3" s="108"/>
+      <c r="BC3" s="108"/>
+      <c r="BD3" s="108"/>
+      <c r="BE3" s="108"/>
+      <c r="BF3" s="108"/>
+      <c r="BG3" s="108"/>
+      <c r="BH3" s="108"/>
+      <c r="BI3" s="108"/>
+      <c r="BJ3" s="108"/>
+      <c r="BK3" s="108"/>
+      <c r="BL3" s="108"/>
+      <c r="BM3" s="108"/>
+      <c r="BN3" s="108"/>
+      <c r="BO3" s="108"/>
+      <c r="BP3" s="108"/>
+      <c r="BQ3" s="108"/>
+      <c r="BR3" s="108"/>
+      <c r="BS3" s="108"/>
+      <c r="BT3" s="108"/>
+      <c r="BU3" s="108"/>
+      <c r="BV3" s="108"/>
+      <c r="BW3" s="108"/>
+      <c r="BX3" s="108"/>
+      <c r="BY3" s="108"/>
+      <c r="BZ3" s="108"/>
+      <c r="CA3" s="108"/>
+      <c r="CB3" s="108"/>
+      <c r="CC3" s="108"/>
+      <c r="CD3" s="108"/>
+      <c r="CE3" s="108"/>
+      <c r="CF3" s="108"/>
     </row>
     <row r="4" spans="1:85" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="144"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="132" t="s">
+      <c r="E4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="134">
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="103">
         <v>45995</v>
       </c>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="132" t="s">
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="134">
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="103">
         <v>45996</v>
       </c>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="132" t="s">
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="134">
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="103">
         <v>46002</v>
       </c>
-      <c r="Z4" s="134"/>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="135"/>
-      <c r="AC4" s="132" t="s">
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="133"/>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="134">
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="103">
         <v>46003</v>
       </c>
-      <c r="AH4" s="134"/>
-      <c r="AI4" s="134"/>
-      <c r="AJ4" s="135"/>
-      <c r="AK4" s="132" t="s">
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="133"/>
-      <c r="AM4" s="133"/>
-      <c r="AN4" s="133"/>
-      <c r="AO4" s="134">
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="103">
         <v>46009</v>
       </c>
-      <c r="AP4" s="134"/>
-      <c r="AQ4" s="134"/>
-      <c r="AR4" s="135"/>
-      <c r="AS4" s="132" t="s">
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="AT4" s="133"/>
-      <c r="AU4" s="133"/>
-      <c r="AV4" s="133"/>
-      <c r="AW4" s="134">
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="103">
         <v>46010</v>
       </c>
-      <c r="AX4" s="134"/>
-      <c r="AY4" s="134"/>
-      <c r="AZ4" s="135"/>
-      <c r="BA4" s="132" t="s">
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103"/>
+      <c r="AZ4" s="104"/>
+      <c r="BA4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="BB4" s="133"/>
-      <c r="BC4" s="133"/>
-      <c r="BD4" s="133"/>
-      <c r="BE4" s="134">
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="103">
         <v>46030</v>
       </c>
-      <c r="BF4" s="134"/>
-      <c r="BG4" s="134"/>
-      <c r="BH4" s="135"/>
-      <c r="BI4" s="132" t="s">
+      <c r="BF4" s="103"/>
+      <c r="BG4" s="103"/>
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="BJ4" s="133"/>
-      <c r="BK4" s="133"/>
-      <c r="BL4" s="133"/>
-      <c r="BM4" s="134">
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="103">
         <v>46031</v>
       </c>
-      <c r="BN4" s="134"/>
-      <c r="BO4" s="134"/>
-      <c r="BP4" s="135"/>
-      <c r="BQ4" s="132" t="s">
+      <c r="BN4" s="103"/>
+      <c r="BO4" s="103"/>
+      <c r="BP4" s="104"/>
+      <c r="BQ4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="BR4" s="133"/>
-      <c r="BS4" s="133"/>
-      <c r="BT4" s="133"/>
-      <c r="BU4" s="134">
+      <c r="BR4" s="106"/>
+      <c r="BS4" s="106"/>
+      <c r="BT4" s="106"/>
+      <c r="BU4" s="103">
         <v>46037</v>
       </c>
-      <c r="BV4" s="134"/>
-      <c r="BW4" s="134"/>
-      <c r="BX4" s="135"/>
-      <c r="BY4" s="132" t="s">
+      <c r="BV4" s="103"/>
+      <c r="BW4" s="103"/>
+      <c r="BX4" s="104"/>
+      <c r="BY4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="BZ4" s="133"/>
-      <c r="CA4" s="133"/>
-      <c r="CB4" s="133"/>
-      <c r="CC4" s="134">
+      <c r="BZ4" s="106"/>
+      <c r="CA4" s="106"/>
+      <c r="CB4" s="106"/>
+      <c r="CC4" s="103">
         <v>46038</v>
       </c>
-      <c r="CD4" s="134"/>
-      <c r="CE4" s="134"/>
-      <c r="CF4" s="135"/>
-      <c r="CG4" s="122" t="s">
+      <c r="CD4" s="103"/>
+      <c r="CE4" s="103"/>
+      <c r="CF4" s="104"/>
+      <c r="CG4" s="117" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="145"/>
-      <c r="B5" s="146"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="114"/>
       <c r="C5" s="18" t="s">
         <v>3</v>
       </c>
@@ -2460,10 +2460,10 @@
       <c r="CF5" s="6">
         <v>8</v>
       </c>
-      <c r="CG5" s="122"/>
+      <c r="CG5" s="117"/>
     </row>
     <row r="6" spans="1:85" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="115" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="77" t="s">
@@ -2489,16 +2489,16 @@
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
       <c r="T6" s="29"/>
-      <c r="U6" s="123" t="s">
+      <c r="U6" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
-      <c r="AB6" s="125"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="120"/>
       <c r="AC6" s="31"/>
       <c r="AD6" s="25"/>
       <c r="AE6" s="30"/>
@@ -2555,10 +2555,10 @@
       <c r="CD6" s="25"/>
       <c r="CE6" s="25"/>
       <c r="CF6" s="29"/>
-      <c r="CG6" s="122"/>
+      <c r="CG6" s="117"/>
     </row>
     <row r="7" spans="1:85" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="136"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="77" t="s">
         <v>16</v>
       </c>
@@ -2582,14 +2582,14 @@
       <c r="R7" s="36"/>
       <c r="S7" s="36"/>
       <c r="T7" s="37"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="128"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="122"/>
+      <c r="AB7" s="123"/>
       <c r="AC7" s="35"/>
       <c r="AD7" s="36"/>
       <c r="AE7" s="36"/>
@@ -2646,10 +2646,10 @@
       <c r="CD7" s="36"/>
       <c r="CE7" s="36"/>
       <c r="CF7" s="37"/>
-      <c r="CG7" s="122"/>
+      <c r="CG7" s="117"/>
     </row>
     <row r="8" spans="1:85" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="136"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="77" t="s">
         <v>17</v>
       </c>
@@ -2673,14 +2673,14 @@
       <c r="R8" s="36"/>
       <c r="S8" s="36"/>
       <c r="T8" s="37"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="128"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="122"/>
+      <c r="AB8" s="123"/>
       <c r="AC8" s="35"/>
       <c r="AD8" s="36"/>
       <c r="AE8" s="36"/>
@@ -2737,10 +2737,10 @@
       <c r="CD8" s="36"/>
       <c r="CE8" s="36"/>
       <c r="CF8" s="37"/>
-      <c r="CG8" s="122"/>
+      <c r="CG8" s="117"/>
     </row>
     <row r="9" spans="1:85" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="116" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="78" t="s">
@@ -2766,14 +2766,14 @@
       <c r="R9" s="52"/>
       <c r="S9" s="52"/>
       <c r="T9" s="53"/>
-      <c r="U9" s="126"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="128"/>
+      <c r="U9" s="121"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="123"/>
       <c r="AC9" s="52"/>
       <c r="AD9" s="52"/>
       <c r="AE9" s="41"/>
@@ -2830,10 +2830,10 @@
       <c r="CD9" s="41"/>
       <c r="CE9" s="41"/>
       <c r="CF9" s="42"/>
-      <c r="CG9" s="122"/>
+      <c r="CG9" s="117"/>
     </row>
     <row r="10" spans="1:85" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="137"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="78" t="s">
         <v>19</v>
       </c>
@@ -2857,14 +2857,14 @@
       <c r="R10" s="41"/>
       <c r="S10" s="41"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="126"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="128"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="122"/>
+      <c r="AB10" s="123"/>
       <c r="AC10" s="54"/>
       <c r="AD10" s="41"/>
       <c r="AE10" s="41"/>
@@ -2921,10 +2921,10 @@
       <c r="CD10" s="41"/>
       <c r="CE10" s="41"/>
       <c r="CF10" s="42"/>
-      <c r="CG10" s="122"/>
+      <c r="CG10" s="117"/>
     </row>
     <row r="11" spans="1:85" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="137"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="78" t="s">
         <v>20</v>
       </c>
@@ -2948,14 +2948,14 @@
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
       <c r="T11" s="42"/>
-      <c r="U11" s="126"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="127"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="128"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="122"/>
+      <c r="Y11" s="122"/>
+      <c r="Z11" s="122"/>
+      <c r="AA11" s="122"/>
+      <c r="AB11" s="123"/>
       <c r="AC11" s="40"/>
       <c r="AD11" s="41"/>
       <c r="AE11" s="52"/>
@@ -3012,16 +3012,16 @@
       <c r="CD11" s="41"/>
       <c r="CE11" s="41"/>
       <c r="CF11" s="42"/>
-      <c r="CG11" s="122"/>
+      <c r="CG11" s="117"/>
     </row>
     <row r="12" spans="1:85" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="133" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="131" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="44"/>
@@ -3041,14 +3041,14 @@
       <c r="R12" s="46"/>
       <c r="S12" s="46"/>
       <c r="T12" s="47"/>
-      <c r="U12" s="126"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="128"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="122"/>
+      <c r="AA12" s="122"/>
+      <c r="AB12" s="123"/>
       <c r="AC12" s="45"/>
       <c r="AD12" s="46"/>
       <c r="AE12" s="46"/>
@@ -3105,14 +3105,14 @@
       <c r="CD12" s="46"/>
       <c r="CE12" s="46"/>
       <c r="CF12" s="47"/>
-      <c r="CG12" s="122"/>
+      <c r="CG12" s="117"/>
     </row>
     <row r="13" spans="1:85" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="109"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="107"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="44"/>
       <c r="E13" s="45"/>
       <c r="F13" s="46"/>
@@ -3130,14 +3130,14 @@
       <c r="R13" s="46"/>
       <c r="S13" s="46"/>
       <c r="T13" s="47"/>
-      <c r="U13" s="126"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="128"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="122"/>
+      <c r="AB13" s="123"/>
       <c r="AC13" s="45"/>
       <c r="AD13" s="46"/>
       <c r="AE13" s="46"/>
@@ -3194,16 +3194,16 @@
       <c r="CD13" s="46"/>
       <c r="CE13" s="46"/>
       <c r="CF13" s="47"/>
-      <c r="CG13" s="122"/>
+      <c r="CG13" s="117"/>
     </row>
     <row r="14" spans="1:85" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="135" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="116"/>
+      <c r="C14" s="141"/>
       <c r="D14" s="55"/>
       <c r="E14" s="56"/>
       <c r="F14" s="57"/>
@@ -3221,14 +3221,14 @@
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
       <c r="T14" s="58"/>
-      <c r="U14" s="126"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="128"/>
+      <c r="U14" s="121"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="122"/>
+      <c r="AA14" s="122"/>
+      <c r="AB14" s="123"/>
       <c r="AC14" s="56"/>
       <c r="AD14" s="57"/>
       <c r="AE14" s="57"/>
@@ -3285,14 +3285,14 @@
       <c r="CD14" s="57"/>
       <c r="CE14" s="57"/>
       <c r="CF14" s="58"/>
-      <c r="CG14" s="122"/>
+      <c r="CG14" s="117"/>
     </row>
     <row r="15" spans="1:85" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="111"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="117"/>
+      <c r="C15" s="142"/>
       <c r="D15" s="55"/>
       <c r="E15" s="56"/>
       <c r="F15" s="57"/>
@@ -3310,14 +3310,14 @@
       <c r="R15" s="57"/>
       <c r="S15" s="57"/>
       <c r="T15" s="58"/>
-      <c r="U15" s="126"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="128"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="122"/>
+      <c r="W15" s="122"/>
+      <c r="X15" s="122"/>
+      <c r="Y15" s="122"/>
+      <c r="Z15" s="122"/>
+      <c r="AA15" s="122"/>
+      <c r="AB15" s="123"/>
       <c r="AC15" s="56"/>
       <c r="AD15" s="57"/>
       <c r="AE15" s="57"/>
@@ -3374,16 +3374,16 @@
       <c r="CD15" s="57"/>
       <c r="CE15" s="57"/>
       <c r="CF15" s="58"/>
-      <c r="CG15" s="122"/>
+      <c r="CG15" s="117"/>
     </row>
     <row r="16" spans="1:85" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="137" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="60"/>
       <c r="E16" s="61"/>
       <c r="F16" s="62"/>
@@ -3401,14 +3401,14 @@
       <c r="R16" s="62"/>
       <c r="S16" s="62"/>
       <c r="T16" s="63"/>
-      <c r="U16" s="126"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="128"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="122"/>
+      <c r="W16" s="122"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="122"/>
+      <c r="Z16" s="122"/>
+      <c r="AA16" s="122"/>
+      <c r="AB16" s="123"/>
       <c r="AC16" s="61"/>
       <c r="AD16" s="62"/>
       <c r="AE16" s="62"/>
@@ -3465,14 +3465,14 @@
       <c r="CD16" s="62"/>
       <c r="CE16" s="62"/>
       <c r="CF16" s="63"/>
-      <c r="CG16" s="122"/>
+      <c r="CG16" s="117"/>
     </row>
     <row r="17" spans="1:85" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="119"/>
+      <c r="C17" s="144"/>
       <c r="D17" s="60"/>
       <c r="E17" s="61"/>
       <c r="F17" s="62"/>
@@ -3490,14 +3490,14 @@
       <c r="R17" s="62"/>
       <c r="S17" s="62"/>
       <c r="T17" s="63"/>
-      <c r="U17" s="126"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="128"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="122"/>
+      <c r="W17" s="122"/>
+      <c r="X17" s="122"/>
+      <c r="Y17" s="122"/>
+      <c r="Z17" s="122"/>
+      <c r="AA17" s="122"/>
+      <c r="AB17" s="123"/>
       <c r="AC17" s="61"/>
       <c r="AD17" s="62"/>
       <c r="AE17" s="62"/>
@@ -3554,16 +3554,16 @@
       <c r="CD17" s="62"/>
       <c r="CE17" s="62"/>
       <c r="CF17" s="63"/>
-      <c r="CG17" s="122"/>
+      <c r="CG17" s="117"/>
     </row>
     <row r="18" spans="1:85" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="139" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="120"/>
+      <c r="C18" s="145"/>
       <c r="D18" s="65"/>
       <c r="E18" s="66"/>
       <c r="F18" s="67"/>
@@ -3581,14 +3581,14 @@
       <c r="R18" s="67"/>
       <c r="S18" s="67"/>
       <c r="T18" s="68"/>
-      <c r="U18" s="126"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="127"/>
-      <c r="AB18" s="128"/>
+      <c r="U18" s="121"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="122"/>
+      <c r="Z18" s="122"/>
+      <c r="AA18" s="122"/>
+      <c r="AB18" s="123"/>
       <c r="AC18" s="66"/>
       <c r="AD18" s="67"/>
       <c r="AE18" s="67"/>
@@ -3645,14 +3645,14 @@
       <c r="CD18" s="52"/>
       <c r="CE18" s="67"/>
       <c r="CF18" s="68"/>
-      <c r="CG18" s="122"/>
+      <c r="CG18" s="117"/>
     </row>
     <row r="19" spans="1:85" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="115"/>
+      <c r="A19" s="140"/>
       <c r="B19" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="121"/>
+      <c r="C19" s="146"/>
       <c r="D19" s="65"/>
       <c r="E19" s="66"/>
       <c r="F19" s="67"/>
@@ -3670,14 +3670,14 @@
       <c r="R19" s="67"/>
       <c r="S19" s="67"/>
       <c r="T19" s="68"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="127"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="128"/>
+      <c r="U19" s="121"/>
+      <c r="V19" s="122"/>
+      <c r="W19" s="122"/>
+      <c r="X19" s="122"/>
+      <c r="Y19" s="122"/>
+      <c r="Z19" s="122"/>
+      <c r="AA19" s="122"/>
+      <c r="AB19" s="123"/>
       <c r="AC19" s="66"/>
       <c r="AD19" s="67"/>
       <c r="AE19" s="67"/>
@@ -3734,10 +3734,10 @@
       <c r="CD19" s="52"/>
       <c r="CE19" s="67"/>
       <c r="CF19" s="68"/>
-      <c r="CG19" s="122"/>
+      <c r="CG19" s="117"/>
     </row>
     <row r="20" spans="1:85" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="129" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="83" t="s">
@@ -3761,14 +3761,14 @@
       <c r="R20" s="73"/>
       <c r="S20" s="73"/>
       <c r="T20" s="74"/>
-      <c r="U20" s="126"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="128"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="122"/>
+      <c r="AB20" s="123"/>
       <c r="AC20" s="72"/>
       <c r="AD20" s="73"/>
       <c r="AE20" s="73"/>
@@ -3825,10 +3825,10 @@
       <c r="CD20" s="73"/>
       <c r="CE20" s="52"/>
       <c r="CF20" s="53"/>
-      <c r="CG20" s="122"/>
+      <c r="CG20" s="117"/>
     </row>
     <row r="21" spans="1:85" s="92" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="105"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="86" t="s">
         <v>28</v>
       </c>
@@ -3850,14 +3850,14 @@
       <c r="R21" s="90"/>
       <c r="S21" s="90"/>
       <c r="T21" s="91"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="127"/>
-      <c r="W21" s="127"/>
-      <c r="X21" s="127"/>
-      <c r="Y21" s="127"/>
-      <c r="Z21" s="127"/>
-      <c r="AA21" s="127"/>
-      <c r="AB21" s="128"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="122"/>
+      <c r="X21" s="122"/>
+      <c r="Y21" s="122"/>
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="122"/>
+      <c r="AB21" s="123"/>
       <c r="AC21" s="89"/>
       <c r="AD21" s="90"/>
       <c r="AE21" s="90"/>
@@ -3914,7 +3914,7 @@
       <c r="CD21" s="90"/>
       <c r="CE21" s="90"/>
       <c r="CF21" s="91"/>
-      <c r="CG21" s="122"/>
+      <c r="CG21" s="117"/>
     </row>
     <row r="22" spans="1:85" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="93" t="s">
@@ -3939,14 +3939,14 @@
       <c r="R22" s="98"/>
       <c r="S22" s="98"/>
       <c r="T22" s="99"/>
-      <c r="U22" s="126"/>
-      <c r="V22" s="127"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="128"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="122"/>
+      <c r="W22" s="122"/>
+      <c r="X22" s="122"/>
+      <c r="Y22" s="122"/>
+      <c r="Z22" s="122"/>
+      <c r="AA22" s="122"/>
+      <c r="AB22" s="123"/>
       <c r="AC22" s="97"/>
       <c r="AD22" s="98"/>
       <c r="AE22" s="98"/>
@@ -4003,7 +4003,7 @@
       <c r="CD22" s="52"/>
       <c r="CE22" s="98"/>
       <c r="CF22" s="99"/>
-      <c r="CG22" s="122"/>
+      <c r="CG22" s="117"/>
     </row>
     <row r="23" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
@@ -4026,14 +4026,14 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="10"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="127"/>
-      <c r="W23" s="127"/>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="128"/>
+      <c r="U23" s="121"/>
+      <c r="V23" s="122"/>
+      <c r="W23" s="122"/>
+      <c r="X23" s="122"/>
+      <c r="Y23" s="122"/>
+      <c r="Z23" s="122"/>
+      <c r="AA23" s="122"/>
+      <c r="AB23" s="123"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="9"/>
       <c r="AE23" s="9"/>
@@ -4090,7 +4090,7 @@
       <c r="CD23" s="9"/>
       <c r="CE23" s="9"/>
       <c r="CF23" s="10"/>
-      <c r="CG23" s="122"/>
+      <c r="CG23" s="117"/>
     </row>
     <row r="24" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
@@ -4113,14 +4113,14 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="10"/>
-      <c r="U24" s="126"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="127"/>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="128"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="122"/>
+      <c r="W24" s="122"/>
+      <c r="X24" s="122"/>
+      <c r="Y24" s="122"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="122"/>
+      <c r="AB24" s="123"/>
       <c r="AC24" s="8"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="9"/>
@@ -4177,7 +4177,7 @@
       <c r="CD24" s="9"/>
       <c r="CE24" s="9"/>
       <c r="CF24" s="10"/>
-      <c r="CG24" s="122"/>
+      <c r="CG24" s="117"/>
     </row>
     <row r="25" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
@@ -4200,14 +4200,14 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="126"/>
-      <c r="V25" s="127"/>
-      <c r="W25" s="127"/>
-      <c r="X25" s="127"/>
-      <c r="Y25" s="127"/>
-      <c r="Z25" s="127"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="128"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="122"/>
+      <c r="W25" s="122"/>
+      <c r="X25" s="122"/>
+      <c r="Y25" s="122"/>
+      <c r="Z25" s="122"/>
+      <c r="AA25" s="122"/>
+      <c r="AB25" s="123"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9"/>
@@ -4264,7 +4264,7 @@
       <c r="CD25" s="9"/>
       <c r="CE25" s="9"/>
       <c r="CF25" s="10"/>
-      <c r="CG25" s="122"/>
+      <c r="CG25" s="117"/>
     </row>
     <row r="26" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A26" s="24"/>
@@ -4287,14 +4287,14 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="127"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="128"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="122"/>
+      <c r="W26" s="122"/>
+      <c r="X26" s="122"/>
+      <c r="Y26" s="122"/>
+      <c r="Z26" s="122"/>
+      <c r="AA26" s="122"/>
+      <c r="AB26" s="123"/>
       <c r="AC26" s="8"/>
       <c r="AD26" s="9"/>
       <c r="AE26" s="9"/>
@@ -4351,7 +4351,7 @@
       <c r="CD26" s="9"/>
       <c r="CE26" s="9"/>
       <c r="CF26" s="10"/>
-      <c r="CG26" s="122"/>
+      <c r="CG26" s="117"/>
     </row>
     <row r="27" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
@@ -4374,14 +4374,14 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="127"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="127"/>
-      <c r="Z27" s="127"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="128"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="122"/>
+      <c r="W27" s="122"/>
+      <c r="X27" s="122"/>
+      <c r="Y27" s="122"/>
+      <c r="Z27" s="122"/>
+      <c r="AA27" s="122"/>
+      <c r="AB27" s="123"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="9"/>
       <c r="AE27" s="9"/>
@@ -4438,7 +4438,7 @@
       <c r="CD27" s="9"/>
       <c r="CE27" s="9"/>
       <c r="CF27" s="10"/>
-      <c r="CG27" s="122"/>
+      <c r="CG27" s="117"/>
     </row>
     <row r="28" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
@@ -4461,14 +4461,14 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="126"/>
-      <c r="V28" s="127"/>
-      <c r="W28" s="127"/>
-      <c r="X28" s="127"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="127"/>
-      <c r="AB28" s="128"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="122"/>
+      <c r="W28" s="122"/>
+      <c r="X28" s="122"/>
+      <c r="Y28" s="122"/>
+      <c r="Z28" s="122"/>
+      <c r="AA28" s="122"/>
+      <c r="AB28" s="123"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="9"/>
       <c r="AE28" s="9"/>
@@ -4525,7 +4525,7 @@
       <c r="CD28" s="9"/>
       <c r="CE28" s="9"/>
       <c r="CF28" s="10"/>
-      <c r="CG28" s="122"/>
+      <c r="CG28" s="117"/>
     </row>
     <row r="29" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
@@ -4548,14 +4548,14 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="126"/>
-      <c r="V29" s="127"/>
-      <c r="W29" s="127"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="127"/>
-      <c r="Z29" s="127"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="128"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="122"/>
+      <c r="W29" s="122"/>
+      <c r="X29" s="122"/>
+      <c r="Y29" s="122"/>
+      <c r="Z29" s="122"/>
+      <c r="AA29" s="122"/>
+      <c r="AB29" s="123"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="9"/>
       <c r="AE29" s="9"/>
@@ -4612,7 +4612,7 @@
       <c r="CD29" s="9"/>
       <c r="CE29" s="9"/>
       <c r="CF29" s="10"/>
-      <c r="CG29" s="122"/>
+      <c r="CG29" s="117"/>
     </row>
     <row r="30" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
@@ -4635,14 +4635,14 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="126"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="127"/>
-      <c r="Z30" s="127"/>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="128"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="122"/>
+      <c r="W30" s="122"/>
+      <c r="X30" s="122"/>
+      <c r="Y30" s="122"/>
+      <c r="Z30" s="122"/>
+      <c r="AA30" s="122"/>
+      <c r="AB30" s="123"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="9"/>
       <c r="AE30" s="9"/>
@@ -4699,7 +4699,7 @@
       <c r="CD30" s="9"/>
       <c r="CE30" s="9"/>
       <c r="CF30" s="10"/>
-      <c r="CG30" s="122"/>
+      <c r="CG30" s="117"/>
     </row>
     <row r="31" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
@@ -4722,14 +4722,14 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="127"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="128"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="122"/>
+      <c r="X31" s="122"/>
+      <c r="Y31" s="122"/>
+      <c r="Z31" s="122"/>
+      <c r="AA31" s="122"/>
+      <c r="AB31" s="123"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="9"/>
       <c r="AE31" s="9"/>
@@ -4786,7 +4786,7 @@
       <c r="CD31" s="9"/>
       <c r="CE31" s="9"/>
       <c r="CF31" s="10"/>
-      <c r="CG31" s="122"/>
+      <c r="CG31" s="117"/>
     </row>
     <row r="32" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
@@ -4809,14 +4809,14 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="126"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="128"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="122"/>
+      <c r="W32" s="122"/>
+      <c r="X32" s="122"/>
+      <c r="Y32" s="122"/>
+      <c r="Z32" s="122"/>
+      <c r="AA32" s="122"/>
+      <c r="AB32" s="123"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="9"/>
       <c r="AE32" s="9"/>
@@ -4873,7 +4873,7 @@
       <c r="CD32" s="9"/>
       <c r="CE32" s="9"/>
       <c r="CF32" s="10"/>
-      <c r="CG32" s="122"/>
+      <c r="CG32" s="117"/>
     </row>
     <row r="33" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
@@ -4896,14 +4896,14 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="126"/>
-      <c r="V33" s="127"/>
-      <c r="W33" s="127"/>
-      <c r="X33" s="127"/>
-      <c r="Y33" s="127"/>
-      <c r="Z33" s="127"/>
-      <c r="AA33" s="127"/>
-      <c r="AB33" s="128"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="122"/>
+      <c r="W33" s="122"/>
+      <c r="X33" s="122"/>
+      <c r="Y33" s="122"/>
+      <c r="Z33" s="122"/>
+      <c r="AA33" s="122"/>
+      <c r="AB33" s="123"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="9"/>
       <c r="AE33" s="9"/>
@@ -4960,7 +4960,7 @@
       <c r="CD33" s="9"/>
       <c r="CE33" s="9"/>
       <c r="CF33" s="10"/>
-      <c r="CG33" s="122"/>
+      <c r="CG33" s="117"/>
     </row>
     <row r="34" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
@@ -4983,14 +4983,14 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="126"/>
-      <c r="V34" s="127"/>
-      <c r="W34" s="127"/>
-      <c r="X34" s="127"/>
-      <c r="Y34" s="127"/>
-      <c r="Z34" s="127"/>
-      <c r="AA34" s="127"/>
-      <c r="AB34" s="128"/>
+      <c r="U34" s="121"/>
+      <c r="V34" s="122"/>
+      <c r="W34" s="122"/>
+      <c r="X34" s="122"/>
+      <c r="Y34" s="122"/>
+      <c r="Z34" s="122"/>
+      <c r="AA34" s="122"/>
+      <c r="AB34" s="123"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="9"/>
       <c r="AE34" s="9"/>
@@ -5047,7 +5047,7 @@
       <c r="CD34" s="9"/>
       <c r="CE34" s="9"/>
       <c r="CF34" s="10"/>
-      <c r="CG34" s="122"/>
+      <c r="CG34" s="117"/>
     </row>
     <row r="35" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
@@ -5070,14 +5070,14 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="126"/>
-      <c r="V35" s="127"/>
-      <c r="W35" s="127"/>
-      <c r="X35" s="127"/>
-      <c r="Y35" s="127"/>
-      <c r="Z35" s="127"/>
-      <c r="AA35" s="127"/>
-      <c r="AB35" s="128"/>
+      <c r="U35" s="121"/>
+      <c r="V35" s="122"/>
+      <c r="W35" s="122"/>
+      <c r="X35" s="122"/>
+      <c r="Y35" s="122"/>
+      <c r="Z35" s="122"/>
+      <c r="AA35" s="122"/>
+      <c r="AB35" s="123"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
@@ -5134,7 +5134,7 @@
       <c r="CD35" s="9"/>
       <c r="CE35" s="9"/>
       <c r="CF35" s="10"/>
-      <c r="CG35" s="122"/>
+      <c r="CG35" s="117"/>
     </row>
     <row r="36" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
@@ -5157,14 +5157,14 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="126"/>
-      <c r="V36" s="127"/>
-      <c r="W36" s="127"/>
-      <c r="X36" s="127"/>
-      <c r="Y36" s="127"/>
-      <c r="Z36" s="127"/>
-      <c r="AA36" s="127"/>
-      <c r="AB36" s="128"/>
+      <c r="U36" s="121"/>
+      <c r="V36" s="122"/>
+      <c r="W36" s="122"/>
+      <c r="X36" s="122"/>
+      <c r="Y36" s="122"/>
+      <c r="Z36" s="122"/>
+      <c r="AA36" s="122"/>
+      <c r="AB36" s="123"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -5221,7 +5221,7 @@
       <c r="CD36" s="9"/>
       <c r="CE36" s="9"/>
       <c r="CF36" s="10"/>
-      <c r="CG36" s="122"/>
+      <c r="CG36" s="117"/>
     </row>
     <row r="37" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
@@ -5244,14 +5244,14 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="126"/>
-      <c r="V37" s="127"/>
-      <c r="W37" s="127"/>
-      <c r="X37" s="127"/>
-      <c r="Y37" s="127"/>
-      <c r="Z37" s="127"/>
-      <c r="AA37" s="127"/>
-      <c r="AB37" s="128"/>
+      <c r="U37" s="121"/>
+      <c r="V37" s="122"/>
+      <c r="W37" s="122"/>
+      <c r="X37" s="122"/>
+      <c r="Y37" s="122"/>
+      <c r="Z37" s="122"/>
+      <c r="AA37" s="122"/>
+      <c r="AB37" s="123"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -5308,7 +5308,7 @@
       <c r="CD37" s="9"/>
       <c r="CE37" s="9"/>
       <c r="CF37" s="10"/>
-      <c r="CG37" s="122"/>
+      <c r="CG37" s="117"/>
     </row>
     <row r="38" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A38" s="24"/>
@@ -5331,14 +5331,14 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="126"/>
-      <c r="V38" s="127"/>
-      <c r="W38" s="127"/>
-      <c r="X38" s="127"/>
-      <c r="Y38" s="127"/>
-      <c r="Z38" s="127"/>
-      <c r="AA38" s="127"/>
-      <c r="AB38" s="128"/>
+      <c r="U38" s="121"/>
+      <c r="V38" s="122"/>
+      <c r="W38" s="122"/>
+      <c r="X38" s="122"/>
+      <c r="Y38" s="122"/>
+      <c r="Z38" s="122"/>
+      <c r="AA38" s="122"/>
+      <c r="AB38" s="123"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="9"/>
       <c r="AE38" s="9"/>
@@ -5395,7 +5395,7 @@
       <c r="CD38" s="9"/>
       <c r="CE38" s="9"/>
       <c r="CF38" s="10"/>
-      <c r="CG38" s="122"/>
+      <c r="CG38" s="117"/>
     </row>
     <row r="39" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
@@ -5418,14 +5418,14 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="10"/>
-      <c r="U39" s="126"/>
-      <c r="V39" s="127"/>
-      <c r="W39" s="127"/>
-      <c r="X39" s="127"/>
-      <c r="Y39" s="127"/>
-      <c r="Z39" s="127"/>
-      <c r="AA39" s="127"/>
-      <c r="AB39" s="128"/>
+      <c r="U39" s="121"/>
+      <c r="V39" s="122"/>
+      <c r="W39" s="122"/>
+      <c r="X39" s="122"/>
+      <c r="Y39" s="122"/>
+      <c r="Z39" s="122"/>
+      <c r="AA39" s="122"/>
+      <c r="AB39" s="123"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="9"/>
       <c r="AE39" s="9"/>
@@ -5482,7 +5482,7 @@
       <c r="CD39" s="9"/>
       <c r="CE39" s="9"/>
       <c r="CF39" s="10"/>
-      <c r="CG39" s="122"/>
+      <c r="CG39" s="117"/>
     </row>
     <row r="40" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
@@ -5505,14 +5505,14 @@
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
       <c r="T40" s="14"/>
-      <c r="U40" s="129"/>
-      <c r="V40" s="130"/>
-      <c r="W40" s="130"/>
-      <c r="X40" s="130"/>
-      <c r="Y40" s="130"/>
-      <c r="Z40" s="130"/>
-      <c r="AA40" s="130"/>
-      <c r="AB40" s="131"/>
+      <c r="U40" s="124"/>
+      <c r="V40" s="125"/>
+      <c r="W40" s="125"/>
+      <c r="X40" s="125"/>
+      <c r="Y40" s="125"/>
+      <c r="Z40" s="125"/>
+      <c r="AA40" s="125"/>
+      <c r="AB40" s="126"/>
       <c r="AC40" s="12"/>
       <c r="AD40" s="13"/>
       <c r="AE40" s="13"/>
@@ -5569,105 +5569,115 @@
       <c r="CD40" s="13"/>
       <c r="CE40" s="13"/>
       <c r="CF40" s="14"/>
-      <c r="CG40" s="122"/>
+      <c r="CG40" s="117"/>
     </row>
     <row r="41" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A41" s="102" t="s">
+      <c r="A41" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-      <c r="M41" s="103"/>
-      <c r="N41" s="103"/>
-      <c r="O41" s="103"/>
-      <c r="P41" s="103"/>
-      <c r="Q41" s="103"/>
-      <c r="R41" s="103"/>
-      <c r="S41" s="103"/>
-      <c r="T41" s="103"/>
-      <c r="U41" s="103"/>
-      <c r="V41" s="103"/>
-      <c r="W41" s="103"/>
-      <c r="X41" s="103"/>
-      <c r="Y41" s="103"/>
-      <c r="Z41" s="103"/>
-      <c r="AA41" s="103"/>
-      <c r="AB41" s="103"/>
-      <c r="AC41" s="103"/>
-      <c r="AD41" s="103"/>
-      <c r="AE41" s="103"/>
-      <c r="AF41" s="103"/>
-      <c r="AG41" s="103"/>
-      <c r="AH41" s="103"/>
-      <c r="AI41" s="103"/>
-      <c r="AJ41" s="103"/>
-      <c r="AK41" s="103"/>
-      <c r="AL41" s="103"/>
-      <c r="AM41" s="103"/>
-      <c r="AN41" s="103"/>
-      <c r="AO41" s="103"/>
-      <c r="AP41" s="103"/>
-      <c r="AQ41" s="103"/>
-      <c r="AR41" s="103"/>
-      <c r="AS41" s="103"/>
-      <c r="AT41" s="103"/>
-      <c r="AU41" s="103"/>
-      <c r="AV41" s="103"/>
-      <c r="AW41" s="103"/>
-      <c r="AX41" s="103"/>
-      <c r="AY41" s="103"/>
-      <c r="AZ41" s="103"/>
-      <c r="BA41" s="103"/>
-      <c r="BB41" s="103"/>
-      <c r="BC41" s="103"/>
-      <c r="BD41" s="103"/>
-      <c r="BE41" s="103"/>
-      <c r="BF41" s="103"/>
-      <c r="BG41" s="103"/>
-      <c r="BH41" s="103"/>
-      <c r="BI41" s="103"/>
-      <c r="BJ41" s="103"/>
-      <c r="BK41" s="103"/>
-      <c r="BL41" s="103"/>
-      <c r="BM41" s="103"/>
-      <c r="BN41" s="103"/>
-      <c r="BO41" s="103"/>
-      <c r="BP41" s="103"/>
-      <c r="BQ41" s="103"/>
-      <c r="BR41" s="103"/>
-      <c r="BS41" s="103"/>
-      <c r="BT41" s="103"/>
-      <c r="BU41" s="103"/>
-      <c r="BV41" s="103"/>
-      <c r="BW41" s="103"/>
-      <c r="BX41" s="103"/>
-      <c r="BY41" s="103"/>
-      <c r="BZ41" s="103"/>
-      <c r="CA41" s="103"/>
-      <c r="CB41" s="103"/>
-      <c r="CC41" s="103"/>
-      <c r="CD41" s="103"/>
-      <c r="CE41" s="103"/>
-      <c r="CF41" s="103"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
+      <c r="M41" s="128"/>
+      <c r="N41" s="128"/>
+      <c r="O41" s="128"/>
+      <c r="P41" s="128"/>
+      <c r="Q41" s="128"/>
+      <c r="R41" s="128"/>
+      <c r="S41" s="128"/>
+      <c r="T41" s="128"/>
+      <c r="U41" s="128"/>
+      <c r="V41" s="128"/>
+      <c r="W41" s="128"/>
+      <c r="X41" s="128"/>
+      <c r="Y41" s="128"/>
+      <c r="Z41" s="128"/>
+      <c r="AA41" s="128"/>
+      <c r="AB41" s="128"/>
+      <c r="AC41" s="128"/>
+      <c r="AD41" s="128"/>
+      <c r="AE41" s="128"/>
+      <c r="AF41" s="128"/>
+      <c r="AG41" s="128"/>
+      <c r="AH41" s="128"/>
+      <c r="AI41" s="128"/>
+      <c r="AJ41" s="128"/>
+      <c r="AK41" s="128"/>
+      <c r="AL41" s="128"/>
+      <c r="AM41" s="128"/>
+      <c r="AN41" s="128"/>
+      <c r="AO41" s="128"/>
+      <c r="AP41" s="128"/>
+      <c r="AQ41" s="128"/>
+      <c r="AR41" s="128"/>
+      <c r="AS41" s="128"/>
+      <c r="AT41" s="128"/>
+      <c r="AU41" s="128"/>
+      <c r="AV41" s="128"/>
+      <c r="AW41" s="128"/>
+      <c r="AX41" s="128"/>
+      <c r="AY41" s="128"/>
+      <c r="AZ41" s="128"/>
+      <c r="BA41" s="128"/>
+      <c r="BB41" s="128"/>
+      <c r="BC41" s="128"/>
+      <c r="BD41" s="128"/>
+      <c r="BE41" s="128"/>
+      <c r="BF41" s="128"/>
+      <c r="BG41" s="128"/>
+      <c r="BH41" s="128"/>
+      <c r="BI41" s="128"/>
+      <c r="BJ41" s="128"/>
+      <c r="BK41" s="128"/>
+      <c r="BL41" s="128"/>
+      <c r="BM41" s="128"/>
+      <c r="BN41" s="128"/>
+      <c r="BO41" s="128"/>
+      <c r="BP41" s="128"/>
+      <c r="BQ41" s="128"/>
+      <c r="BR41" s="128"/>
+      <c r="BS41" s="128"/>
+      <c r="BT41" s="128"/>
+      <c r="BU41" s="128"/>
+      <c r="BV41" s="128"/>
+      <c r="BW41" s="128"/>
+      <c r="BX41" s="128"/>
+      <c r="BY41" s="128"/>
+      <c r="BZ41" s="128"/>
+      <c r="CA41" s="128"/>
+      <c r="CB41" s="128"/>
+      <c r="CC41" s="128"/>
+      <c r="CD41" s="128"/>
+      <c r="CE41" s="128"/>
+      <c r="CF41" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="E2:AR3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A41:CF41"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="CG4:CG40"/>
+    <mergeCell ref="U6:AB40"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="CC4:CF4"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="AS2:CF3"/>
@@ -5683,23 +5693,13 @@
     <mergeCell ref="BU4:BX4"/>
     <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="BY4:CB4"/>
-    <mergeCell ref="CG4:CG40"/>
-    <mergeCell ref="U6:AB40"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="CC4:CF4"/>
-    <mergeCell ref="A41:CF41"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="E2:AR3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B5"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="C6:C12 C14 C16 C18 C20:C40">
@@ -5728,14 +5728,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5952,23 +5950,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5993,9 +5988,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_Modele_PlanningJeudiVendredi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="314" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{133EF519-9273-438B-912C-43126574751F}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F6D148D-30DA-4DD1-ACF3-1B4E63084104}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Tâches</t>
   </si>
@@ -798,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1164,34 +1164,138 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1213,134 +1317,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1400,15 +1376,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19840</xdr:colOff>
+      <xdr:colOff>301137</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>8251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>124238</xdr:colOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>148828</xdr:rowOff>
+      <xdr:rowOff>158814</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1423,8 +1399,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4285383" y="704022"/>
-          <a:ext cx="9414051" cy="6104023"/>
+          <a:off x="4568337" y="703576"/>
+          <a:ext cx="10404963" cy="5979863"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1839,11 +1815,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AJ6" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" sqref="A1:B1"/>
+      <selection pane="bottomRight" activeCell="AS2" sqref="AS2:CF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1859,10 +1835,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="102"/>
+      <c r="B1" s="134"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="1"/>
@@ -1907,313 +1883,313 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:85" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="110"/>
+      <c r="B2" s="136"/>
       <c r="C2" s="22"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="107"/>
-      <c r="AR2" s="107"/>
-      <c r="AS2" s="107"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="107"/>
-      <c r="BA2" s="107"/>
-      <c r="BB2" s="107"/>
-      <c r="BC2" s="107"/>
-      <c r="BD2" s="107"/>
-      <c r="BE2" s="107"/>
-      <c r="BF2" s="107"/>
-      <c r="BG2" s="107"/>
-      <c r="BH2" s="107"/>
-      <c r="BI2" s="107"/>
-      <c r="BJ2" s="107"/>
-      <c r="BK2" s="107"/>
-      <c r="BL2" s="107"/>
-      <c r="BM2" s="107"/>
-      <c r="BN2" s="107"/>
-      <c r="BO2" s="107"/>
-      <c r="BP2" s="107"/>
-      <c r="BQ2" s="107"/>
-      <c r="BR2" s="107"/>
-      <c r="BS2" s="107"/>
-      <c r="BT2" s="107"/>
-      <c r="BU2" s="107"/>
-      <c r="BV2" s="107"/>
-      <c r="BW2" s="107"/>
-      <c r="BX2" s="107"/>
-      <c r="BY2" s="107"/>
-      <c r="BZ2" s="107"/>
-      <c r="CA2" s="107"/>
-      <c r="CB2" s="107"/>
-      <c r="CC2" s="107"/>
-      <c r="CD2" s="107"/>
-      <c r="CE2" s="107"/>
-      <c r="CF2" s="107"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="132"/>
+      <c r="AI2" s="132"/>
+      <c r="AJ2" s="132"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="132"/>
+      <c r="AM2" s="132"/>
+      <c r="AN2" s="132"/>
+      <c r="AO2" s="132"/>
+      <c r="AP2" s="132"/>
+      <c r="AQ2" s="132"/>
+      <c r="AR2" s="132"/>
+      <c r="AS2" s="132"/>
+      <c r="AT2" s="132"/>
+      <c r="AU2" s="132"/>
+      <c r="AV2" s="132"/>
+      <c r="AW2" s="132"/>
+      <c r="AX2" s="132"/>
+      <c r="AY2" s="132"/>
+      <c r="AZ2" s="132"/>
+      <c r="BA2" s="132"/>
+      <c r="BB2" s="132"/>
+      <c r="BC2" s="132"/>
+      <c r="BD2" s="132"/>
+      <c r="BE2" s="132"/>
+      <c r="BF2" s="132"/>
+      <c r="BG2" s="132"/>
+      <c r="BH2" s="132"/>
+      <c r="BI2" s="132"/>
+      <c r="BJ2" s="132"/>
+      <c r="BK2" s="132"/>
+      <c r="BL2" s="132"/>
+      <c r="BM2" s="132"/>
+      <c r="BN2" s="132"/>
+      <c r="BO2" s="132"/>
+      <c r="BP2" s="132"/>
+      <c r="BQ2" s="132"/>
+      <c r="BR2" s="132"/>
+      <c r="BS2" s="132"/>
+      <c r="BT2" s="132"/>
+      <c r="BU2" s="132"/>
+      <c r="BV2" s="132"/>
+      <c r="BW2" s="132"/>
+      <c r="BX2" s="132"/>
+      <c r="BY2" s="132"/>
+      <c r="BZ2" s="132"/>
+      <c r="CA2" s="132"/>
+      <c r="CB2" s="132"/>
+      <c r="CC2" s="132"/>
+      <c r="CD2" s="132"/>
+      <c r="CE2" s="132"/>
+      <c r="CF2" s="132"/>
     </row>
     <row r="3" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108"/>
-      <c r="AQ3" s="108"/>
-      <c r="AR3" s="108"/>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="108"/>
-      <c r="AU3" s="108"/>
-      <c r="AV3" s="108"/>
-      <c r="AW3" s="108"/>
-      <c r="AX3" s="108"/>
-      <c r="AY3" s="108"/>
-      <c r="AZ3" s="108"/>
-      <c r="BA3" s="108"/>
-      <c r="BB3" s="108"/>
-      <c r="BC3" s="108"/>
-      <c r="BD3" s="108"/>
-      <c r="BE3" s="108"/>
-      <c r="BF3" s="108"/>
-      <c r="BG3" s="108"/>
-      <c r="BH3" s="108"/>
-      <c r="BI3" s="108"/>
-      <c r="BJ3" s="108"/>
-      <c r="BK3" s="108"/>
-      <c r="BL3" s="108"/>
-      <c r="BM3" s="108"/>
-      <c r="BN3" s="108"/>
-      <c r="BO3" s="108"/>
-      <c r="BP3" s="108"/>
-      <c r="BQ3" s="108"/>
-      <c r="BR3" s="108"/>
-      <c r="BS3" s="108"/>
-      <c r="BT3" s="108"/>
-      <c r="BU3" s="108"/>
-      <c r="BV3" s="108"/>
-      <c r="BW3" s="108"/>
-      <c r="BX3" s="108"/>
-      <c r="BY3" s="108"/>
-      <c r="BZ3" s="108"/>
-      <c r="CA3" s="108"/>
-      <c r="CB3" s="108"/>
-      <c r="CC3" s="108"/>
-      <c r="CD3" s="108"/>
-      <c r="CE3" s="108"/>
-      <c r="CF3" s="108"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="133"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="133"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="133"/>
+      <c r="AG3" s="133"/>
+      <c r="AH3" s="133"/>
+      <c r="AI3" s="133"/>
+      <c r="AJ3" s="133"/>
+      <c r="AK3" s="133"/>
+      <c r="AL3" s="133"/>
+      <c r="AM3" s="133"/>
+      <c r="AN3" s="133"/>
+      <c r="AO3" s="133"/>
+      <c r="AP3" s="133"/>
+      <c r="AQ3" s="133"/>
+      <c r="AR3" s="133"/>
+      <c r="AS3" s="133"/>
+      <c r="AT3" s="133"/>
+      <c r="AU3" s="133"/>
+      <c r="AV3" s="133"/>
+      <c r="AW3" s="133"/>
+      <c r="AX3" s="133"/>
+      <c r="AY3" s="133"/>
+      <c r="AZ3" s="133"/>
+      <c r="BA3" s="133"/>
+      <c r="BB3" s="133"/>
+      <c r="BC3" s="133"/>
+      <c r="BD3" s="133"/>
+      <c r="BE3" s="133"/>
+      <c r="BF3" s="133"/>
+      <c r="BG3" s="133"/>
+      <c r="BH3" s="133"/>
+      <c r="BI3" s="133"/>
+      <c r="BJ3" s="133"/>
+      <c r="BK3" s="133"/>
+      <c r="BL3" s="133"/>
+      <c r="BM3" s="133"/>
+      <c r="BN3" s="133"/>
+      <c r="BO3" s="133"/>
+      <c r="BP3" s="133"/>
+      <c r="BQ3" s="133"/>
+      <c r="BR3" s="133"/>
+      <c r="BS3" s="133"/>
+      <c r="BT3" s="133"/>
+      <c r="BU3" s="133"/>
+      <c r="BV3" s="133"/>
+      <c r="BW3" s="133"/>
+      <c r="BX3" s="133"/>
+      <c r="BY3" s="133"/>
+      <c r="BZ3" s="133"/>
+      <c r="CA3" s="133"/>
+      <c r="CB3" s="133"/>
+      <c r="CC3" s="133"/>
+      <c r="CD3" s="133"/>
+      <c r="CE3" s="133"/>
+      <c r="CF3" s="133"/>
     </row>
     <row r="4" spans="1:85" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="138"/>
       <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="103">
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="128">
         <v>45995</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="105" t="s">
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="103">
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="128">
         <v>45996</v>
       </c>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="105" t="s">
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="103">
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="128">
         <v>46002</v>
       </c>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="105" t="s">
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="103">
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="127"/>
+      <c r="AG4" s="128">
         <v>46003</v>
       </c>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="105" t="s">
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="128"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="103">
+      <c r="AL4" s="127"/>
+      <c r="AM4" s="127"/>
+      <c r="AN4" s="127"/>
+      <c r="AO4" s="128">
         <v>46009</v>
       </c>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="105" t="s">
+      <c r="AP4" s="128"/>
+      <c r="AQ4" s="128"/>
+      <c r="AR4" s="129"/>
+      <c r="AS4" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="103">
+      <c r="AT4" s="127"/>
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="127"/>
+      <c r="AW4" s="128">
         <v>46010</v>
       </c>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="105" t="s">
+      <c r="AX4" s="128"/>
+      <c r="AY4" s="128"/>
+      <c r="AZ4" s="129"/>
+      <c r="BA4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="103">
+      <c r="BB4" s="127"/>
+      <c r="BC4" s="127"/>
+      <c r="BD4" s="127"/>
+      <c r="BE4" s="128">
         <v>46030</v>
       </c>
-      <c r="BF4" s="103"/>
-      <c r="BG4" s="103"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="105" t="s">
+      <c r="BF4" s="128"/>
+      <c r="BG4" s="128"/>
+      <c r="BH4" s="129"/>
+      <c r="BI4" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="103">
+      <c r="BJ4" s="127"/>
+      <c r="BK4" s="127"/>
+      <c r="BL4" s="127"/>
+      <c r="BM4" s="128">
         <v>46031</v>
       </c>
-      <c r="BN4" s="103"/>
-      <c r="BO4" s="103"/>
-      <c r="BP4" s="104"/>
-      <c r="BQ4" s="105" t="s">
+      <c r="BN4" s="128"/>
+      <c r="BO4" s="128"/>
+      <c r="BP4" s="129"/>
+      <c r="BQ4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="BR4" s="106"/>
-      <c r="BS4" s="106"/>
-      <c r="BT4" s="106"/>
-      <c r="BU4" s="103">
+      <c r="BR4" s="127"/>
+      <c r="BS4" s="127"/>
+      <c r="BT4" s="127"/>
+      <c r="BU4" s="128">
         <v>46037</v>
       </c>
-      <c r="BV4" s="103"/>
-      <c r="BW4" s="103"/>
-      <c r="BX4" s="104"/>
-      <c r="BY4" s="105" t="s">
+      <c r="BV4" s="128"/>
+      <c r="BW4" s="128"/>
+      <c r="BX4" s="129"/>
+      <c r="BY4" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="BZ4" s="106"/>
-      <c r="CA4" s="106"/>
-      <c r="CB4" s="106"/>
-      <c r="CC4" s="103">
+      <c r="BZ4" s="127"/>
+      <c r="CA4" s="127"/>
+      <c r="CB4" s="127"/>
+      <c r="CC4" s="128">
         <v>46038</v>
       </c>
-      <c r="CD4" s="103"/>
-      <c r="CE4" s="103"/>
-      <c r="CF4" s="104"/>
-      <c r="CG4" s="117" t="s">
+      <c r="CD4" s="128"/>
+      <c r="CE4" s="128"/>
+      <c r="CF4" s="129"/>
+      <c r="CG4" s="116" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
-      <c r="B5" s="114"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="18" t="s">
         <v>3</v>
       </c>
@@ -2460,10 +2436,10 @@
       <c r="CF5" s="6">
         <v>8</v>
       </c>
-      <c r="CG5" s="117"/>
+      <c r="CG5" s="116"/>
     </row>
     <row r="6" spans="1:85" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="130" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="77" t="s">
@@ -2489,16 +2465,16 @@
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
       <c r="T6" s="29"/>
-      <c r="U6" s="118" t="s">
+      <c r="U6" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="120"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="118"/>
+      <c r="Y6" s="118"/>
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="118"/>
+      <c r="AB6" s="119"/>
       <c r="AC6" s="31"/>
       <c r="AD6" s="25"/>
       <c r="AE6" s="30"/>
@@ -2555,10 +2531,10 @@
       <c r="CD6" s="25"/>
       <c r="CE6" s="25"/>
       <c r="CF6" s="29"/>
-      <c r="CG6" s="117"/>
+      <c r="CG6" s="116"/>
     </row>
     <row r="7" spans="1:85" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="115"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="77" t="s">
         <v>16</v>
       </c>
@@ -2582,14 +2558,14 @@
       <c r="R7" s="36"/>
       <c r="S7" s="36"/>
       <c r="T7" s="37"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="123"/>
+      <c r="U7" s="120"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="122"/>
       <c r="AC7" s="35"/>
       <c r="AD7" s="36"/>
       <c r="AE7" s="36"/>
@@ -2646,10 +2622,10 @@
       <c r="CD7" s="36"/>
       <c r="CE7" s="36"/>
       <c r="CF7" s="37"/>
-      <c r="CG7" s="117"/>
+      <c r="CG7" s="116"/>
     </row>
     <row r="8" spans="1:85" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="115"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="77" t="s">
         <v>17</v>
       </c>
@@ -2673,14 +2649,14 @@
       <c r="R8" s="36"/>
       <c r="S8" s="36"/>
       <c r="T8" s="37"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="122"/>
-      <c r="W8" s="122"/>
-      <c r="X8" s="122"/>
-      <c r="Y8" s="122"/>
-      <c r="Z8" s="122"/>
-      <c r="AA8" s="122"/>
-      <c r="AB8" s="123"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="121"/>
+      <c r="W8" s="121"/>
+      <c r="X8" s="121"/>
+      <c r="Y8" s="121"/>
+      <c r="Z8" s="121"/>
+      <c r="AA8" s="121"/>
+      <c r="AB8" s="122"/>
       <c r="AC8" s="35"/>
       <c r="AD8" s="36"/>
       <c r="AE8" s="36"/>
@@ -2737,10 +2713,10 @@
       <c r="CD8" s="36"/>
       <c r="CE8" s="36"/>
       <c r="CF8" s="37"/>
-      <c r="CG8" s="117"/>
+      <c r="CG8" s="116"/>
     </row>
     <row r="9" spans="1:85" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="131" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="78" t="s">
@@ -2766,14 +2742,14 @@
       <c r="R9" s="52"/>
       <c r="S9" s="52"/>
       <c r="T9" s="53"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="123"/>
+      <c r="U9" s="120"/>
+      <c r="V9" s="121"/>
+      <c r="W9" s="121"/>
+      <c r="X9" s="121"/>
+      <c r="Y9" s="121"/>
+      <c r="Z9" s="121"/>
+      <c r="AA9" s="121"/>
+      <c r="AB9" s="122"/>
       <c r="AC9" s="52"/>
       <c r="AD9" s="52"/>
       <c r="AE9" s="41"/>
@@ -2830,10 +2806,10 @@
       <c r="CD9" s="41"/>
       <c r="CE9" s="41"/>
       <c r="CF9" s="42"/>
-      <c r="CG9" s="117"/>
+      <c r="CG9" s="116"/>
     </row>
     <row r="10" spans="1:85" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="78" t="s">
         <v>19</v>
       </c>
@@ -2857,14 +2833,14 @@
       <c r="R10" s="41"/>
       <c r="S10" s="41"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="122"/>
-      <c r="AB10" s="123"/>
+      <c r="U10" s="120"/>
+      <c r="V10" s="121"/>
+      <c r="W10" s="121"/>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="121"/>
+      <c r="Z10" s="121"/>
+      <c r="AA10" s="121"/>
+      <c r="AB10" s="122"/>
       <c r="AC10" s="54"/>
       <c r="AD10" s="41"/>
       <c r="AE10" s="41"/>
@@ -2921,10 +2897,10 @@
       <c r="CD10" s="41"/>
       <c r="CE10" s="41"/>
       <c r="CF10" s="42"/>
-      <c r="CG10" s="117"/>
+      <c r="CG10" s="116"/>
     </row>
     <row r="11" spans="1:85" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="116"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="78" t="s">
         <v>20</v>
       </c>
@@ -2948,14 +2924,14 @@
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
       <c r="T11" s="42"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="122"/>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="122"/>
-      <c r="AA11" s="122"/>
-      <c r="AB11" s="123"/>
+      <c r="U11" s="120"/>
+      <c r="V11" s="121"/>
+      <c r="W11" s="121"/>
+      <c r="X11" s="121"/>
+      <c r="Y11" s="121"/>
+      <c r="Z11" s="121"/>
+      <c r="AA11" s="121"/>
+      <c r="AB11" s="122"/>
       <c r="AC11" s="40"/>
       <c r="AD11" s="41"/>
       <c r="AE11" s="52"/>
@@ -3012,16 +2988,16 @@
       <c r="CD11" s="41"/>
       <c r="CE11" s="41"/>
       <c r="CF11" s="42"/>
-      <c r="CG11" s="117"/>
+      <c r="CG11" s="116"/>
     </row>
     <row r="12" spans="1:85" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="108" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="106" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="44"/>
@@ -3041,14 +3017,14 @@
       <c r="R12" s="46"/>
       <c r="S12" s="46"/>
       <c r="T12" s="47"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="122"/>
-      <c r="AA12" s="122"/>
-      <c r="AB12" s="123"/>
+      <c r="U12" s="120"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="121"/>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="122"/>
       <c r="AC12" s="45"/>
       <c r="AD12" s="46"/>
       <c r="AE12" s="46"/>
@@ -3105,14 +3081,14 @@
       <c r="CD12" s="46"/>
       <c r="CE12" s="46"/>
       <c r="CF12" s="47"/>
-      <c r="CG12" s="117"/>
+      <c r="CG12" s="116"/>
     </row>
     <row r="13" spans="1:85" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="134"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="132"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="44"/>
       <c r="E13" s="45"/>
       <c r="F13" s="46"/>
@@ -3130,14 +3106,14 @@
       <c r="R13" s="46"/>
       <c r="S13" s="46"/>
       <c r="T13" s="47"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="123"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="122"/>
       <c r="AC13" s="45"/>
       <c r="AD13" s="46"/>
       <c r="AE13" s="46"/>
@@ -3145,12 +3121,12 @@
       <c r="AG13" s="46"/>
       <c r="AH13" s="46"/>
       <c r="AI13" s="46"/>
-      <c r="AJ13" s="53"/>
+      <c r="AJ13" s="46"/>
       <c r="AK13" s="45"/>
       <c r="AL13" s="46"/>
       <c r="AM13" s="46"/>
       <c r="AN13" s="46"/>
-      <c r="AO13" s="46"/>
+      <c r="AO13" s="52"/>
       <c r="AP13" s="46"/>
       <c r="AQ13" s="46"/>
       <c r="AR13" s="47"/>
@@ -3194,16 +3170,18 @@
       <c r="CD13" s="46"/>
       <c r="CE13" s="46"/>
       <c r="CF13" s="47"/>
-      <c r="CG13" s="117"/>
+      <c r="CG13" s="116"/>
     </row>
     <row r="14" spans="1:85" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="110" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="141"/>
+      <c r="C14" s="106" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="55"/>
       <c r="E14" s="56"/>
       <c r="F14" s="57"/>
@@ -3221,14 +3199,14 @@
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
       <c r="T14" s="58"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="122"/>
-      <c r="AA14" s="122"/>
-      <c r="AB14" s="123"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="121"/>
+      <c r="W14" s="121"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="121"/>
+      <c r="AA14" s="121"/>
+      <c r="AB14" s="122"/>
       <c r="AC14" s="56"/>
       <c r="AD14" s="57"/>
       <c r="AE14" s="57"/>
@@ -3241,7 +3219,7 @@
       <c r="AL14" s="57"/>
       <c r="AM14" s="57"/>
       <c r="AN14" s="57"/>
-      <c r="AO14" s="52"/>
+      <c r="AO14" s="57"/>
       <c r="AP14" s="52"/>
       <c r="AQ14" s="76"/>
       <c r="AR14" s="53"/>
@@ -3252,7 +3230,7 @@
       <c r="AW14" s="52"/>
       <c r="AX14" s="52"/>
       <c r="AY14" s="76"/>
-      <c r="AZ14" s="53"/>
+      <c r="AZ14" s="56"/>
       <c r="BA14" s="56"/>
       <c r="BB14" s="57"/>
       <c r="BC14" s="57"/>
@@ -3285,14 +3263,14 @@
       <c r="CD14" s="57"/>
       <c r="CE14" s="57"/>
       <c r="CF14" s="58"/>
-      <c r="CG14" s="117"/>
+      <c r="CG14" s="116"/>
     </row>
     <row r="15" spans="1:85" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="142"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="55"/>
       <c r="E15" s="56"/>
       <c r="F15" s="57"/>
@@ -3310,14 +3288,14 @@
       <c r="R15" s="57"/>
       <c r="S15" s="57"/>
       <c r="T15" s="58"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="122"/>
-      <c r="W15" s="122"/>
-      <c r="X15" s="122"/>
-      <c r="Y15" s="122"/>
-      <c r="Z15" s="122"/>
-      <c r="AA15" s="122"/>
-      <c r="AB15" s="123"/>
+      <c r="U15" s="120"/>
+      <c r="V15" s="121"/>
+      <c r="W15" s="121"/>
+      <c r="X15" s="121"/>
+      <c r="Y15" s="121"/>
+      <c r="Z15" s="121"/>
+      <c r="AA15" s="121"/>
+      <c r="AB15" s="122"/>
       <c r="AC15" s="56"/>
       <c r="AD15" s="57"/>
       <c r="AE15" s="57"/>
@@ -3374,16 +3352,18 @@
       <c r="CD15" s="57"/>
       <c r="CE15" s="57"/>
       <c r="CF15" s="58"/>
-      <c r="CG15" s="117"/>
+      <c r="CG15" s="116"/>
     </row>
     <row r="16" spans="1:85" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="112" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="143"/>
+      <c r="C16" s="106" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="60"/>
       <c r="E16" s="61"/>
       <c r="F16" s="62"/>
@@ -3401,14 +3381,14 @@
       <c r="R16" s="62"/>
       <c r="S16" s="62"/>
       <c r="T16" s="63"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="122"/>
-      <c r="Z16" s="122"/>
-      <c r="AA16" s="122"/>
-      <c r="AB16" s="123"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="121"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="122"/>
       <c r="AC16" s="61"/>
       <c r="AD16" s="62"/>
       <c r="AE16" s="62"/>
@@ -3448,7 +3428,7 @@
       <c r="BM16" s="52"/>
       <c r="BN16" s="52"/>
       <c r="BO16" s="52"/>
-      <c r="BP16" s="53"/>
+      <c r="BP16" s="61"/>
       <c r="BQ16" s="61"/>
       <c r="BR16" s="62"/>
       <c r="BS16" s="62"/>
@@ -3465,14 +3445,14 @@
       <c r="CD16" s="62"/>
       <c r="CE16" s="62"/>
       <c r="CF16" s="63"/>
-      <c r="CG16" s="117"/>
+      <c r="CG16" s="116"/>
     </row>
     <row r="17" spans="1:85" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="138"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="144"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="60"/>
       <c r="E17" s="61"/>
       <c r="F17" s="62"/>
@@ -3490,14 +3470,14 @@
       <c r="R17" s="62"/>
       <c r="S17" s="62"/>
       <c r="T17" s="63"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="122"/>
-      <c r="X17" s="122"/>
-      <c r="Y17" s="122"/>
-      <c r="Z17" s="122"/>
-      <c r="AA17" s="122"/>
-      <c r="AB17" s="123"/>
+      <c r="U17" s="120"/>
+      <c r="V17" s="121"/>
+      <c r="W17" s="121"/>
+      <c r="X17" s="121"/>
+      <c r="Y17" s="121"/>
+      <c r="Z17" s="121"/>
+      <c r="AA17" s="121"/>
+      <c r="AB17" s="122"/>
       <c r="AC17" s="61"/>
       <c r="AD17" s="62"/>
       <c r="AE17" s="62"/>
@@ -3554,16 +3534,18 @@
       <c r="CD17" s="62"/>
       <c r="CE17" s="62"/>
       <c r="CF17" s="63"/>
-      <c r="CG17" s="117"/>
+      <c r="CG17" s="116"/>
     </row>
     <row r="18" spans="1:85" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="139" t="s">
+      <c r="A18" s="114" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="145"/>
+      <c r="C18" s="106" t="s">
+        <v>25</v>
+      </c>
       <c r="D18" s="65"/>
       <c r="E18" s="66"/>
       <c r="F18" s="67"/>
@@ -3581,14 +3563,14 @@
       <c r="R18" s="67"/>
       <c r="S18" s="67"/>
       <c r="T18" s="68"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="122"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="122"/>
-      <c r="AB18" s="123"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="121"/>
+      <c r="W18" s="121"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="121"/>
+      <c r="AB18" s="122"/>
       <c r="AC18" s="66"/>
       <c r="AD18" s="67"/>
       <c r="AE18" s="67"/>
@@ -3642,17 +3624,17 @@
       <c r="CA18" s="52"/>
       <c r="CB18" s="52"/>
       <c r="CC18" s="52"/>
-      <c r="CD18" s="52"/>
+      <c r="CD18" s="67"/>
       <c r="CE18" s="67"/>
       <c r="CF18" s="68"/>
-      <c r="CG18" s="117"/>
+      <c r="CG18" s="116"/>
     </row>
     <row r="19" spans="1:85" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="140"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="146"/>
+      <c r="C19" s="107"/>
       <c r="D19" s="65"/>
       <c r="E19" s="66"/>
       <c r="F19" s="67"/>
@@ -3670,14 +3652,14 @@
       <c r="R19" s="67"/>
       <c r="S19" s="67"/>
       <c r="T19" s="68"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="122"/>
-      <c r="W19" s="122"/>
-      <c r="X19" s="122"/>
-      <c r="Y19" s="122"/>
-      <c r="Z19" s="122"/>
-      <c r="AA19" s="122"/>
-      <c r="AB19" s="123"/>
+      <c r="U19" s="120"/>
+      <c r="V19" s="121"/>
+      <c r="W19" s="121"/>
+      <c r="X19" s="121"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="121"/>
+      <c r="AA19" s="121"/>
+      <c r="AB19" s="122"/>
       <c r="AC19" s="66"/>
       <c r="AD19" s="67"/>
       <c r="AE19" s="67"/>
@@ -3734,10 +3716,10 @@
       <c r="CD19" s="52"/>
       <c r="CE19" s="67"/>
       <c r="CF19" s="68"/>
-      <c r="CG19" s="117"/>
+      <c r="CG19" s="116"/>
     </row>
     <row r="20" spans="1:85" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="104" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="83" t="s">
@@ -3761,14 +3743,14 @@
       <c r="R20" s="73"/>
       <c r="S20" s="73"/>
       <c r="T20" s="74"/>
-      <c r="U20" s="121"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="122"/>
-      <c r="AB20" s="123"/>
+      <c r="U20" s="120"/>
+      <c r="V20" s="121"/>
+      <c r="W20" s="121"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="121"/>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="122"/>
       <c r="AC20" s="72"/>
       <c r="AD20" s="73"/>
       <c r="AE20" s="73"/>
@@ -3825,10 +3807,10 @@
       <c r="CD20" s="73"/>
       <c r="CE20" s="52"/>
       <c r="CF20" s="53"/>
-      <c r="CG20" s="117"/>
+      <c r="CG20" s="116"/>
     </row>
     <row r="21" spans="1:85" s="92" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="130"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="86" t="s">
         <v>28</v>
       </c>
@@ -3850,14 +3832,14 @@
       <c r="R21" s="90"/>
       <c r="S21" s="90"/>
       <c r="T21" s="91"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="122"/>
-      <c r="X21" s="122"/>
-      <c r="Y21" s="122"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="122"/>
-      <c r="AB21" s="123"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="121"/>
+      <c r="W21" s="121"/>
+      <c r="X21" s="121"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="121"/>
+      <c r="AA21" s="121"/>
+      <c r="AB21" s="122"/>
       <c r="AC21" s="89"/>
       <c r="AD21" s="90"/>
       <c r="AE21" s="90"/>
@@ -3914,7 +3896,7 @@
       <c r="CD21" s="90"/>
       <c r="CE21" s="90"/>
       <c r="CF21" s="91"/>
-      <c r="CG21" s="117"/>
+      <c r="CG21" s="116"/>
     </row>
     <row r="22" spans="1:85" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="93" t="s">
@@ -3939,14 +3921,14 @@
       <c r="R22" s="98"/>
       <c r="S22" s="98"/>
       <c r="T22" s="99"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="122"/>
-      <c r="W22" s="122"/>
-      <c r="X22" s="122"/>
-      <c r="Y22" s="122"/>
-      <c r="Z22" s="122"/>
-      <c r="AA22" s="122"/>
-      <c r="AB22" s="123"/>
+      <c r="U22" s="120"/>
+      <c r="V22" s="121"/>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="121"/>
+      <c r="AB22" s="122"/>
       <c r="AC22" s="97"/>
       <c r="AD22" s="98"/>
       <c r="AE22" s="98"/>
@@ -4003,7 +3985,7 @@
       <c r="CD22" s="52"/>
       <c r="CE22" s="98"/>
       <c r="CF22" s="99"/>
-      <c r="CG22" s="117"/>
+      <c r="CG22" s="116"/>
     </row>
     <row r="23" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
@@ -4026,14 +4008,14 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="10"/>
-      <c r="U23" s="121"/>
-      <c r="V23" s="122"/>
-      <c r="W23" s="122"/>
-      <c r="X23" s="122"/>
-      <c r="Y23" s="122"/>
-      <c r="Z23" s="122"/>
-      <c r="AA23" s="122"/>
-      <c r="AB23" s="123"/>
+      <c r="U23" s="120"/>
+      <c r="V23" s="121"/>
+      <c r="W23" s="121"/>
+      <c r="X23" s="121"/>
+      <c r="Y23" s="121"/>
+      <c r="Z23" s="121"/>
+      <c r="AA23" s="121"/>
+      <c r="AB23" s="122"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="9"/>
       <c r="AE23" s="9"/>
@@ -4090,7 +4072,7 @@
       <c r="CD23" s="9"/>
       <c r="CE23" s="9"/>
       <c r="CF23" s="10"/>
-      <c r="CG23" s="117"/>
+      <c r="CG23" s="116"/>
     </row>
     <row r="24" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
@@ -4113,14 +4095,14 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="10"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="122"/>
-      <c r="W24" s="122"/>
-      <c r="X24" s="122"/>
-      <c r="Y24" s="122"/>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="122"/>
-      <c r="AB24" s="123"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="121"/>
+      <c r="AA24" s="121"/>
+      <c r="AB24" s="122"/>
       <c r="AC24" s="8"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="9"/>
@@ -4177,7 +4159,7 @@
       <c r="CD24" s="9"/>
       <c r="CE24" s="9"/>
       <c r="CF24" s="10"/>
-      <c r="CG24" s="117"/>
+      <c r="CG24" s="116"/>
     </row>
     <row r="25" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
@@ -4200,14 +4182,14 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="122"/>
-      <c r="X25" s="122"/>
-      <c r="Y25" s="122"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="122"/>
-      <c r="AB25" s="123"/>
+      <c r="U25" s="120"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="121"/>
+      <c r="AA25" s="121"/>
+      <c r="AB25" s="122"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9"/>
@@ -4264,7 +4246,7 @@
       <c r="CD25" s="9"/>
       <c r="CE25" s="9"/>
       <c r="CF25" s="10"/>
-      <c r="CG25" s="117"/>
+      <c r="CG25" s="116"/>
     </row>
     <row r="26" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A26" s="24"/>
@@ -4287,14 +4269,14 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="122"/>
-      <c r="W26" s="122"/>
-      <c r="X26" s="122"/>
-      <c r="Y26" s="122"/>
-      <c r="Z26" s="122"/>
-      <c r="AA26" s="122"/>
-      <c r="AB26" s="123"/>
+      <c r="U26" s="120"/>
+      <c r="V26" s="121"/>
+      <c r="W26" s="121"/>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="121"/>
+      <c r="Z26" s="121"/>
+      <c r="AA26" s="121"/>
+      <c r="AB26" s="122"/>
       <c r="AC26" s="8"/>
       <c r="AD26" s="9"/>
       <c r="AE26" s="9"/>
@@ -4351,7 +4333,7 @@
       <c r="CD26" s="9"/>
       <c r="CE26" s="9"/>
       <c r="CF26" s="10"/>
-      <c r="CG26" s="117"/>
+      <c r="CG26" s="116"/>
     </row>
     <row r="27" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
@@ -4374,14 +4356,14 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="122"/>
-      <c r="W27" s="122"/>
-      <c r="X27" s="122"/>
-      <c r="Y27" s="122"/>
-      <c r="Z27" s="122"/>
-      <c r="AA27" s="122"/>
-      <c r="AB27" s="123"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="121"/>
+      <c r="W27" s="121"/>
+      <c r="X27" s="121"/>
+      <c r="Y27" s="121"/>
+      <c r="Z27" s="121"/>
+      <c r="AA27" s="121"/>
+      <c r="AB27" s="122"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="9"/>
       <c r="AE27" s="9"/>
@@ -4438,7 +4420,7 @@
       <c r="CD27" s="9"/>
       <c r="CE27" s="9"/>
       <c r="CF27" s="10"/>
-      <c r="CG27" s="117"/>
+      <c r="CG27" s="116"/>
     </row>
     <row r="28" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
@@ -4461,14 +4443,14 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="122"/>
-      <c r="X28" s="122"/>
-      <c r="Y28" s="122"/>
-      <c r="Z28" s="122"/>
-      <c r="AA28" s="122"/>
-      <c r="AB28" s="123"/>
+      <c r="U28" s="120"/>
+      <c r="V28" s="121"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="121"/>
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="121"/>
+      <c r="AB28" s="122"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="9"/>
       <c r="AE28" s="9"/>
@@ -4525,7 +4507,7 @@
       <c r="CD28" s="9"/>
       <c r="CE28" s="9"/>
       <c r="CF28" s="10"/>
-      <c r="CG28" s="117"/>
+      <c r="CG28" s="116"/>
     </row>
     <row r="29" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
@@ -4548,14 +4530,14 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="122"/>
-      <c r="W29" s="122"/>
-      <c r="X29" s="122"/>
-      <c r="Y29" s="122"/>
-      <c r="Z29" s="122"/>
-      <c r="AA29" s="122"/>
-      <c r="AB29" s="123"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
+      <c r="Y29" s="121"/>
+      <c r="Z29" s="121"/>
+      <c r="AA29" s="121"/>
+      <c r="AB29" s="122"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="9"/>
       <c r="AE29" s="9"/>
@@ -4612,7 +4594,7 @@
       <c r="CD29" s="9"/>
       <c r="CE29" s="9"/>
       <c r="CF29" s="10"/>
-      <c r="CG29" s="117"/>
+      <c r="CG29" s="116"/>
     </row>
     <row r="30" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
@@ -4635,14 +4617,14 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="122"/>
-      <c r="X30" s="122"/>
-      <c r="Y30" s="122"/>
-      <c r="Z30" s="122"/>
-      <c r="AA30" s="122"/>
-      <c r="AB30" s="123"/>
+      <c r="U30" s="120"/>
+      <c r="V30" s="121"/>
+      <c r="W30" s="121"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="121"/>
+      <c r="Z30" s="121"/>
+      <c r="AA30" s="121"/>
+      <c r="AB30" s="122"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="9"/>
       <c r="AE30" s="9"/>
@@ -4699,7 +4681,7 @@
       <c r="CD30" s="9"/>
       <c r="CE30" s="9"/>
       <c r="CF30" s="10"/>
-      <c r="CG30" s="117"/>
+      <c r="CG30" s="116"/>
     </row>
     <row r="31" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
@@ -4722,14 +4704,14 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="122"/>
-      <c r="Y31" s="122"/>
-      <c r="Z31" s="122"/>
-      <c r="AA31" s="122"/>
-      <c r="AB31" s="123"/>
+      <c r="U31" s="120"/>
+      <c r="V31" s="121"/>
+      <c r="W31" s="121"/>
+      <c r="X31" s="121"/>
+      <c r="Y31" s="121"/>
+      <c r="Z31" s="121"/>
+      <c r="AA31" s="121"/>
+      <c r="AB31" s="122"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="9"/>
       <c r="AE31" s="9"/>
@@ -4786,7 +4768,7 @@
       <c r="CD31" s="9"/>
       <c r="CE31" s="9"/>
       <c r="CF31" s="10"/>
-      <c r="CG31" s="117"/>
+      <c r="CG31" s="116"/>
     </row>
     <row r="32" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
@@ -4809,14 +4791,14 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="122"/>
-      <c r="Y32" s="122"/>
-      <c r="Z32" s="122"/>
-      <c r="AA32" s="122"/>
-      <c r="AB32" s="123"/>
+      <c r="U32" s="120"/>
+      <c r="V32" s="121"/>
+      <c r="W32" s="121"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="121"/>
+      <c r="Z32" s="121"/>
+      <c r="AA32" s="121"/>
+      <c r="AB32" s="122"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="9"/>
       <c r="AE32" s="9"/>
@@ -4873,7 +4855,7 @@
       <c r="CD32" s="9"/>
       <c r="CE32" s="9"/>
       <c r="CF32" s="10"/>
-      <c r="CG32" s="117"/>
+      <c r="CG32" s="116"/>
     </row>
     <row r="33" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
@@ -4896,14 +4878,14 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="121"/>
-      <c r="V33" s="122"/>
-      <c r="W33" s="122"/>
-      <c r="X33" s="122"/>
-      <c r="Y33" s="122"/>
-      <c r="Z33" s="122"/>
-      <c r="AA33" s="122"/>
-      <c r="AB33" s="123"/>
+      <c r="U33" s="120"/>
+      <c r="V33" s="121"/>
+      <c r="W33" s="121"/>
+      <c r="X33" s="121"/>
+      <c r="Y33" s="121"/>
+      <c r="Z33" s="121"/>
+      <c r="AA33" s="121"/>
+      <c r="AB33" s="122"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="9"/>
       <c r="AE33" s="9"/>
@@ -4960,7 +4942,7 @@
       <c r="CD33" s="9"/>
       <c r="CE33" s="9"/>
       <c r="CF33" s="10"/>
-      <c r="CG33" s="117"/>
+      <c r="CG33" s="116"/>
     </row>
     <row r="34" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
@@ -4983,14 +4965,14 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="121"/>
-      <c r="V34" s="122"/>
-      <c r="W34" s="122"/>
-      <c r="X34" s="122"/>
-      <c r="Y34" s="122"/>
-      <c r="Z34" s="122"/>
-      <c r="AA34" s="122"/>
-      <c r="AB34" s="123"/>
+      <c r="U34" s="120"/>
+      <c r="V34" s="121"/>
+      <c r="W34" s="121"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="121"/>
+      <c r="Z34" s="121"/>
+      <c r="AA34" s="121"/>
+      <c r="AB34" s="122"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="9"/>
       <c r="AE34" s="9"/>
@@ -5047,7 +5029,7 @@
       <c r="CD34" s="9"/>
       <c r="CE34" s="9"/>
       <c r="CF34" s="10"/>
-      <c r="CG34" s="117"/>
+      <c r="CG34" s="116"/>
     </row>
     <row r="35" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
@@ -5070,14 +5052,14 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="121"/>
-      <c r="V35" s="122"/>
-      <c r="W35" s="122"/>
-      <c r="X35" s="122"/>
-      <c r="Y35" s="122"/>
-      <c r="Z35" s="122"/>
-      <c r="AA35" s="122"/>
-      <c r="AB35" s="123"/>
+      <c r="U35" s="120"/>
+      <c r="V35" s="121"/>
+      <c r="W35" s="121"/>
+      <c r="X35" s="121"/>
+      <c r="Y35" s="121"/>
+      <c r="Z35" s="121"/>
+      <c r="AA35" s="121"/>
+      <c r="AB35" s="122"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
@@ -5134,7 +5116,7 @@
       <c r="CD35" s="9"/>
       <c r="CE35" s="9"/>
       <c r="CF35" s="10"/>
-      <c r="CG35" s="117"/>
+      <c r="CG35" s="116"/>
     </row>
     <row r="36" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
@@ -5157,14 +5139,14 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="121"/>
-      <c r="V36" s="122"/>
-      <c r="W36" s="122"/>
-      <c r="X36" s="122"/>
-      <c r="Y36" s="122"/>
-      <c r="Z36" s="122"/>
-      <c r="AA36" s="122"/>
-      <c r="AB36" s="123"/>
+      <c r="U36" s="120"/>
+      <c r="V36" s="121"/>
+      <c r="W36" s="121"/>
+      <c r="X36" s="121"/>
+      <c r="Y36" s="121"/>
+      <c r="Z36" s="121"/>
+      <c r="AA36" s="121"/>
+      <c r="AB36" s="122"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -5221,7 +5203,7 @@
       <c r="CD36" s="9"/>
       <c r="CE36" s="9"/>
       <c r="CF36" s="10"/>
-      <c r="CG36" s="117"/>
+      <c r="CG36" s="116"/>
     </row>
     <row r="37" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
@@ -5244,14 +5226,14 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="121"/>
-      <c r="V37" s="122"/>
-      <c r="W37" s="122"/>
-      <c r="X37" s="122"/>
-      <c r="Y37" s="122"/>
-      <c r="Z37" s="122"/>
-      <c r="AA37" s="122"/>
-      <c r="AB37" s="123"/>
+      <c r="U37" s="120"/>
+      <c r="V37" s="121"/>
+      <c r="W37" s="121"/>
+      <c r="X37" s="121"/>
+      <c r="Y37" s="121"/>
+      <c r="Z37" s="121"/>
+      <c r="AA37" s="121"/>
+      <c r="AB37" s="122"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -5308,7 +5290,7 @@
       <c r="CD37" s="9"/>
       <c r="CE37" s="9"/>
       <c r="CF37" s="10"/>
-      <c r="CG37" s="117"/>
+      <c r="CG37" s="116"/>
     </row>
     <row r="38" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A38" s="24"/>
@@ -5331,14 +5313,14 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="121"/>
-      <c r="V38" s="122"/>
-      <c r="W38" s="122"/>
-      <c r="X38" s="122"/>
-      <c r="Y38" s="122"/>
-      <c r="Z38" s="122"/>
-      <c r="AA38" s="122"/>
-      <c r="AB38" s="123"/>
+      <c r="U38" s="120"/>
+      <c r="V38" s="121"/>
+      <c r="W38" s="121"/>
+      <c r="X38" s="121"/>
+      <c r="Y38" s="121"/>
+      <c r="Z38" s="121"/>
+      <c r="AA38" s="121"/>
+      <c r="AB38" s="122"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="9"/>
       <c r="AE38" s="9"/>
@@ -5395,7 +5377,7 @@
       <c r="CD38" s="9"/>
       <c r="CE38" s="9"/>
       <c r="CF38" s="10"/>
-      <c r="CG38" s="117"/>
+      <c r="CG38" s="116"/>
     </row>
     <row r="39" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
@@ -5418,14 +5400,14 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="10"/>
-      <c r="U39" s="121"/>
-      <c r="V39" s="122"/>
-      <c r="W39" s="122"/>
-      <c r="X39" s="122"/>
-      <c r="Y39" s="122"/>
-      <c r="Z39" s="122"/>
-      <c r="AA39" s="122"/>
-      <c r="AB39" s="123"/>
+      <c r="U39" s="120"/>
+      <c r="V39" s="121"/>
+      <c r="W39" s="121"/>
+      <c r="X39" s="121"/>
+      <c r="Y39" s="121"/>
+      <c r="Z39" s="121"/>
+      <c r="AA39" s="121"/>
+      <c r="AB39" s="122"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="9"/>
       <c r="AE39" s="9"/>
@@ -5482,7 +5464,7 @@
       <c r="CD39" s="9"/>
       <c r="CE39" s="9"/>
       <c r="CF39" s="10"/>
-      <c r="CG39" s="117"/>
+      <c r="CG39" s="116"/>
     </row>
     <row r="40" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
@@ -5505,14 +5487,14 @@
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
       <c r="T40" s="14"/>
-      <c r="U40" s="124"/>
-      <c r="V40" s="125"/>
-      <c r="W40" s="125"/>
-      <c r="X40" s="125"/>
-      <c r="Y40" s="125"/>
-      <c r="Z40" s="125"/>
-      <c r="AA40" s="125"/>
-      <c r="AB40" s="126"/>
+      <c r="U40" s="123"/>
+      <c r="V40" s="124"/>
+      <c r="W40" s="124"/>
+      <c r="X40" s="124"/>
+      <c r="Y40" s="124"/>
+      <c r="Z40" s="124"/>
+      <c r="AA40" s="124"/>
+      <c r="AB40" s="125"/>
       <c r="AC40" s="12"/>
       <c r="AD40" s="13"/>
       <c r="AE40" s="13"/>
@@ -5569,115 +5551,105 @@
       <c r="CD40" s="13"/>
       <c r="CE40" s="13"/>
       <c r="CF40" s="14"/>
-      <c r="CG40" s="117"/>
+      <c r="CG40" s="116"/>
     </row>
     <row r="41" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A41" s="127" t="s">
+      <c r="A41" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="128"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="128"/>
-      <c r="O41" s="128"/>
-      <c r="P41" s="128"/>
-      <c r="Q41" s="128"/>
-      <c r="R41" s="128"/>
-      <c r="S41" s="128"/>
-      <c r="T41" s="128"/>
-      <c r="U41" s="128"/>
-      <c r="V41" s="128"/>
-      <c r="W41" s="128"/>
-      <c r="X41" s="128"/>
-      <c r="Y41" s="128"/>
-      <c r="Z41" s="128"/>
-      <c r="AA41" s="128"/>
-      <c r="AB41" s="128"/>
-      <c r="AC41" s="128"/>
-      <c r="AD41" s="128"/>
-      <c r="AE41" s="128"/>
-      <c r="AF41" s="128"/>
-      <c r="AG41" s="128"/>
-      <c r="AH41" s="128"/>
-      <c r="AI41" s="128"/>
-      <c r="AJ41" s="128"/>
-      <c r="AK41" s="128"/>
-      <c r="AL41" s="128"/>
-      <c r="AM41" s="128"/>
-      <c r="AN41" s="128"/>
-      <c r="AO41" s="128"/>
-      <c r="AP41" s="128"/>
-      <c r="AQ41" s="128"/>
-      <c r="AR41" s="128"/>
-      <c r="AS41" s="128"/>
-      <c r="AT41" s="128"/>
-      <c r="AU41" s="128"/>
-      <c r="AV41" s="128"/>
-      <c r="AW41" s="128"/>
-      <c r="AX41" s="128"/>
-      <c r="AY41" s="128"/>
-      <c r="AZ41" s="128"/>
-      <c r="BA41" s="128"/>
-      <c r="BB41" s="128"/>
-      <c r="BC41" s="128"/>
-      <c r="BD41" s="128"/>
-      <c r="BE41" s="128"/>
-      <c r="BF41" s="128"/>
-      <c r="BG41" s="128"/>
-      <c r="BH41" s="128"/>
-      <c r="BI41" s="128"/>
-      <c r="BJ41" s="128"/>
-      <c r="BK41" s="128"/>
-      <c r="BL41" s="128"/>
-      <c r="BM41" s="128"/>
-      <c r="BN41" s="128"/>
-      <c r="BO41" s="128"/>
-      <c r="BP41" s="128"/>
-      <c r="BQ41" s="128"/>
-      <c r="BR41" s="128"/>
-      <c r="BS41" s="128"/>
-      <c r="BT41" s="128"/>
-      <c r="BU41" s="128"/>
-      <c r="BV41" s="128"/>
-      <c r="BW41" s="128"/>
-      <c r="BX41" s="128"/>
-      <c r="BY41" s="128"/>
-      <c r="BZ41" s="128"/>
-      <c r="CA41" s="128"/>
-      <c r="CB41" s="128"/>
-      <c r="CC41" s="128"/>
-      <c r="CD41" s="128"/>
-      <c r="CE41" s="128"/>
-      <c r="CF41" s="128"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="103"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="103"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="103"/>
+      <c r="Q41" s="103"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="103"/>
+      <c r="T41" s="103"/>
+      <c r="U41" s="103"/>
+      <c r="V41" s="103"/>
+      <c r="W41" s="103"/>
+      <c r="X41" s="103"/>
+      <c r="Y41" s="103"/>
+      <c r="Z41" s="103"/>
+      <c r="AA41" s="103"/>
+      <c r="AB41" s="103"/>
+      <c r="AC41" s="103"/>
+      <c r="AD41" s="103"/>
+      <c r="AE41" s="103"/>
+      <c r="AF41" s="103"/>
+      <c r="AG41" s="103"/>
+      <c r="AH41" s="103"/>
+      <c r="AI41" s="103"/>
+      <c r="AJ41" s="103"/>
+      <c r="AK41" s="103"/>
+      <c r="AL41" s="103"/>
+      <c r="AM41" s="103"/>
+      <c r="AN41" s="103"/>
+      <c r="AO41" s="103"/>
+      <c r="AP41" s="103"/>
+      <c r="AQ41" s="103"/>
+      <c r="AR41" s="103"/>
+      <c r="AS41" s="103"/>
+      <c r="AT41" s="103"/>
+      <c r="AU41" s="103"/>
+      <c r="AV41" s="103"/>
+      <c r="AW41" s="103"/>
+      <c r="AX41" s="103"/>
+      <c r="AY41" s="103"/>
+      <c r="AZ41" s="103"/>
+      <c r="BA41" s="103"/>
+      <c r="BB41" s="103"/>
+      <c r="BC41" s="103"/>
+      <c r="BD41" s="103"/>
+      <c r="BE41" s="103"/>
+      <c r="BF41" s="103"/>
+      <c r="BG41" s="103"/>
+      <c r="BH41" s="103"/>
+      <c r="BI41" s="103"/>
+      <c r="BJ41" s="103"/>
+      <c r="BK41" s="103"/>
+      <c r="BL41" s="103"/>
+      <c r="BM41" s="103"/>
+      <c r="BN41" s="103"/>
+      <c r="BO41" s="103"/>
+      <c r="BP41" s="103"/>
+      <c r="BQ41" s="103"/>
+      <c r="BR41" s="103"/>
+      <c r="BS41" s="103"/>
+      <c r="BT41" s="103"/>
+      <c r="BU41" s="103"/>
+      <c r="BV41" s="103"/>
+      <c r="BW41" s="103"/>
+      <c r="BX41" s="103"/>
+      <c r="BY41" s="103"/>
+      <c r="BZ41" s="103"/>
+      <c r="CA41" s="103"/>
+      <c r="CB41" s="103"/>
+      <c r="CC41" s="103"/>
+      <c r="CD41" s="103"/>
+      <c r="CE41" s="103"/>
+      <c r="CF41" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A41:CF41"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="CG4:CG40"/>
-    <mergeCell ref="U6:AB40"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="CC4:CF4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="E2:AR3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="AS2:CF3"/>
@@ -5693,16 +5665,26 @@
     <mergeCell ref="BU4:BX4"/>
     <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="BY4:CB4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="E2:AR3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="CG4:CG40"/>
+    <mergeCell ref="U6:AB40"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="CC4:CF4"/>
+    <mergeCell ref="A41:CF41"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="C6:C12 C14 C16 C18 C20:C40">
+  <conditionalFormatting sqref="C6:C12 C20:C40 C14 C16 C18">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",C6)))</formula>
     </cfRule>
@@ -5737,6 +5719,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5949,17 +5942,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
@@ -5969,6 +5951,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C334E08-C15B-4283-B082-739F59C9FCA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5985,17 +5980,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>